--- a/Prospects/HomeSend/Siena Transaction Generator/BASE/Case 1 - WIP (version 2).xlsb.xlsx
+++ b/Prospects/HomeSend/Siena Transaction Generator/BASE/Case 1 - WIP (version 2).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtownsend\Documents\GitHub\ebSiena-DemoSystemData\Prospects\HomeSend\Siena Transaction Generator\BASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D2777D-0E2B-4CB6-9F05-7BD9663EDF38}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADFB646-AB82-401F-9B59-15A7E2042C77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="3" xr2:uid="{123A3C3A-CA81-4564-8BED-B192D3F76CA1}"/>
+    <workbookView xWindow="3375" yWindow="2865" windowWidth="21600" windowHeight="11505" firstSheet="3" activeTab="3" xr2:uid="{123A3C3A-CA81-4564-8BED-B192D3F76CA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Case 1" sheetId="4" r:id="rId1"/>
@@ -4809,8 +4809,8 @@
   <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:AZ206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AI102" sqref="AI24:AZ102"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AU107" sqref="AU107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="N2" s="116" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>e17868c7-0b9f-6295-2c6c-15b58feca169-002</v>
+        <v>d3c28fe3-0aa1-8f24-98f5-0c39ea332114-002</v>
       </c>
       <c r="O2" s="116" t="str">
         <f>LEFT(LEFT(W2,3)&amp;"."&amp;SUBSTITUTE(Y2,"-","")&amp;"."&amp;U2&amp;"0000000000000",20)</f>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="Q2" s="116" t="str">
         <f ca="1">N2</f>
-        <v>e17868c7-0b9f-6295-2c6c-15b58feca169-002</v>
+        <v>d3c28fe3-0aa1-8f24-98f5-0c39ea332114-002</v>
       </c>
       <c r="R2" s="117">
         <v>0</v>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="AC2" s="116" t="str">
         <f t="shared" ref="AC2:AC33" ca="1" si="6">UPPER(LEFT(U2&amp;SUBSTITUTE(N2,"-",""),20))</f>
-        <v>BDBE17868C70B9F62952</v>
+        <v>BDBD3C28FE30AA18F249</v>
       </c>
       <c r="AD2" s="121" t="s">
         <v>96</v>
@@ -5109,14 +5109,14 @@
       </c>
       <c r="AI2" s="116" t="str">
         <f t="shared" ref="AI2:AI24" ca="1" si="7">N2</f>
-        <v>e17868c7-0b9f-6295-2c6c-15b58feca169-002</v>
+        <v>d3c28fe3-0aa1-8f24-98f5-0c39ea332114-002</v>
       </c>
       <c r="AJ2" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK2" s="116" t="str">
         <f t="shared" ref="AK2:AK23" ca="1" si="8">Q2</f>
-        <v>e17868c7-0b9f-6295-2c6c-15b58feca169-002</v>
+        <v>d3c28fe3-0aa1-8f24-98f5-0c39ea332114-002</v>
       </c>
       <c r="AL2" s="117">
         <f t="shared" ref="AL2:AL23" si="9">R2</f>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="AZ2" s="116" t="str">
         <f t="shared" ref="AZ2:AZ23" ca="1" si="15">AC2</f>
-        <v>BDBE17868C70B9F62952</v>
+        <v>BDBD3C28FE30AA18F249</v>
       </c>
     </row>
     <row r="3" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="N3" s="116" t="str">
         <f t="shared" ref="N3:N67" ca="1" si="18">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>ee365f8e-333b-1bcf-132f-7a4305b78de1-003</v>
+        <v>b5f93127-3d5e-12b4-85b0-3fad0d124229-003</v>
       </c>
       <c r="O3" s="116" t="str">
         <f t="shared" ref="O3:O23" si="19">LEFT(LEFT(W3,3)&amp;"."&amp;SUBSTITUTE(Y3,"-","")&amp;"."&amp;U3&amp;"0000000000000",20)</f>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="Q3" s="116" t="str">
         <f t="shared" ref="Q3:Q51" ca="1" si="20">N3</f>
-        <v>ee365f8e-333b-1bcf-132f-7a4305b78de1-003</v>
+        <v>b5f93127-3d5e-12b4-85b0-3fad0d124229-003</v>
       </c>
       <c r="R3" s="117">
         <f>R$2</f>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="AC3" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBEE365F8E333B1BCF1</v>
+        <v>BDBB5F931273D5E12B48</v>
       </c>
       <c r="AD3" s="117" t="str">
         <f>AD$2</f>
@@ -5278,14 +5278,14 @@
       </c>
       <c r="AI3" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ee365f8e-333b-1bcf-132f-7a4305b78de1-003</v>
+        <v>b5f93127-3d5e-12b4-85b0-3fad0d124229-003</v>
       </c>
       <c r="AJ3" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK3" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ee365f8e-333b-1bcf-132f-7a4305b78de1-003</v>
+        <v>b5f93127-3d5e-12b4-85b0-3fad0d124229-003</v>
       </c>
       <c r="AL3" s="117">
         <f t="shared" si="9"/>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="AZ3" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBEE365F8E333B1BCF1</v>
+        <v>BDBB5F931273D5E12B48</v>
       </c>
     </row>
     <row r="4" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="N4" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>df1fabc5-6000-4979-7801-a4888dc81795-004</v>
+        <v>3ec853fc-a76b-0709-8298-fd5e09fa9257-004</v>
       </c>
       <c r="O4" s="116" t="str">
         <f t="shared" si="19"/>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="Q4" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>df1fabc5-6000-4979-7801-a4888dc81795-004</v>
+        <v>3ec853fc-a76b-0709-8298-fd5e09fa9257-004</v>
       </c>
       <c r="R4" s="117">
         <f t="shared" ref="R4:R67" si="26">R$2</f>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AC4" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBDF1FABC5600049797</v>
+        <v>BDB3EC853FCA76B07098</v>
       </c>
       <c r="AD4" s="117" t="str">
         <f t="shared" ref="AD4:AD67" si="29">AD$2</f>
@@ -5445,14 +5445,14 @@
       </c>
       <c r="AI4" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>df1fabc5-6000-4979-7801-a4888dc81795-004</v>
+        <v>3ec853fc-a76b-0709-8298-fd5e09fa9257-004</v>
       </c>
       <c r="AJ4" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK4" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>df1fabc5-6000-4979-7801-a4888dc81795-004</v>
+        <v>3ec853fc-a76b-0709-8298-fd5e09fa9257-004</v>
       </c>
       <c r="AL4" s="117">
         <f t="shared" si="9"/>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="AZ4" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBDF1FABC5600049797</v>
+        <v>BDB3EC853FCA76B07098</v>
       </c>
     </row>
     <row r="5" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="N5" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>b3b4e8ab-6ee6-13ba-4af8-6a01f29b1c8c-005</v>
+        <v>f254534c-7928-34fe-28c0-11853ba852b8-005</v>
       </c>
       <c r="O5" s="116" t="str">
         <f t="shared" si="19"/>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="Q5" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>b3b4e8ab-6ee6-13ba-4af8-6a01f29b1c8c-005</v>
+        <v>f254534c-7928-34fe-28c0-11853ba852b8-005</v>
       </c>
       <c r="R5" s="117">
         <f t="shared" si="26"/>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="AC5" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBB3B4E8AB6EE613BA4</v>
+        <v>BDBF254534C792834FE2</v>
       </c>
       <c r="AD5" s="117" t="str">
         <f t="shared" si="29"/>
@@ -5612,14 +5612,14 @@
       </c>
       <c r="AI5" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>b3b4e8ab-6ee6-13ba-4af8-6a01f29b1c8c-005</v>
+        <v>f254534c-7928-34fe-28c0-11853ba852b8-005</v>
       </c>
       <c r="AJ5" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK5" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>b3b4e8ab-6ee6-13ba-4af8-6a01f29b1c8c-005</v>
+        <v>f254534c-7928-34fe-28c0-11853ba852b8-005</v>
       </c>
       <c r="AL5" s="117">
         <f t="shared" si="9"/>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="AZ5" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBB3B4E8AB6EE613BA4</v>
+        <v>BDBF254534C792834FE2</v>
       </c>
     </row>
     <row r="6" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="N6" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>8a5aee53-5a9e-8545-8cc2-17d93d2c55f0-006</v>
+        <v>d6ba598f-4570-1d95-0633-1f3ef1d004dd-006</v>
       </c>
       <c r="O6" s="116" t="str">
         <f t="shared" si="19"/>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="Q6" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>8a5aee53-5a9e-8545-8cc2-17d93d2c55f0-006</v>
+        <v>d6ba598f-4570-1d95-0633-1f3ef1d004dd-006</v>
       </c>
       <c r="R6" s="117">
         <f t="shared" si="26"/>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="AC6" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB8A5AEE535A9E85458</v>
+        <v>BDBD6BA598F45701D950</v>
       </c>
       <c r="AD6" s="117" t="str">
         <f t="shared" si="29"/>
@@ -5779,14 +5779,14 @@
       </c>
       <c r="AI6" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>8a5aee53-5a9e-8545-8cc2-17d93d2c55f0-006</v>
+        <v>d6ba598f-4570-1d95-0633-1f3ef1d004dd-006</v>
       </c>
       <c r="AJ6" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK6" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>8a5aee53-5a9e-8545-8cc2-17d93d2c55f0-006</v>
+        <v>d6ba598f-4570-1d95-0633-1f3ef1d004dd-006</v>
       </c>
       <c r="AL6" s="117">
         <f t="shared" si="9"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="AZ6" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB8A5AEE535A9E85458</v>
+        <v>BDBD6BA598F45701D950</v>
       </c>
     </row>
     <row r="7" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="N7" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>a94b37e8-9c67-3fea-09d2-06f9df256cc0-007</v>
+        <v>7b10120b-801e-968f-5740-1e709f510892-007</v>
       </c>
       <c r="O7" s="116" t="str">
         <f t="shared" si="19"/>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="Q7" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>a94b37e8-9c67-3fea-09d2-06f9df256cc0-007</v>
+        <v>7b10120b-801e-968f-5740-1e709f510892-007</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" si="26"/>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="AC7" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBA94B37E89C673FEA0</v>
+        <v>BDB7B10120B801E968F5</v>
       </c>
       <c r="AD7" s="117" t="str">
         <f t="shared" si="29"/>
@@ -5952,14 +5952,14 @@
       </c>
       <c r="AI7" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>a94b37e8-9c67-3fea-09d2-06f9df256cc0-007</v>
+        <v>7b10120b-801e-968f-5740-1e709f510892-007</v>
       </c>
       <c r="AJ7" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK7" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>a94b37e8-9c67-3fea-09d2-06f9df256cc0-007</v>
+        <v>7b10120b-801e-968f-5740-1e709f510892-007</v>
       </c>
       <c r="AL7" s="117">
         <f t="shared" si="9"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="AZ7" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBA94B37E89C673FEA0</v>
+        <v>BDB7B10120B801E968F5</v>
       </c>
     </row>
     <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="N8" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>7feb984f-241d-1447-17b1-f29dad4f72d8-008</v>
+        <v>a2a7dc2b-7981-9de2-6d25-9eafd5320f41-008</v>
       </c>
       <c r="O8" s="116" t="str">
         <f t="shared" si="19"/>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="Q8" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>7feb984f-241d-1447-17b1-f29dad4f72d8-008</v>
+        <v>a2a7dc2b-7981-9de2-6d25-9eafd5320f41-008</v>
       </c>
       <c r="R8" s="117">
         <f t="shared" si="26"/>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="AC8" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB7FEB984F241D14471</v>
+        <v>BDBA2A7DC2B79819DE26</v>
       </c>
       <c r="AD8" s="117" t="str">
         <f t="shared" si="29"/>
@@ -6127,14 +6127,14 @@
       </c>
       <c r="AI8" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>7feb984f-241d-1447-17b1-f29dad4f72d8-008</v>
+        <v>a2a7dc2b-7981-9de2-6d25-9eafd5320f41-008</v>
       </c>
       <c r="AJ8" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK8" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>7feb984f-241d-1447-17b1-f29dad4f72d8-008</v>
+        <v>a2a7dc2b-7981-9de2-6d25-9eafd5320f41-008</v>
       </c>
       <c r="AL8" s="117">
         <f t="shared" si="9"/>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="AZ8" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB7FEB984F241D14471</v>
+        <v>BDBA2A7DC2B79819DE26</v>
       </c>
     </row>
     <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="N9" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>ae93c858-37af-4501-569f-94c7e38c94d1-009</v>
+        <v>4335acac-3775-9b80-9a2c-519a51c95c96-009</v>
       </c>
       <c r="O9" s="116" t="str">
         <f t="shared" si="19"/>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="Q9" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>ae93c858-37af-4501-569f-94c7e38c94d1-009</v>
+        <v>4335acac-3775-9b80-9a2c-519a51c95c96-009</v>
       </c>
       <c r="R9" s="117">
         <f t="shared" si="26"/>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="AC9" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBAE93C85837AF45015</v>
+        <v>BDB4335ACAC37759B809</v>
       </c>
       <c r="AD9" s="117" t="str">
         <f t="shared" si="29"/>
@@ -6304,14 +6304,14 @@
       </c>
       <c r="AI9" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>ae93c858-37af-4501-569f-94c7e38c94d1-009</v>
+        <v>4335acac-3775-9b80-9a2c-519a51c95c96-009</v>
       </c>
       <c r="AJ9" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK9" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ae93c858-37af-4501-569f-94c7e38c94d1-009</v>
+        <v>4335acac-3775-9b80-9a2c-519a51c95c96-009</v>
       </c>
       <c r="AL9" s="117">
         <f t="shared" si="9"/>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="AZ9" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBAE93C85837AF45015</v>
+        <v>BDB4335ACAC37759B809</v>
       </c>
     </row>
     <row r="10" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="N10" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>5039022f-1e75-4722-8ce3-7e5e39841947-010</v>
+        <v>808816e0-8fca-885d-1a74-c2a5f4f7964f-010</v>
       </c>
       <c r="O10" s="116" t="str">
         <f t="shared" si="19"/>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="Q10" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>5039022f-1e75-4722-8ce3-7e5e39841947-010</v>
+        <v>808816e0-8fca-885d-1a74-c2a5f4f7964f-010</v>
       </c>
       <c r="R10" s="117">
         <f t="shared" si="26"/>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="AC10" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB5039022F1E7547228</v>
+        <v>BDB808816E08FCA885D1</v>
       </c>
       <c r="AD10" s="117" t="str">
         <f t="shared" si="29"/>
@@ -6475,14 +6475,14 @@
       </c>
       <c r="AI10" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>5039022f-1e75-4722-8ce3-7e5e39841947-010</v>
+        <v>808816e0-8fca-885d-1a74-c2a5f4f7964f-010</v>
       </c>
       <c r="AJ10" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK10" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>5039022f-1e75-4722-8ce3-7e5e39841947-010</v>
+        <v>808816e0-8fca-885d-1a74-c2a5f4f7964f-010</v>
       </c>
       <c r="AL10" s="117">
         <f t="shared" si="9"/>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="AZ10" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB5039022F1E7547228</v>
+        <v>BDB808816E08FCA885D1</v>
       </c>
     </row>
     <row r="11" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="N11" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>595c81b4-42de-97d5-6551-316b82e2435d-011</v>
+        <v>014ab0a7-0b91-51a9-7bef-028d8ff81638-011</v>
       </c>
       <c r="O11" s="116" t="str">
         <f t="shared" si="19"/>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="Q11" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>595c81b4-42de-97d5-6551-316b82e2435d-011</v>
+        <v>014ab0a7-0b91-51a9-7bef-028d8ff81638-011</v>
       </c>
       <c r="R11" s="117">
         <f t="shared" si="26"/>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="AC11" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB595C81B442DE97D56</v>
+        <v>BDB014AB0A70B9151A97</v>
       </c>
       <c r="AD11" s="117" t="str">
         <f t="shared" si="29"/>
@@ -6648,14 +6648,14 @@
       </c>
       <c r="AI11" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>595c81b4-42de-97d5-6551-316b82e2435d-011</v>
+        <v>014ab0a7-0b91-51a9-7bef-028d8ff81638-011</v>
       </c>
       <c r="AJ11" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK11" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>595c81b4-42de-97d5-6551-316b82e2435d-011</v>
+        <v>014ab0a7-0b91-51a9-7bef-028d8ff81638-011</v>
       </c>
       <c r="AL11" s="117">
         <f t="shared" si="9"/>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="AZ11" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB595C81B442DE97D56</v>
+        <v>BDB014AB0A70B9151A97</v>
       </c>
     </row>
     <row r="12" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="N12" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>b8275a08-2f38-252b-88e1-5236b89d967f-012</v>
+        <v>9a65efe5-39ca-37ca-a6e5-f765bf78910d-012</v>
       </c>
       <c r="O12" s="116" t="str">
         <f t="shared" si="19"/>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="Q12" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>b8275a08-2f38-252b-88e1-5236b89d967f-012</v>
+        <v>9a65efe5-39ca-37ca-a6e5-f765bf78910d-012</v>
       </c>
       <c r="R12" s="117">
         <f t="shared" si="26"/>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="AC12" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBB8275A082F38252B8</v>
+        <v>BDB9A65EFE539CA37CAA</v>
       </c>
       <c r="AD12" s="117" t="str">
         <f t="shared" si="29"/>
@@ -6819,14 +6819,14 @@
       </c>
       <c r="AI12" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>b8275a08-2f38-252b-88e1-5236b89d967f-012</v>
+        <v>9a65efe5-39ca-37ca-a6e5-f765bf78910d-012</v>
       </c>
       <c r="AJ12" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK12" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>b8275a08-2f38-252b-88e1-5236b89d967f-012</v>
+        <v>9a65efe5-39ca-37ca-a6e5-f765bf78910d-012</v>
       </c>
       <c r="AL12" s="117">
         <f t="shared" si="9"/>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="AZ12" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBB8275A082F38252B8</v>
+        <v>BDB9A65EFE539CA37CAA</v>
       </c>
     </row>
     <row r="13" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="N13" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>fdd90f83-37ca-9aef-09ce-145d99dd9d08-013</v>
+        <v>78894672-8190-5270-673e-5689c814265b-013</v>
       </c>
       <c r="O13" s="116" t="str">
         <f t="shared" si="19"/>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="Q13" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>fdd90f83-37ca-9aef-09ce-145d99dd9d08-013</v>
+        <v>78894672-8190-5270-673e-5689c814265b-013</v>
       </c>
       <c r="R13" s="117">
         <f t="shared" si="26"/>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="AC13" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBFDD90F8337CA9AEF0</v>
+        <v>BDB78894672819052706</v>
       </c>
       <c r="AD13" s="117" t="str">
         <f t="shared" si="29"/>
@@ -6986,14 +6986,14 @@
       </c>
       <c r="AI13" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>fdd90f83-37ca-9aef-09ce-145d99dd9d08-013</v>
+        <v>78894672-8190-5270-673e-5689c814265b-013</v>
       </c>
       <c r="AJ13" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK13" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>fdd90f83-37ca-9aef-09ce-145d99dd9d08-013</v>
+        <v>78894672-8190-5270-673e-5689c814265b-013</v>
       </c>
       <c r="AL13" s="117">
         <f t="shared" si="9"/>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="AZ13" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBFDD90F8337CA9AEF0</v>
+        <v>BDB78894672819052706</v>
       </c>
     </row>
     <row r="14" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="N14" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>b8a3de87-5982-29a5-9ec7-5c4861054164-014</v>
+        <v>54ca4ce8-0c86-0936-70e9-10af864191c5-014</v>
       </c>
       <c r="O14" s="116" t="str">
         <f t="shared" si="19"/>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="Q14" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>b8a3de87-5982-29a5-9ec7-5c4861054164-014</v>
+        <v>54ca4ce8-0c86-0936-70e9-10af864191c5-014</v>
       </c>
       <c r="R14" s="117">
         <f t="shared" si="26"/>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="AC14" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBB8A3DE87598229A59</v>
+        <v>BDB54CA4CE80C8609367</v>
       </c>
       <c r="AD14" s="117" t="str">
         <f t="shared" si="29"/>
@@ -7159,14 +7159,14 @@
       </c>
       <c r="AI14" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>b8a3de87-5982-29a5-9ec7-5c4861054164-014</v>
+        <v>54ca4ce8-0c86-0936-70e9-10af864191c5-014</v>
       </c>
       <c r="AJ14" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK14" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>b8a3de87-5982-29a5-9ec7-5c4861054164-014</v>
+        <v>54ca4ce8-0c86-0936-70e9-10af864191c5-014</v>
       </c>
       <c r="AL14" s="117">
         <f t="shared" si="9"/>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="AZ14" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBB8A3DE87598229A59</v>
+        <v>BDB54CA4CE80C8609367</v>
       </c>
     </row>
     <row r="15" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="N15" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>cce9a3dc-0ee3-5a6b-812a-70cbc4dd921b-015</v>
+        <v>31f1ed0d-87c8-6e79-8894-170d781b7fb8-015</v>
       </c>
       <c r="O15" s="116" t="str">
         <f t="shared" si="19"/>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="Q15" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>cce9a3dc-0ee3-5a6b-812a-70cbc4dd921b-015</v>
+        <v>31f1ed0d-87c8-6e79-8894-170d781b7fb8-015</v>
       </c>
       <c r="R15" s="117">
         <f t="shared" si="26"/>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="AC15" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBCCE9A3DC0EE35A6B8</v>
+        <v>BDB31F1ED0D87C86E798</v>
       </c>
       <c r="AD15" s="117" t="str">
         <f t="shared" si="29"/>
@@ -7336,14 +7336,14 @@
       </c>
       <c r="AI15" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>cce9a3dc-0ee3-5a6b-812a-70cbc4dd921b-015</v>
+        <v>31f1ed0d-87c8-6e79-8894-170d781b7fb8-015</v>
       </c>
       <c r="AJ15" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK15" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>cce9a3dc-0ee3-5a6b-812a-70cbc4dd921b-015</v>
+        <v>31f1ed0d-87c8-6e79-8894-170d781b7fb8-015</v>
       </c>
       <c r="AL15" s="117">
         <f t="shared" si="9"/>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="AZ15" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBCCE9A3DC0EE35A6B8</v>
+        <v>BDB31F1ED0D87C86E798</v>
       </c>
     </row>
     <row r="16" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="N16" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>26fd2a7a-662f-458e-7681-4cb321319bf3-016</v>
+        <v>081542cd-862b-2474-3835-629e21d3a18f-016</v>
       </c>
       <c r="O16" s="116" t="str">
         <f t="shared" si="19"/>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="Q16" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>26fd2a7a-662f-458e-7681-4cb321319bf3-016</v>
+        <v>081542cd-862b-2474-3835-629e21d3a18f-016</v>
       </c>
       <c r="R16" s="117">
         <f t="shared" si="26"/>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="AC16" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB26FD2A7A662F458E7</v>
+        <v>BDB081542CD862B24743</v>
       </c>
       <c r="AD16" s="117" t="str">
         <f t="shared" si="29"/>
@@ -7513,14 +7513,14 @@
       </c>
       <c r="AI16" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>26fd2a7a-662f-458e-7681-4cb321319bf3-016</v>
+        <v>081542cd-862b-2474-3835-629e21d3a18f-016</v>
       </c>
       <c r="AJ16" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK16" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>26fd2a7a-662f-458e-7681-4cb321319bf3-016</v>
+        <v>081542cd-862b-2474-3835-629e21d3a18f-016</v>
       </c>
       <c r="AL16" s="117">
         <f t="shared" si="9"/>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="AZ16" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB26FD2A7A662F458E7</v>
+        <v>BDB081542CD862B24743</v>
       </c>
     </row>
     <row r="17" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="N17" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>d175881b-6afd-837f-6e32-b9eb46ab0d9c-017</v>
+        <v>2390eba1-1369-3515-516f-f7567bd58fa7-017</v>
       </c>
       <c r="O17" s="116" t="str">
         <f t="shared" si="19"/>
@@ -7630,7 +7630,7 @@
       </c>
       <c r="Q17" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>d175881b-6afd-837f-6e32-b9eb46ab0d9c-017</v>
+        <v>2390eba1-1369-3515-516f-f7567bd58fa7-017</v>
       </c>
       <c r="R17" s="117">
         <f t="shared" si="26"/>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="AC17" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBD175881B6AFD837F6</v>
+        <v>BDB2390EBA1136935155</v>
       </c>
       <c r="AD17" s="117" t="str">
         <f t="shared" si="29"/>
@@ -7690,14 +7690,14 @@
       </c>
       <c r="AI17" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>d175881b-6afd-837f-6e32-b9eb46ab0d9c-017</v>
+        <v>2390eba1-1369-3515-516f-f7567bd58fa7-017</v>
       </c>
       <c r="AJ17" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK17" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>d175881b-6afd-837f-6e32-b9eb46ab0d9c-017</v>
+        <v>2390eba1-1369-3515-516f-f7567bd58fa7-017</v>
       </c>
       <c r="AL17" s="117">
         <f t="shared" si="9"/>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="AZ17" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBD175881B6AFD837F6</v>
+        <v>BDB2390EBA1136935155</v>
       </c>
     </row>
     <row r="18" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="N18" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>47b95d82-0b93-a143-0481-4c2f947125cc-018</v>
+        <v>4a46467b-9f32-7230-3db4-67631cb5896b-018</v>
       </c>
       <c r="O18" s="116" t="str">
         <f t="shared" si="19"/>
@@ -7807,7 +7807,7 @@
       </c>
       <c r="Q18" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>47b95d82-0b93-a143-0481-4c2f947125cc-018</v>
+        <v>4a46467b-9f32-7230-3db4-67631cb5896b-018</v>
       </c>
       <c r="R18" s="117">
         <f t="shared" si="26"/>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="AC18" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB47B95D820B93A1430</v>
+        <v>BDB4A46467B9F3272303</v>
       </c>
       <c r="AD18" s="117" t="str">
         <f t="shared" si="29"/>
@@ -7867,14 +7867,14 @@
       </c>
       <c r="AI18" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>47b95d82-0b93-a143-0481-4c2f947125cc-018</v>
+        <v>4a46467b-9f32-7230-3db4-67631cb5896b-018</v>
       </c>
       <c r="AJ18" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK18" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>47b95d82-0b93-a143-0481-4c2f947125cc-018</v>
+        <v>4a46467b-9f32-7230-3db4-67631cb5896b-018</v>
       </c>
       <c r="AL18" s="117">
         <f t="shared" si="9"/>
@@ -7928,7 +7928,7 @@
       </c>
       <c r="AZ18" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB47B95D820B93A1430</v>
+        <v>BDB4A46467B9F3272303</v>
       </c>
     </row>
     <row r="19" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="N19" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>9b310944-8bc4-5eef-2550-703715c42949-019</v>
+        <v>aa0c97da-122c-1797-02c8-ac29a54e1159-019</v>
       </c>
       <c r="O19" s="116" t="str">
         <f t="shared" si="19"/>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="Q19" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>9b310944-8bc4-5eef-2550-703715c42949-019</v>
+        <v>aa0c97da-122c-1797-02c8-ac29a54e1159-019</v>
       </c>
       <c r="R19" s="117">
         <f t="shared" si="26"/>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="AC19" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB9B3109448BC45EEF2</v>
+        <v>BDBAA0C97DA122C17970</v>
       </c>
       <c r="AD19" s="117" t="str">
         <f t="shared" si="29"/>
@@ -8044,14 +8044,14 @@
       </c>
       <c r="AI19" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>9b310944-8bc4-5eef-2550-703715c42949-019</v>
+        <v>aa0c97da-122c-1797-02c8-ac29a54e1159-019</v>
       </c>
       <c r="AJ19" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK19" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>9b310944-8bc4-5eef-2550-703715c42949-019</v>
+        <v>aa0c97da-122c-1797-02c8-ac29a54e1159-019</v>
       </c>
       <c r="AL19" s="117">
         <f t="shared" si="9"/>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="AZ19" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB9B3109448BC45EEF2</v>
+        <v>BDBAA0C97DA122C17970</v>
       </c>
     </row>
     <row r="20" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="N20" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>a26d359a-5ffa-370f-6a06-5be4aff5640a-020</v>
+        <v>b63eb73d-1b26-7c78-4e55-b5b89a3b0e2f-020</v>
       </c>
       <c r="O20" s="116" t="str">
         <f t="shared" si="19"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="Q20" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>a26d359a-5ffa-370f-6a06-5be4aff5640a-020</v>
+        <v>b63eb73d-1b26-7c78-4e55-b5b89a3b0e2f-020</v>
       </c>
       <c r="R20" s="117">
         <f t="shared" si="26"/>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="AC20" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBA26D359A5FFA370F6</v>
+        <v>BDBB63EB73D1B267C784</v>
       </c>
       <c r="AD20" s="117" t="str">
         <f t="shared" si="29"/>
@@ -8221,14 +8221,14 @@
       </c>
       <c r="AI20" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>a26d359a-5ffa-370f-6a06-5be4aff5640a-020</v>
+        <v>b63eb73d-1b26-7c78-4e55-b5b89a3b0e2f-020</v>
       </c>
       <c r="AJ20" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK20" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>a26d359a-5ffa-370f-6a06-5be4aff5640a-020</v>
+        <v>b63eb73d-1b26-7c78-4e55-b5b89a3b0e2f-020</v>
       </c>
       <c r="AL20" s="117">
         <f t="shared" si="9"/>
@@ -8282,7 +8282,7 @@
       </c>
       <c r="AZ20" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBA26D359A5FFA370F6</v>
+        <v>BDBB63EB73D1B267C784</v>
       </c>
     </row>
     <row r="21" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="N21" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>49c56b12-3df0-86dd-209d-d1d624333715-021</v>
+        <v>c59997d9-17b4-037f-5eb7-ebcd8da5a633-021</v>
       </c>
       <c r="O21" s="116" t="str">
         <f t="shared" si="19"/>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="Q21" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>49c56b12-3df0-86dd-209d-d1d624333715-021</v>
+        <v>c59997d9-17b4-037f-5eb7-ebcd8da5a633-021</v>
       </c>
       <c r="R21" s="117">
         <f t="shared" si="26"/>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="AC21" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB49C56B123DF086DD2</v>
+        <v>BDBC59997D917B4037F5</v>
       </c>
       <c r="AD21" s="117" t="str">
         <f t="shared" si="29"/>
@@ -8398,14 +8398,14 @@
       </c>
       <c r="AI21" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>49c56b12-3df0-86dd-209d-d1d624333715-021</v>
+        <v>c59997d9-17b4-037f-5eb7-ebcd8da5a633-021</v>
       </c>
       <c r="AJ21" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK21" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>49c56b12-3df0-86dd-209d-d1d624333715-021</v>
+        <v>c59997d9-17b4-037f-5eb7-ebcd8da5a633-021</v>
       </c>
       <c r="AL21" s="117">
         <f t="shared" si="9"/>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="AZ21" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB49C56B123DF086DD2</v>
+        <v>BDBC59997D917B4037F5</v>
       </c>
     </row>
     <row r="22" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="N22" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1ea760b1-0afb-1fca-3e1f-aba2cb425e56-022</v>
+        <v>dce7e12e-1001-03a8-9e4a-c1d37e7a43f0-022</v>
       </c>
       <c r="O22" s="116" t="str">
         <f t="shared" si="19"/>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="Q22" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>1ea760b1-0afb-1fca-3e1f-aba2cb425e56-022</v>
+        <v>dce7e12e-1001-03a8-9e4a-c1d37e7a43f0-022</v>
       </c>
       <c r="R22" s="117">
         <f t="shared" si="26"/>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="AC22" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB1EA760B10AFB1FCA3</v>
+        <v>BDBDCE7E12E100103A89</v>
       </c>
       <c r="AD22" s="117" t="str">
         <f t="shared" si="29"/>
@@ -8575,14 +8575,14 @@
       </c>
       <c r="AI22" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1ea760b1-0afb-1fca-3e1f-aba2cb425e56-022</v>
+        <v>dce7e12e-1001-03a8-9e4a-c1d37e7a43f0-022</v>
       </c>
       <c r="AJ22" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK22" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1ea760b1-0afb-1fca-3e1f-aba2cb425e56-022</v>
+        <v>dce7e12e-1001-03a8-9e4a-c1d37e7a43f0-022</v>
       </c>
       <c r="AL22" s="117">
         <f t="shared" si="9"/>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AZ22" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB1EA760B10AFB1FCA3</v>
+        <v>BDBDCE7E12E100103A89</v>
       </c>
     </row>
     <row r="23" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="N23" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>88b91527-964a-543e-85a8-724170f063e2-023</v>
+        <v>b8d45375-09b0-711b-9b8f-980c167a591a-023</v>
       </c>
       <c r="O23" s="116" t="str">
         <f t="shared" si="19"/>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="Q23" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>88b91527-964a-543e-85a8-724170f063e2-023</v>
+        <v>b8d45375-09b0-711b-9b8f-980c167a591a-023</v>
       </c>
       <c r="R23" s="117">
         <f t="shared" si="26"/>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AC23" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB88B91527964A543E8</v>
+        <v>BDBB8D4537509B0711B9</v>
       </c>
       <c r="AD23" s="117" t="str">
         <f t="shared" si="29"/>
@@ -8752,14 +8752,14 @@
       </c>
       <c r="AI23" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>88b91527-964a-543e-85a8-724170f063e2-023</v>
+        <v>b8d45375-09b0-711b-9b8f-980c167a591a-023</v>
       </c>
       <c r="AJ23" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK23" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>88b91527-964a-543e-85a8-724170f063e2-023</v>
+        <v>b8d45375-09b0-711b-9b8f-980c167a591a-023</v>
       </c>
       <c r="AL23" s="117">
         <f t="shared" si="9"/>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="AZ23" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB88B91527964A543E8</v>
+        <v>BDBB8D4537509B0711B9</v>
       </c>
     </row>
     <row r="24" spans="1:52" s="169" customFormat="1" x14ac:dyDescent="0.25">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="N24" s="170" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>23c6a22d-6d59-6fe3-0111-c00c5da49b5d-024</v>
+        <v>23d633a4-8087-283d-23b3-386cb6ec6971-024</v>
       </c>
       <c r="O24" s="170"/>
       <c r="P24" s="169" t="str">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="Q24" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>23c6a22d-6d59-6fe3-0111-c00c5da49b5d-024</v>
+        <v>23d633a4-8087-283d-23b3-386cb6ec6971-024</v>
       </c>
       <c r="R24" s="117">
         <f t="shared" si="26"/>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="AC24" s="170" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB23C6A22D6D596FE30</v>
+        <v>BDB23D633A48087283D2</v>
       </c>
       <c r="AD24" s="117" t="str">
         <f t="shared" si="29"/>
@@ -8925,14 +8925,14 @@
       </c>
       <c r="AI24" s="170" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>23c6a22d-6d59-6fe3-0111-c00c5da49b5d-024</v>
+        <v>23d633a4-8087-283d-23b3-386cb6ec6971-024</v>
       </c>
       <c r="AJ24" s="169" t="s">
         <v>76</v>
       </c>
       <c r="AK24" s="170" t="str">
         <f ca="1">Q25</f>
-        <v>8b3c8e48-7f6d-8be4-129c-5082845249e5-025</v>
+        <v>2417fe96-7208-8bdf-4e47-68fdaba89e6f-025</v>
       </c>
       <c r="AL24" s="169">
         <f>R24</f>
@@ -8951,7 +8951,7 @@
         <v>BDB</v>
       </c>
       <c r="AP24" s="169" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AQ24" s="169">
         <f t="shared" si="30"/>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="AZ24" s="170" t="str">
         <f ca="1">AC24</f>
-        <v>BDB23C6A22D6D596FE30</v>
+        <v>BDB23D633A48087283D2</v>
       </c>
     </row>
     <row r="25" spans="1:52" s="169" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -9024,7 +9024,7 @@
       </c>
       <c r="N25" s="170" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>8b3c8e48-7f6d-8be4-129c-5082845249e5-025</v>
+        <v>2417fe96-7208-8bdf-4e47-68fdaba89e6f-025</v>
       </c>
       <c r="O25" s="116" t="str">
         <f t="shared" ref="O25:O50" si="37">LEFT(LEFT(W25,3)&amp;"."&amp;SUBSTITUTE(Y25,"-","")&amp;"."&amp;U25&amp;"0000000000000",20)</f>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="Q25" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>8b3c8e48-7f6d-8be4-129c-5082845249e5-025</v>
+        <v>2417fe96-7208-8bdf-4e47-68fdaba89e6f-025</v>
       </c>
       <c r="R25" s="117">
         <f t="shared" si="26"/>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="AC25" s="170" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB8B3C8E487F6D8BE41</v>
+        <v>BDB2417FE9672088BDF4</v>
       </c>
       <c r="AD25" s="117" t="str">
         <f t="shared" si="29"/>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="N26" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>b6d4c181-3194-6c5e-01cd-e2c610061217-026</v>
+        <v>6a964376-1115-5f49-2622-1b69f2971664-026</v>
       </c>
       <c r="O26" s="116" t="str">
         <f t="shared" si="37"/>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="Q26" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>b6d4c181-3194-6c5e-01cd-e2c610061217-026</v>
+        <v>6a964376-1115-5f49-2622-1b69f2971664-026</v>
       </c>
       <c r="R26" s="117">
         <f t="shared" si="26"/>
@@ -9203,7 +9203,7 @@
       </c>
       <c r="AC26" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBB6D4C18131946C5E0</v>
+        <v>BDB6A96437611155F492</v>
       </c>
       <c r="AD26" s="117" t="str">
         <f t="shared" si="29"/>
@@ -9215,14 +9215,14 @@
       </c>
       <c r="AI26" s="116" t="str">
         <f t="shared" ref="AI26:AI57" ca="1" si="39">N26</f>
-        <v>b6d4c181-3194-6c5e-01cd-e2c610061217-026</v>
+        <v>6a964376-1115-5f49-2622-1b69f2971664-026</v>
       </c>
       <c r="AJ26" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK26" s="116" t="str">
         <f t="shared" ref="AK26:AK51" ca="1" si="40">Q26</f>
-        <v>b6d4c181-3194-6c5e-01cd-e2c610061217-026</v>
+        <v>6a964376-1115-5f49-2622-1b69f2971664-026</v>
       </c>
       <c r="AL26" s="117">
         <f t="shared" ref="AL26:AL51" si="41">R26</f>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="AZ26" s="116" t="str">
         <f t="shared" ref="AZ26:AZ51" ca="1" si="51">AC26</f>
-        <v>BDBB6D4C18131946C5E0</v>
+        <v>BDB6A96437611155F492</v>
       </c>
     </row>
     <row r="27" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="N27" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>8107e9fd-3568-6f1c-004a-6be5e9d6933b-027</v>
+        <v>91cda290-053c-03ff-56f8-91bcc6c55cf2-027</v>
       </c>
       <c r="O27" s="116" t="str">
         <f t="shared" si="37"/>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="Q27" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>8107e9fd-3568-6f1c-004a-6be5e9d6933b-027</v>
+        <v>91cda290-053c-03ff-56f8-91bcc6c55cf2-027</v>
       </c>
       <c r="R27" s="117">
         <f t="shared" si="26"/>
@@ -9380,7 +9380,7 @@
       </c>
       <c r="AC27" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB8107E9FD35686F1C0</v>
+        <v>BDB91CDA290053C03FF5</v>
       </c>
       <c r="AD27" s="117" t="str">
         <f t="shared" si="29"/>
@@ -9392,14 +9392,14 @@
       </c>
       <c r="AI27" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>8107e9fd-3568-6f1c-004a-6be5e9d6933b-027</v>
+        <v>91cda290-053c-03ff-56f8-91bcc6c55cf2-027</v>
       </c>
       <c r="AJ27" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK27" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>8107e9fd-3568-6f1c-004a-6be5e9d6933b-027</v>
+        <v>91cda290-053c-03ff-56f8-91bcc6c55cf2-027</v>
       </c>
       <c r="AL27" s="117">
         <f t="shared" si="41"/>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="AZ27" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB8107E9FD35686F1C0</v>
+        <v>BDB91CDA290053C03FF5</v>
       </c>
     </row>
     <row r="28" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -9497,7 +9497,7 @@
       </c>
       <c r="N28" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>38875914-3900-42a4-0cf3-7183135b7785-028</v>
+        <v>d1838453-8238-9eda-1612-81234c2e3518-028</v>
       </c>
       <c r="O28" s="116" t="str">
         <f t="shared" si="37"/>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="Q28" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>38875914-3900-42a4-0cf3-7183135b7785-028</v>
+        <v>d1838453-8238-9eda-1612-81234c2e3518-028</v>
       </c>
       <c r="R28" s="117">
         <f t="shared" si="26"/>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="AC28" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB38875914390042A40</v>
+        <v>BDBD183845382389EDA1</v>
       </c>
       <c r="AD28" s="117" t="str">
         <f t="shared" si="29"/>
@@ -9569,14 +9569,14 @@
       </c>
       <c r="AI28" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>38875914-3900-42a4-0cf3-7183135b7785-028</v>
+        <v>d1838453-8238-9eda-1612-81234c2e3518-028</v>
       </c>
       <c r="AJ28" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK28" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>38875914-3900-42a4-0cf3-7183135b7785-028</v>
+        <v>d1838453-8238-9eda-1612-81234c2e3518-028</v>
       </c>
       <c r="AL28" s="117">
         <f t="shared" si="41"/>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="AZ28" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB38875914390042A40</v>
+        <v>BDBD183845382389EDA1</v>
       </c>
     </row>
     <row r="29" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -9674,7 +9674,7 @@
       </c>
       <c r="N29" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>d57706db-538b-5689-2a7a-d2a5e1615824-029</v>
+        <v>1bbe817a-3dc3-5158-a227-432f785488fb-029</v>
       </c>
       <c r="O29" s="116" t="str">
         <f t="shared" si="37"/>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="Q29" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>d57706db-538b-5689-2a7a-d2a5e1615824-029</v>
+        <v>1bbe817a-3dc3-5158-a227-432f785488fb-029</v>
       </c>
       <c r="R29" s="117">
         <f t="shared" si="26"/>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="AC29" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBD57706DB538B56892</v>
+        <v>BDB1BBE817A3DC35158A</v>
       </c>
       <c r="AD29" s="117" t="str">
         <f t="shared" si="29"/>
@@ -9746,14 +9746,14 @@
       </c>
       <c r="AI29" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>d57706db-538b-5689-2a7a-d2a5e1615824-029</v>
+        <v>1bbe817a-3dc3-5158-a227-432f785488fb-029</v>
       </c>
       <c r="AJ29" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK29" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>d57706db-538b-5689-2a7a-d2a5e1615824-029</v>
+        <v>1bbe817a-3dc3-5158-a227-432f785488fb-029</v>
       </c>
       <c r="AL29" s="117">
         <f t="shared" si="41"/>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="AZ29" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBD57706DB538B56892</v>
+        <v>BDB1BBE817A3DC35158A</v>
       </c>
     </row>
     <row r="30" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="N30" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>ffba3ace-3b3c-4cda-83ac-92fe72e326c3-030</v>
+        <v>7912acc6-8e41-5f29-3f30-11337a151963-030</v>
       </c>
       <c r="O30" s="116" t="str">
         <f t="shared" si="37"/>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="Q30" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>ffba3ace-3b3c-4cda-83ac-92fe72e326c3-030</v>
+        <v>7912acc6-8e41-5f29-3f30-11337a151963-030</v>
       </c>
       <c r="R30" s="117">
         <f t="shared" si="26"/>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="AC30" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBFFBA3ACE3B3C4CDA8</v>
+        <v>BDB7912ACC68E415F293</v>
       </c>
       <c r="AD30" s="117" t="str">
         <f t="shared" si="29"/>
@@ -9923,14 +9923,14 @@
       </c>
       <c r="AI30" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>ffba3ace-3b3c-4cda-83ac-92fe72e326c3-030</v>
+        <v>7912acc6-8e41-5f29-3f30-11337a151963-030</v>
       </c>
       <c r="AJ30" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK30" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>ffba3ace-3b3c-4cda-83ac-92fe72e326c3-030</v>
+        <v>7912acc6-8e41-5f29-3f30-11337a151963-030</v>
       </c>
       <c r="AL30" s="117">
         <f t="shared" si="41"/>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="AZ30" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBFFBA3ACE3B3C4CDA8</v>
+        <v>BDB7912ACC68E415F293</v>
       </c>
     </row>
     <row r="31" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="N31" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>b88579d0-34a3-6367-52b7-4b16cee44169-031</v>
+        <v>ae307f6a-a449-1357-52b1-694d4e2b3865-031</v>
       </c>
       <c r="O31" s="116" t="str">
         <f t="shared" si="37"/>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="Q31" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>b88579d0-34a3-6367-52b7-4b16cee44169-031</v>
+        <v>ae307f6a-a449-1357-52b1-694d4e2b3865-031</v>
       </c>
       <c r="R31" s="117">
         <f t="shared" si="26"/>
@@ -10088,7 +10088,7 @@
       </c>
       <c r="AC31" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBB88579D034A363675</v>
+        <v>BDBAE307F6AA44913575</v>
       </c>
       <c r="AD31" s="117" t="str">
         <f t="shared" si="29"/>
@@ -10100,14 +10100,14 @@
       </c>
       <c r="AI31" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>b88579d0-34a3-6367-52b7-4b16cee44169-031</v>
+        <v>ae307f6a-a449-1357-52b1-694d4e2b3865-031</v>
       </c>
       <c r="AJ31" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK31" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>b88579d0-34a3-6367-52b7-4b16cee44169-031</v>
+        <v>ae307f6a-a449-1357-52b1-694d4e2b3865-031</v>
       </c>
       <c r="AL31" s="117">
         <f t="shared" si="41"/>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="AZ31" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBB88579D034A363675</v>
+        <v>BDBAE307F6AA44913575</v>
       </c>
     </row>
     <row r="32" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10205,7 +10205,7 @@
       </c>
       <c r="N32" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>3c5cbfba-3089-59f4-353c-0fd0f8f589e8-032</v>
+        <v>966ed0dd-a3bb-3617-8b32-c6d5ba052446-032</v>
       </c>
       <c r="O32" s="116" t="str">
         <f t="shared" si="37"/>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="Q32" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>3c5cbfba-3089-59f4-353c-0fd0f8f589e8-032</v>
+        <v>966ed0dd-a3bb-3617-8b32-c6d5ba052446-032</v>
       </c>
       <c r="R32" s="117">
         <f t="shared" si="26"/>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="AC32" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB3C5CBFBA308959F43</v>
+        <v>BDB966ED0DDA3BB36178</v>
       </c>
       <c r="AD32" s="117" t="str">
         <f t="shared" si="29"/>
@@ -10277,14 +10277,14 @@
       </c>
       <c r="AI32" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>3c5cbfba-3089-59f4-353c-0fd0f8f589e8-032</v>
+        <v>966ed0dd-a3bb-3617-8b32-c6d5ba052446-032</v>
       </c>
       <c r="AJ32" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK32" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>3c5cbfba-3089-59f4-353c-0fd0f8f589e8-032</v>
+        <v>966ed0dd-a3bb-3617-8b32-c6d5ba052446-032</v>
       </c>
       <c r="AL32" s="117">
         <f t="shared" si="41"/>
@@ -10338,7 +10338,7 @@
       </c>
       <c r="AZ32" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB3C5CBFBA308959F43</v>
+        <v>BDB966ED0DDA3BB36178</v>
       </c>
     </row>
     <row r="33" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10382,7 +10382,7 @@
       </c>
       <c r="N33" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>bedd43a1-7781-0b8f-09ae-e828b1ab4894-033</v>
+        <v>d96ceae4-3b38-0614-2173-c238c9282a27-033</v>
       </c>
       <c r="O33" s="116" t="str">
         <f t="shared" si="37"/>
@@ -10394,7 +10394,7 @@
       </c>
       <c r="Q33" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>bedd43a1-7781-0b8f-09ae-e828b1ab4894-033</v>
+        <v>d96ceae4-3b38-0614-2173-c238c9282a27-033</v>
       </c>
       <c r="R33" s="117">
         <f t="shared" si="26"/>
@@ -10442,7 +10442,7 @@
       </c>
       <c r="AC33" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBBEDD43A177810B8F0</v>
+        <v>BDBD96CEAE43B3806142</v>
       </c>
       <c r="AD33" s="117" t="str">
         <f t="shared" si="29"/>
@@ -10454,14 +10454,14 @@
       </c>
       <c r="AI33" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>bedd43a1-7781-0b8f-09ae-e828b1ab4894-033</v>
+        <v>d96ceae4-3b38-0614-2173-c238c9282a27-033</v>
       </c>
       <c r="AJ33" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK33" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>bedd43a1-7781-0b8f-09ae-e828b1ab4894-033</v>
+        <v>d96ceae4-3b38-0614-2173-c238c9282a27-033</v>
       </c>
       <c r="AL33" s="117">
         <f t="shared" si="41"/>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="AZ33" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBBEDD43A177810B8F0</v>
+        <v>BDBD96CEAE43B3806142</v>
       </c>
     </row>
     <row r="34" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="N34" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>6da249d9-0ff0-4dab-6d9c-97f5a7a28b53-034</v>
+        <v>5712918d-107c-4351-504f-a4c690c3760a-034</v>
       </c>
       <c r="O34" s="116" t="str">
         <f t="shared" si="37"/>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="Q34" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>6da249d9-0ff0-4dab-6d9c-97f5a7a28b53-034</v>
+        <v>5712918d-107c-4351-504f-a4c690c3760a-034</v>
       </c>
       <c r="R34" s="117">
         <f t="shared" si="26"/>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="AC34" s="116" t="str">
         <f t="shared" ref="AC34:AC65" ca="1" si="58">UPPER(LEFT(U34&amp;SUBSTITUTE(N34,"-",""),20))</f>
-        <v>BDB6DA249D90FF04DAB6</v>
+        <v>BDB5712918D107C43515</v>
       </c>
       <c r="AD34" s="117" t="str">
         <f t="shared" si="29"/>
@@ -10631,14 +10631,14 @@
       </c>
       <c r="AI34" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>6da249d9-0ff0-4dab-6d9c-97f5a7a28b53-034</v>
+        <v>5712918d-107c-4351-504f-a4c690c3760a-034</v>
       </c>
       <c r="AJ34" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK34" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>6da249d9-0ff0-4dab-6d9c-97f5a7a28b53-034</v>
+        <v>5712918d-107c-4351-504f-a4c690c3760a-034</v>
       </c>
       <c r="AL34" s="117">
         <f t="shared" si="41"/>
@@ -10692,7 +10692,7 @@
       </c>
       <c r="AZ34" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB6DA249D90FF04DAB6</v>
+        <v>BDB5712918D107C43515</v>
       </c>
     </row>
     <row r="35" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="N35" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>c2b8e0d6-2462-518a-613b-d78b753e5dc2-035</v>
+        <v>81a02c0d-391d-3eee-4e09-69390d1956e5-035</v>
       </c>
       <c r="O35" s="116" t="str">
         <f t="shared" si="37"/>
@@ -10748,7 +10748,7 @@
       </c>
       <c r="Q35" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>c2b8e0d6-2462-518a-613b-d78b753e5dc2-035</v>
+        <v>81a02c0d-391d-3eee-4e09-69390d1956e5-035</v>
       </c>
       <c r="R35" s="117">
         <f t="shared" si="26"/>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="AC35" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBC2B8E0D62462518A6</v>
+        <v>BDB81A02C0D391D3EEE4</v>
       </c>
       <c r="AD35" s="117" t="str">
         <f t="shared" si="29"/>
@@ -10808,14 +10808,14 @@
       </c>
       <c r="AI35" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>c2b8e0d6-2462-518a-613b-d78b753e5dc2-035</v>
+        <v>81a02c0d-391d-3eee-4e09-69390d1956e5-035</v>
       </c>
       <c r="AJ35" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK35" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>c2b8e0d6-2462-518a-613b-d78b753e5dc2-035</v>
+        <v>81a02c0d-391d-3eee-4e09-69390d1956e5-035</v>
       </c>
       <c r="AL35" s="117">
         <f t="shared" si="41"/>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="AZ35" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBC2B8E0D62462518A6</v>
+        <v>BDB81A02C0D391D3EEE4</v>
       </c>
     </row>
     <row r="36" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="N36" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>840b57a2-4c68-9ebe-867e-55ac5aac52db-036</v>
+        <v>5662db84-26e7-5f79-139a-e67c87a33417-036</v>
       </c>
       <c r="O36" s="116" t="str">
         <f t="shared" si="37"/>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="Q36" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>840b57a2-4c68-9ebe-867e-55ac5aac52db-036</v>
+        <v>5662db84-26e7-5f79-139a-e67c87a33417-036</v>
       </c>
       <c r="R36" s="117">
         <f t="shared" si="26"/>
@@ -10973,7 +10973,7 @@
       </c>
       <c r="AC36" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB840B57A24C689EBE8</v>
+        <v>BDB5662DB8426E75F791</v>
       </c>
       <c r="AD36" s="117" t="str">
         <f t="shared" si="29"/>
@@ -10985,14 +10985,14 @@
       </c>
       <c r="AI36" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>840b57a2-4c68-9ebe-867e-55ac5aac52db-036</v>
+        <v>5662db84-26e7-5f79-139a-e67c87a33417-036</v>
       </c>
       <c r="AJ36" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK36" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>840b57a2-4c68-9ebe-867e-55ac5aac52db-036</v>
+        <v>5662db84-26e7-5f79-139a-e67c87a33417-036</v>
       </c>
       <c r="AL36" s="117">
         <f t="shared" si="41"/>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="AZ36" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB840B57A24C689EBE8</v>
+        <v>BDB5662DB8426E75F791</v>
       </c>
     </row>
     <row r="37" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="N37" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>5bd5f615-93c1-71a0-91e0-d6d71fcf2d6e-037</v>
+        <v>ec1f5196-6ea3-4132-1213-85676d853361-037</v>
       </c>
       <c r="O37" s="116" t="str">
         <f t="shared" si="37"/>
@@ -11102,7 +11102,7 @@
       </c>
       <c r="Q37" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>5bd5f615-93c1-71a0-91e0-d6d71fcf2d6e-037</v>
+        <v>ec1f5196-6ea3-4132-1213-85676d853361-037</v>
       </c>
       <c r="R37" s="117">
         <f t="shared" si="26"/>
@@ -11150,7 +11150,7 @@
       </c>
       <c r="AC37" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB5BD5F61593C171A09</v>
+        <v>BDBEC1F51966EA341321</v>
       </c>
       <c r="AD37" s="117" t="str">
         <f t="shared" si="29"/>
@@ -11162,14 +11162,14 @@
       </c>
       <c r="AI37" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>5bd5f615-93c1-71a0-91e0-d6d71fcf2d6e-037</v>
+        <v>ec1f5196-6ea3-4132-1213-85676d853361-037</v>
       </c>
       <c r="AJ37" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK37" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>5bd5f615-93c1-71a0-91e0-d6d71fcf2d6e-037</v>
+        <v>ec1f5196-6ea3-4132-1213-85676d853361-037</v>
       </c>
       <c r="AL37" s="117">
         <f t="shared" si="41"/>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="AZ37" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB5BD5F61593C171A09</v>
+        <v>BDBEC1F51966EA341321</v>
       </c>
     </row>
     <row r="38" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="N38" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>2ccf363f-84aa-6e73-7c1e-c38ed1357925-038</v>
+        <v>71dce7ac-2308-209b-14aa-76491f36a5ff-038</v>
       </c>
       <c r="O38" s="116" t="str">
         <f t="shared" si="37"/>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="Q38" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>2ccf363f-84aa-6e73-7c1e-c38ed1357925-038</v>
+        <v>71dce7ac-2308-209b-14aa-76491f36a5ff-038</v>
       </c>
       <c r="R38" s="117">
         <f t="shared" si="26"/>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="AC38" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB2CCF363F84AA6E737</v>
+        <v>BDB71DCE7AC2308209B1</v>
       </c>
       <c r="AD38" s="117" t="str">
         <f t="shared" si="29"/>
@@ -11339,14 +11339,14 @@
       </c>
       <c r="AI38" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>2ccf363f-84aa-6e73-7c1e-c38ed1357925-038</v>
+        <v>71dce7ac-2308-209b-14aa-76491f36a5ff-038</v>
       </c>
       <c r="AJ38" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK38" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>2ccf363f-84aa-6e73-7c1e-c38ed1357925-038</v>
+        <v>71dce7ac-2308-209b-14aa-76491f36a5ff-038</v>
       </c>
       <c r="AL38" s="117">
         <f t="shared" si="41"/>
@@ -11400,7 +11400,7 @@
       </c>
       <c r="AZ38" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB2CCF363F84AA6E737</v>
+        <v>BDB71DCE7AC2308209B1</v>
       </c>
     </row>
     <row r="39" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -11444,7 +11444,7 @@
       </c>
       <c r="N39" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>d6303daa-760d-0213-355a-cc0b52b58d99-039</v>
+        <v>cf319095-937f-a4d2-7137-8c0719cb37b7-039</v>
       </c>
       <c r="O39" s="116" t="str">
         <f t="shared" si="37"/>
@@ -11456,7 +11456,7 @@
       </c>
       <c r="Q39" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>d6303daa-760d-0213-355a-cc0b52b58d99-039</v>
+        <v>cf319095-937f-a4d2-7137-8c0719cb37b7-039</v>
       </c>
       <c r="R39" s="117">
         <f t="shared" si="26"/>
@@ -11504,7 +11504,7 @@
       </c>
       <c r="AC39" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBD6303DAA760D02133</v>
+        <v>BDBCF319095937FA4D27</v>
       </c>
       <c r="AD39" s="117" t="str">
         <f t="shared" si="29"/>
@@ -11516,14 +11516,14 @@
       </c>
       <c r="AI39" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>d6303daa-760d-0213-355a-cc0b52b58d99-039</v>
+        <v>cf319095-937f-a4d2-7137-8c0719cb37b7-039</v>
       </c>
       <c r="AJ39" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK39" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>d6303daa-760d-0213-355a-cc0b52b58d99-039</v>
+        <v>cf319095-937f-a4d2-7137-8c0719cb37b7-039</v>
       </c>
       <c r="AL39" s="117">
         <f t="shared" si="41"/>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="AZ39" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBD6303DAA760D02133</v>
+        <v>BDBCF319095937FA4D27</v>
       </c>
     </row>
     <row r="40" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="N40" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>6bc4663b-28f0-2ae2-010f-2a3d6b8213cc-040</v>
+        <v>d902665c-7782-9f35-276f-c0294f6c33b3-040</v>
       </c>
       <c r="O40" s="116" t="str">
         <f t="shared" si="37"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="Q40" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>6bc4663b-28f0-2ae2-010f-2a3d6b8213cc-040</v>
+        <v>d902665c-7782-9f35-276f-c0294f6c33b3-040</v>
       </c>
       <c r="R40" s="117">
         <f t="shared" si="26"/>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="AC40" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB6BC4663B28F02AE20</v>
+        <v>BDBD902665C77829F352</v>
       </c>
       <c r="AD40" s="117" t="str">
         <f t="shared" si="29"/>
@@ -11693,14 +11693,14 @@
       </c>
       <c r="AI40" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>6bc4663b-28f0-2ae2-010f-2a3d6b8213cc-040</v>
+        <v>d902665c-7782-9f35-276f-c0294f6c33b3-040</v>
       </c>
       <c r="AJ40" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK40" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>6bc4663b-28f0-2ae2-010f-2a3d6b8213cc-040</v>
+        <v>d902665c-7782-9f35-276f-c0294f6c33b3-040</v>
       </c>
       <c r="AL40" s="117">
         <f t="shared" si="41"/>
@@ -11754,7 +11754,7 @@
       </c>
       <c r="AZ40" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB6BC4663B28F02AE20</v>
+        <v>BDBD902665C77829F352</v>
       </c>
     </row>
     <row r="41" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="N41" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>63d6476c-0460-77a8-0759-09ddb118388b-041</v>
+        <v>500a85cc-58f8-00d7-28e1-2d39a8b456fd-041</v>
       </c>
       <c r="O41" s="116" t="str">
         <f t="shared" si="37"/>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="Q41" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>63d6476c-0460-77a8-0759-09ddb118388b-041</v>
+        <v>500a85cc-58f8-00d7-28e1-2d39a8b456fd-041</v>
       </c>
       <c r="R41" s="117">
         <f t="shared" si="26"/>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="AC41" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB63D6476C046077A80</v>
+        <v>BDB500A85CC58F800D72</v>
       </c>
       <c r="AD41" s="117" t="str">
         <f t="shared" si="29"/>
@@ -11870,14 +11870,14 @@
       </c>
       <c r="AI41" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>63d6476c-0460-77a8-0759-09ddb118388b-041</v>
+        <v>500a85cc-58f8-00d7-28e1-2d39a8b456fd-041</v>
       </c>
       <c r="AJ41" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK41" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>63d6476c-0460-77a8-0759-09ddb118388b-041</v>
+        <v>500a85cc-58f8-00d7-28e1-2d39a8b456fd-041</v>
       </c>
       <c r="AL41" s="117">
         <f t="shared" si="41"/>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="AZ41" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB63D6476C046077A80</v>
+        <v>BDB500A85CC58F800D72</v>
       </c>
     </row>
     <row r="42" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -11975,7 +11975,7 @@
       </c>
       <c r="N42" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>509e21c0-8ba4-49f5-0882-245efa92218c-042</v>
+        <v>31f029af-9e86-7879-7dcd-e7f10d9a9e22-042</v>
       </c>
       <c r="O42" s="116" t="str">
         <f t="shared" si="37"/>
@@ -11987,7 +11987,7 @@
       </c>
       <c r="Q42" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>509e21c0-8ba4-49f5-0882-245efa92218c-042</v>
+        <v>31f029af-9e86-7879-7dcd-e7f10d9a9e22-042</v>
       </c>
       <c r="R42" s="117">
         <f t="shared" si="26"/>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="AC42" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB509E21C08BA449F50</v>
+        <v>BDB31F029AF9E8678797</v>
       </c>
       <c r="AD42" s="117" t="str">
         <f t="shared" si="29"/>
@@ -12047,14 +12047,14 @@
       </c>
       <c r="AI42" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>509e21c0-8ba4-49f5-0882-245efa92218c-042</v>
+        <v>31f029af-9e86-7879-7dcd-e7f10d9a9e22-042</v>
       </c>
       <c r="AJ42" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK42" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>509e21c0-8ba4-49f5-0882-245efa92218c-042</v>
+        <v>31f029af-9e86-7879-7dcd-e7f10d9a9e22-042</v>
       </c>
       <c r="AL42" s="117">
         <f t="shared" si="41"/>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="AZ42" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB509E21C08BA449F50</v>
+        <v>BDB31F029AF9E8678797</v>
       </c>
     </row>
     <row r="43" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="N43" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>affc1c77-4d45-23c2-168b-c94ad6c69812-043</v>
+        <v>555132cf-8745-5958-1ee1-591cd02d9f07-043</v>
       </c>
       <c r="O43" s="116" t="str">
         <f t="shared" si="37"/>
@@ -12164,7 +12164,7 @@
       </c>
       <c r="Q43" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>affc1c77-4d45-23c2-168b-c94ad6c69812-043</v>
+        <v>555132cf-8745-5958-1ee1-591cd02d9f07-043</v>
       </c>
       <c r="R43" s="117">
         <f t="shared" si="26"/>
@@ -12212,7 +12212,7 @@
       </c>
       <c r="AC43" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBAFFC1C774D4523C21</v>
+        <v>BDB555132CF874559581</v>
       </c>
       <c r="AD43" s="117" t="str">
         <f t="shared" si="29"/>
@@ -12224,14 +12224,14 @@
       </c>
       <c r="AI43" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>affc1c77-4d45-23c2-168b-c94ad6c69812-043</v>
+        <v>555132cf-8745-5958-1ee1-591cd02d9f07-043</v>
       </c>
       <c r="AJ43" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK43" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>affc1c77-4d45-23c2-168b-c94ad6c69812-043</v>
+        <v>555132cf-8745-5958-1ee1-591cd02d9f07-043</v>
       </c>
       <c r="AL43" s="117">
         <f t="shared" si="41"/>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="AZ43" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBAFFC1C774D4523C21</v>
+        <v>BDB555132CF874559581</v>
       </c>
     </row>
     <row r="44" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="N44" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>c4cd1924-58d0-8578-6583-8b0c8b866981-044</v>
+        <v>df4ea8f1-13eb-0716-277f-c7ec8cdb6a90-044</v>
       </c>
       <c r="O44" s="116" t="str">
         <f t="shared" si="37"/>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="Q44" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>c4cd1924-58d0-8578-6583-8b0c8b866981-044</v>
+        <v>df4ea8f1-13eb-0716-277f-c7ec8cdb6a90-044</v>
       </c>
       <c r="R44" s="117">
         <f t="shared" si="26"/>
@@ -12389,7 +12389,7 @@
       </c>
       <c r="AC44" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBC4CD192458D085786</v>
+        <v>BDBDF4EA8F113EB07162</v>
       </c>
       <c r="AD44" s="117" t="str">
         <f t="shared" si="29"/>
@@ -12401,14 +12401,14 @@
       </c>
       <c r="AI44" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>c4cd1924-58d0-8578-6583-8b0c8b866981-044</v>
+        <v>df4ea8f1-13eb-0716-277f-c7ec8cdb6a90-044</v>
       </c>
       <c r="AJ44" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK44" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>c4cd1924-58d0-8578-6583-8b0c8b866981-044</v>
+        <v>df4ea8f1-13eb-0716-277f-c7ec8cdb6a90-044</v>
       </c>
       <c r="AL44" s="117">
         <f t="shared" si="41"/>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AZ44" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBC4CD192458D085786</v>
+        <v>BDBDF4EA8F113EB07162</v>
       </c>
     </row>
     <row r="45" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -12506,7 +12506,7 @@
       </c>
       <c r="N45" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1e6faa27-3e39-7fdf-14ec-defa498a388e-045</v>
+        <v>b298135b-56f9-8e1e-827d-3c9217b76bcc-045</v>
       </c>
       <c r="O45" s="116" t="str">
         <f t="shared" si="37"/>
@@ -12518,7 +12518,7 @@
       </c>
       <c r="Q45" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>1e6faa27-3e39-7fdf-14ec-defa498a388e-045</v>
+        <v>b298135b-56f9-8e1e-827d-3c9217b76bcc-045</v>
       </c>
       <c r="R45" s="117">
         <f t="shared" si="26"/>
@@ -12566,7 +12566,7 @@
       </c>
       <c r="AC45" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB1E6FAA273E397FDF1</v>
+        <v>BDBB298135B56F98E1E8</v>
       </c>
       <c r="AD45" s="117" t="str">
         <f t="shared" si="29"/>
@@ -12578,14 +12578,14 @@
       </c>
       <c r="AI45" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>1e6faa27-3e39-7fdf-14ec-defa498a388e-045</v>
+        <v>b298135b-56f9-8e1e-827d-3c9217b76bcc-045</v>
       </c>
       <c r="AJ45" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK45" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>1e6faa27-3e39-7fdf-14ec-defa498a388e-045</v>
+        <v>b298135b-56f9-8e1e-827d-3c9217b76bcc-045</v>
       </c>
       <c r="AL45" s="117">
         <f t="shared" si="41"/>
@@ -12639,7 +12639,7 @@
       </c>
       <c r="AZ45" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB1E6FAA273E397FDF1</v>
+        <v>BDBB298135B56F98E1E8</v>
       </c>
     </row>
     <row r="46" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="N46" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>e134f063-9070-0cb9-3463-0e3182e089e0-046</v>
+        <v>4f7dd5ba-8d01-3a41-6090-90f017323294-046</v>
       </c>
       <c r="O46" s="116" t="str">
         <f t="shared" si="37"/>
@@ -12695,7 +12695,7 @@
       </c>
       <c r="Q46" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>e134f063-9070-0cb9-3463-0e3182e089e0-046</v>
+        <v>4f7dd5ba-8d01-3a41-6090-90f017323294-046</v>
       </c>
       <c r="R46" s="117">
         <f t="shared" si="26"/>
@@ -12743,7 +12743,7 @@
       </c>
       <c r="AC46" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBE134F06390700CB93</v>
+        <v>BDB4F7DD5BA8D013A416</v>
       </c>
       <c r="AD46" s="117" t="str">
         <f t="shared" si="29"/>
@@ -12755,14 +12755,14 @@
       </c>
       <c r="AI46" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>e134f063-9070-0cb9-3463-0e3182e089e0-046</v>
+        <v>4f7dd5ba-8d01-3a41-6090-90f017323294-046</v>
       </c>
       <c r="AJ46" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK46" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>e134f063-9070-0cb9-3463-0e3182e089e0-046</v>
+        <v>4f7dd5ba-8d01-3a41-6090-90f017323294-046</v>
       </c>
       <c r="AL46" s="117">
         <f t="shared" si="41"/>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="AZ46" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBE134F06390700CB93</v>
+        <v>BDB4F7DD5BA8D013A416</v>
       </c>
     </row>
     <row r="47" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="N47" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>53efbe4a-424a-5e9d-74be-c30b667c2f47-047</v>
+        <v>e6f4ae83-9982-8d84-835f-d1b433442afe-047</v>
       </c>
       <c r="O47" s="116" t="str">
         <f t="shared" si="37"/>
@@ -12872,7 +12872,7 @@
       </c>
       <c r="Q47" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>53efbe4a-424a-5e9d-74be-c30b667c2f47-047</v>
+        <v>e6f4ae83-9982-8d84-835f-d1b433442afe-047</v>
       </c>
       <c r="R47" s="117">
         <f t="shared" si="26"/>
@@ -12920,7 +12920,7 @@
       </c>
       <c r="AC47" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB53EFBE4A424A5E9D7</v>
+        <v>BDBE6F4AE8399828D848</v>
       </c>
       <c r="AD47" s="117" t="str">
         <f t="shared" si="29"/>
@@ -12932,14 +12932,14 @@
       </c>
       <c r="AI47" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>53efbe4a-424a-5e9d-74be-c30b667c2f47-047</v>
+        <v>e6f4ae83-9982-8d84-835f-d1b433442afe-047</v>
       </c>
       <c r="AJ47" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK47" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>53efbe4a-424a-5e9d-74be-c30b667c2f47-047</v>
+        <v>e6f4ae83-9982-8d84-835f-d1b433442afe-047</v>
       </c>
       <c r="AL47" s="117">
         <f t="shared" si="41"/>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="AZ47" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB53EFBE4A424A5E9D7</v>
+        <v>BDBE6F4AE8399828D848</v>
       </c>
     </row>
     <row r="48" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -13037,7 +13037,7 @@
       </c>
       <c r="N48" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>258419da-22e6-968d-9911-1751008a9545-048</v>
+        <v>c2847e16-3e04-4a03-1d96-9ac0794548b4-048</v>
       </c>
       <c r="O48" s="116" t="str">
         <f t="shared" si="37"/>
@@ -13049,7 +13049,7 @@
       </c>
       <c r="Q48" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>258419da-22e6-968d-9911-1751008a9545-048</v>
+        <v>c2847e16-3e04-4a03-1d96-9ac0794548b4-048</v>
       </c>
       <c r="R48" s="117">
         <f t="shared" si="26"/>
@@ -13097,7 +13097,7 @@
       </c>
       <c r="AC48" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB258419DA22E6968D9</v>
+        <v>BDBC2847E163E044A031</v>
       </c>
       <c r="AD48" s="117" t="str">
         <f t="shared" si="29"/>
@@ -13109,14 +13109,14 @@
       </c>
       <c r="AI48" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>258419da-22e6-968d-9911-1751008a9545-048</v>
+        <v>c2847e16-3e04-4a03-1d96-9ac0794548b4-048</v>
       </c>
       <c r="AJ48" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK48" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>258419da-22e6-968d-9911-1751008a9545-048</v>
+        <v>c2847e16-3e04-4a03-1d96-9ac0794548b4-048</v>
       </c>
       <c r="AL48" s="117">
         <f t="shared" si="41"/>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="AZ48" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB258419DA22E6968D9</v>
+        <v>BDBC2847E163E044A031</v>
       </c>
     </row>
     <row r="49" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -13214,7 +13214,7 @@
       </c>
       <c r="N49" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>4ef83575-96a5-1377-a47c-ac171d220579-049</v>
+        <v>fbebc9d3-740e-0de9-3e47-ae33e2bf5ce9-049</v>
       </c>
       <c r="O49" s="116" t="str">
         <f t="shared" si="37"/>
@@ -13226,7 +13226,7 @@
       </c>
       <c r="Q49" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>4ef83575-96a5-1377-a47c-ac171d220579-049</v>
+        <v>fbebc9d3-740e-0de9-3e47-ae33e2bf5ce9-049</v>
       </c>
       <c r="R49" s="117">
         <f t="shared" si="26"/>
@@ -13274,7 +13274,7 @@
       </c>
       <c r="AC49" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB4EF8357596A51377A</v>
+        <v>BDBFBEBC9D3740E0DE93</v>
       </c>
       <c r="AD49" s="117" t="str">
         <f t="shared" si="29"/>
@@ -13286,14 +13286,14 @@
       </c>
       <c r="AI49" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>4ef83575-96a5-1377-a47c-ac171d220579-049</v>
+        <v>fbebc9d3-740e-0de9-3e47-ae33e2bf5ce9-049</v>
       </c>
       <c r="AJ49" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK49" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>4ef83575-96a5-1377-a47c-ac171d220579-049</v>
+        <v>fbebc9d3-740e-0de9-3e47-ae33e2bf5ce9-049</v>
       </c>
       <c r="AL49" s="117">
         <f t="shared" si="41"/>
@@ -13347,7 +13347,7 @@
       </c>
       <c r="AZ49" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB4EF8357596A51377A</v>
+        <v>BDBFBEBC9D3740E0DE93</v>
       </c>
     </row>
     <row r="50" spans="1:52" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="N50" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>02ee2f4a-4bd5-232e-96db-30081e0e452a-050</v>
+        <v>f9c8af2d-9b8c-324f-1994-f61a88983963-050</v>
       </c>
       <c r="O50" s="116" t="str">
         <f t="shared" si="37"/>
@@ -13403,7 +13403,7 @@
       </c>
       <c r="Q50" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>02ee2f4a-4bd5-232e-96db-30081e0e452a-050</v>
+        <v>f9c8af2d-9b8c-324f-1994-f61a88983963-050</v>
       </c>
       <c r="R50" s="117">
         <f t="shared" si="26"/>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="AC50" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB02EE2F4A4BD5232E9</v>
+        <v>BDBF9C8AF2D9B8C324F1</v>
       </c>
       <c r="AD50" s="117" t="str">
         <f t="shared" si="29"/>
@@ -13463,14 +13463,14 @@
       </c>
       <c r="AI50" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>02ee2f4a-4bd5-232e-96db-30081e0e452a-050</v>
+        <v>f9c8af2d-9b8c-324f-1994-f61a88983963-050</v>
       </c>
       <c r="AJ50" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK50" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>02ee2f4a-4bd5-232e-96db-30081e0e452a-050</v>
+        <v>f9c8af2d-9b8c-324f-1994-f61a88983963-050</v>
       </c>
       <c r="AL50" s="117">
         <f t="shared" si="41"/>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="AZ50" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB02EE2F4A4BD5232E9</v>
+        <v>BDBF9C8AF2D9B8C324F1</v>
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
@@ -13567,7 +13567,7 @@
       </c>
       <c r="N51" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>49b721a1-2f53-696e-09c3-a8d65828165c-051</v>
+        <v>370b957b-471f-2b88-7eb9-26e0f5987d81-051</v>
       </c>
       <c r="O51" s="116"/>
       <c r="P51" s="117" t="str">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="Q51" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>49b721a1-2f53-696e-09c3-a8d65828165c-051</v>
+        <v>370b957b-471f-2b88-7eb9-26e0f5987d81-051</v>
       </c>
       <c r="R51" s="117">
         <f t="shared" si="26"/>
@@ -13624,7 +13624,7 @@
       </c>
       <c r="AC51" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB49B721A12F53696E0</v>
+        <v>BDB370B957B471F2B887</v>
       </c>
       <c r="AD51" s="117" t="str">
         <f t="shared" si="29"/>
@@ -13636,14 +13636,14 @@
       </c>
       <c r="AI51" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>49b721a1-2f53-696e-09c3-a8d65828165c-051</v>
+        <v>370b957b-471f-2b88-7eb9-26e0f5987d81-051</v>
       </c>
       <c r="AJ51" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK51" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>49b721a1-2f53-696e-09c3-a8d65828165c-051</v>
+        <v>370b957b-471f-2b88-7eb9-26e0f5987d81-051</v>
       </c>
       <c r="AL51" s="117">
         <f t="shared" si="41"/>
@@ -13662,7 +13662,7 @@
         <v>BDB</v>
       </c>
       <c r="AP51" s="117" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AQ51" s="117">
         <f t="shared" ref="AQ51:AQ84" si="59">G51</f>
@@ -13691,7 +13691,7 @@
       </c>
       <c r="AZ51" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB49B721A12F53696E0</v>
+        <v>BDB370B957B471F2B887</v>
       </c>
     </row>
     <row r="52" spans="1:52" s="157" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
@@ -13731,7 +13731,7 @@
       <c r="L52" s="158"/>
       <c r="N52" s="159" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>20de7023-73da-8b63-4cbd-ef096e422d16-052</v>
+        <v>f4a6bf87-a20f-960b-285f-d2af09bb8c77-052</v>
       </c>
       <c r="O52" s="159"/>
       <c r="P52" s="157" t="str">
@@ -13740,7 +13740,7 @@
       </c>
       <c r="Q52" s="159" t="str">
         <f t="shared" ref="Q52:Q62" ca="1" si="61">N52</f>
-        <v>20de7023-73da-8b63-4cbd-ef096e422d16-052</v>
+        <v>f4a6bf87-a20f-960b-285f-d2af09bb8c77-052</v>
       </c>
       <c r="R52" s="117">
         <f t="shared" si="26"/>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="AC52" s="159" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBACT20DE702373DA8B</v>
+        <v>BDBACTF4A6BF87A20F96</v>
       </c>
       <c r="AD52" s="117" t="str">
         <f t="shared" si="29"/>
@@ -13800,14 +13800,14 @@
       </c>
       <c r="AI52" s="159" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>20de7023-73da-8b63-4cbd-ef096e422d16-052</v>
+        <v>f4a6bf87-a20f-960b-285f-d2af09bb8c77-052</v>
       </c>
       <c r="AJ52" s="157" t="s">
         <v>76</v>
       </c>
       <c r="AK52" s="159" t="str">
         <f t="shared" ref="AK52:AK83" ca="1" si="63">Q52</f>
-        <v>20de7023-73da-8b63-4cbd-ef096e422d16-052</v>
+        <v>f4a6bf87-a20f-960b-285f-d2af09bb8c77-052</v>
       </c>
       <c r="AL52" s="157">
         <f>AL51</f>
@@ -13857,7 +13857,7 @@
       </c>
       <c r="AZ52" s="159" t="str">
         <f t="shared" ref="AZ52:AZ102" ca="1" si="70">AC52</f>
-        <v>BDBACT20DE702373DA8B</v>
+        <v>BDBACTF4A6BF87A20F96</v>
       </c>
     </row>
     <row r="53" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="N53" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>519b8a75-9d59-5f54-44ea-a238b6375656-053</v>
+        <v>821ad0b2-4637-9e58-7486-97f754eba1c1-053</v>
       </c>
       <c r="O53" s="116" t="str">
         <f t="shared" ref="O53:O74" si="73">LEFT(LEFT(W53,3)&amp;"."&amp;SUBSTITUTE(Y53,"-","")&amp;"."&amp;U53&amp;"0000000000000",20)</f>
@@ -13920,7 +13920,7 @@
       </c>
       <c r="Q53" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>519b8a75-9d59-5f54-44ea-a238b6375656-053</v>
+        <v>821ad0b2-4637-9e58-7486-97f754eba1c1-053</v>
       </c>
       <c r="R53" s="117">
         <f t="shared" si="26"/>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="AC53" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB519B8A759D595F544</v>
+        <v>BDB821AD0B246379E587</v>
       </c>
       <c r="AD53" s="117" t="str">
         <f t="shared" si="29"/>
@@ -13980,14 +13980,14 @@
       </c>
       <c r="AI53" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>519b8a75-9d59-5f54-44ea-a238b6375656-053</v>
+        <v>821ad0b2-4637-9e58-7486-97f754eba1c1-053</v>
       </c>
       <c r="AJ53" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK53" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>519b8a75-9d59-5f54-44ea-a238b6375656-053</v>
+        <v>821ad0b2-4637-9e58-7486-97f754eba1c1-053</v>
       </c>
       <c r="AL53" s="117">
         <f t="shared" ref="AL53:AL102" si="74">AL52</f>
@@ -14037,7 +14037,7 @@
       </c>
       <c r="AZ53" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB519B8A759D595F544</v>
+        <v>BDB821AD0B246379E587</v>
       </c>
     </row>
     <row r="54" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -14088,7 +14088,7 @@
       </c>
       <c r="N54" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>6a40b210-5fe9-8d23-86c5-5d685c4f1142-054</v>
+        <v>12676ee3-24bd-4666-0e3d-193ce1b893a9-054</v>
       </c>
       <c r="O54" s="116" t="str">
         <f t="shared" si="73"/>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="Q54" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>6a40b210-5fe9-8d23-86c5-5d685c4f1142-054</v>
+        <v>12676ee3-24bd-4666-0e3d-193ce1b893a9-054</v>
       </c>
       <c r="R54" s="117">
         <f t="shared" si="26"/>
@@ -14148,7 +14148,7 @@
       </c>
       <c r="AC54" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB6A40B2105FE98D238</v>
+        <v>BDB12676EE324BD46660</v>
       </c>
       <c r="AD54" s="117" t="str">
         <f t="shared" si="29"/>
@@ -14160,14 +14160,14 @@
       </c>
       <c r="AI54" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>6a40b210-5fe9-8d23-86c5-5d685c4f1142-054</v>
+        <v>12676ee3-24bd-4666-0e3d-193ce1b893a9-054</v>
       </c>
       <c r="AJ54" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK54" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>6a40b210-5fe9-8d23-86c5-5d685c4f1142-054</v>
+        <v>12676ee3-24bd-4666-0e3d-193ce1b893a9-054</v>
       </c>
       <c r="AL54" s="117">
         <f t="shared" si="74"/>
@@ -14217,7 +14217,7 @@
       </c>
       <c r="AZ54" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB6A40B2105FE98D238</v>
+        <v>BDB12676EE324BD46660</v>
       </c>
     </row>
     <row r="55" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -14268,7 +14268,7 @@
       </c>
       <c r="N55" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>623cf104-3202-3fc4-3311-018d1a956874-055</v>
+        <v>00bf4b77-410c-5cff-6a61-af67fb38422c-055</v>
       </c>
       <c r="O55" s="116" t="str">
         <f t="shared" si="73"/>
@@ -14280,7 +14280,7 @@
       </c>
       <c r="Q55" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>623cf104-3202-3fc4-3311-018d1a956874-055</v>
+        <v>00bf4b77-410c-5cff-6a61-af67fb38422c-055</v>
       </c>
       <c r="R55" s="117">
         <f t="shared" si="26"/>
@@ -14328,7 +14328,7 @@
       </c>
       <c r="AC55" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB623CF10432023FC43</v>
+        <v>BDB00BF4B77410C5CFF6</v>
       </c>
       <c r="AD55" s="117" t="str">
         <f t="shared" si="29"/>
@@ -14340,14 +14340,14 @@
       </c>
       <c r="AI55" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>623cf104-3202-3fc4-3311-018d1a956874-055</v>
+        <v>00bf4b77-410c-5cff-6a61-af67fb38422c-055</v>
       </c>
       <c r="AJ55" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK55" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>623cf104-3202-3fc4-3311-018d1a956874-055</v>
+        <v>00bf4b77-410c-5cff-6a61-af67fb38422c-055</v>
       </c>
       <c r="AL55" s="117">
         <f t="shared" si="74"/>
@@ -14397,7 +14397,7 @@
       </c>
       <c r="AZ55" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB623CF10432023FC43</v>
+        <v>BDB00BF4B77410C5CFF6</v>
       </c>
     </row>
     <row r="56" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -14448,7 +14448,7 @@
       </c>
       <c r="N56" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>dea228c3-373a-162d-3d27-a76c5eab69d4-056</v>
+        <v>316985de-1382-586b-9670-368423281bc9-056</v>
       </c>
       <c r="O56" s="116" t="str">
         <f t="shared" si="73"/>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="Q56" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>dea228c3-373a-162d-3d27-a76c5eab69d4-056</v>
+        <v>316985de-1382-586b-9670-368423281bc9-056</v>
       </c>
       <c r="R56" s="117">
         <f t="shared" si="26"/>
@@ -14508,7 +14508,7 @@
       </c>
       <c r="AC56" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBDEA228C3373A162D3</v>
+        <v>BDB316985DE1382586B9</v>
       </c>
       <c r="AD56" s="117" t="str">
         <f t="shared" si="29"/>
@@ -14520,14 +14520,14 @@
       </c>
       <c r="AI56" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>dea228c3-373a-162d-3d27-a76c5eab69d4-056</v>
+        <v>316985de-1382-586b-9670-368423281bc9-056</v>
       </c>
       <c r="AJ56" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK56" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>dea228c3-373a-162d-3d27-a76c5eab69d4-056</v>
+        <v>316985de-1382-586b-9670-368423281bc9-056</v>
       </c>
       <c r="AL56" s="117">
         <f t="shared" si="74"/>
@@ -14577,7 +14577,7 @@
       </c>
       <c r="AZ56" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBDEA228C3373A162D3</v>
+        <v>BDB316985DE1382586B9</v>
       </c>
     </row>
     <row r="57" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="N57" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>3f480e6e-5221-4d5f-0764-64b504e236d4-057</v>
+        <v>fc0d8fd2-14e2-5219-8710-610405d23595-057</v>
       </c>
       <c r="O57" s="116" t="str">
         <f t="shared" si="73"/>
@@ -14640,7 +14640,7 @@
       </c>
       <c r="Q57" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>3f480e6e-5221-4d5f-0764-64b504e236d4-057</v>
+        <v>fc0d8fd2-14e2-5219-8710-610405d23595-057</v>
       </c>
       <c r="R57" s="117">
         <f t="shared" si="26"/>
@@ -14688,7 +14688,7 @@
       </c>
       <c r="AC57" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB3F480E6E52214D5F0</v>
+        <v>BDBFC0D8FD214E252198</v>
       </c>
       <c r="AD57" s="117" t="str">
         <f t="shared" si="29"/>
@@ -14700,14 +14700,14 @@
       </c>
       <c r="AI57" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>3f480e6e-5221-4d5f-0764-64b504e236d4-057</v>
+        <v>fc0d8fd2-14e2-5219-8710-610405d23595-057</v>
       </c>
       <c r="AJ57" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK57" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>3f480e6e-5221-4d5f-0764-64b504e236d4-057</v>
+        <v>fc0d8fd2-14e2-5219-8710-610405d23595-057</v>
       </c>
       <c r="AL57" s="117">
         <f t="shared" si="74"/>
@@ -14757,7 +14757,7 @@
       </c>
       <c r="AZ57" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB3F480E6E52214D5F0</v>
+        <v>BDBFC0D8FD214E252198</v>
       </c>
     </row>
     <row r="58" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -14807,7 +14807,7 @@
       </c>
       <c r="N58" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>2a7bd35d-a134-13d1-38c7-371b180766c0-058</v>
+        <v>180ba6eb-1a23-1652-162d-5a9b96a81874-058</v>
       </c>
       <c r="O58" s="116" t="str">
         <f t="shared" si="73"/>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="Q58" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>2a7bd35d-a134-13d1-38c7-371b180766c0-058</v>
+        <v>180ba6eb-1a23-1652-162d-5a9b96a81874-058</v>
       </c>
       <c r="R58" s="117">
         <f t="shared" si="26"/>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="AC58" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB2A7BD35DA13413D13</v>
+        <v>BDB180BA6EB1A2316521</v>
       </c>
       <c r="AD58" s="117" t="str">
         <f t="shared" si="29"/>
@@ -14879,14 +14879,14 @@
       </c>
       <c r="AI58" s="116" t="str">
         <f t="shared" ref="AI58:AI89" ca="1" si="82">N58</f>
-        <v>2a7bd35d-a134-13d1-38c7-371b180766c0-058</v>
+        <v>180ba6eb-1a23-1652-162d-5a9b96a81874-058</v>
       </c>
       <c r="AJ58" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK58" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2a7bd35d-a134-13d1-38c7-371b180766c0-058</v>
+        <v>180ba6eb-1a23-1652-162d-5a9b96a81874-058</v>
       </c>
       <c r="AL58" s="117">
         <f t="shared" si="74"/>
@@ -14940,7 +14940,7 @@
       </c>
       <c r="AZ58" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB2A7BD35DA13413D13</v>
+        <v>BDB180BA6EB1A2316521</v>
       </c>
     </row>
     <row r="59" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -14990,7 +14990,7 @@
       </c>
       <c r="N59" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>ec81b8a2-5e5e-3710-9d60-9e938fa39808-059</v>
+        <v>48223a2c-8ab5-61c0-8d94-0a963f9995e7-059</v>
       </c>
       <c r="O59" s="116" t="str">
         <f t="shared" si="73"/>
@@ -15002,7 +15002,7 @@
       </c>
       <c r="Q59" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>ec81b8a2-5e5e-3710-9d60-9e938fa39808-059</v>
+        <v>48223a2c-8ab5-61c0-8d94-0a963f9995e7-059</v>
       </c>
       <c r="R59" s="117">
         <f t="shared" si="26"/>
@@ -15050,7 +15050,7 @@
       </c>
       <c r="AC59" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBEC81B8A25E5E37109</v>
+        <v>BDB48223A2C8AB561C08</v>
       </c>
       <c r="AD59" s="117" t="str">
         <f t="shared" si="29"/>
@@ -15062,14 +15062,14 @@
       </c>
       <c r="AI59" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>ec81b8a2-5e5e-3710-9d60-9e938fa39808-059</v>
+        <v>48223a2c-8ab5-61c0-8d94-0a963f9995e7-059</v>
       </c>
       <c r="AJ59" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK59" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>ec81b8a2-5e5e-3710-9d60-9e938fa39808-059</v>
+        <v>48223a2c-8ab5-61c0-8d94-0a963f9995e7-059</v>
       </c>
       <c r="AL59" s="117">
         <f t="shared" si="74"/>
@@ -15123,7 +15123,7 @@
       </c>
       <c r="AZ59" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBEC81B8A25E5E37109</v>
+        <v>BDB48223A2C8AB561C08</v>
       </c>
     </row>
     <row r="60" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -15173,7 +15173,7 @@
       </c>
       <c r="N60" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>354d4451-1793-2f8b-70f3-75a2a7618196-060</v>
+        <v>d4900a64-0646-6aa4-0940-7f26ea8e652c-060</v>
       </c>
       <c r="O60" s="116" t="str">
         <f t="shared" si="73"/>
@@ -15185,7 +15185,7 @@
       </c>
       <c r="Q60" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>354d4451-1793-2f8b-70f3-75a2a7618196-060</v>
+        <v>d4900a64-0646-6aa4-0940-7f26ea8e652c-060</v>
       </c>
       <c r="R60" s="117">
         <f t="shared" si="26"/>
@@ -15233,7 +15233,7 @@
       </c>
       <c r="AC60" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB354D445117932F8B7</v>
+        <v>BDBD4900A6406466AA40</v>
       </c>
       <c r="AD60" s="117" t="str">
         <f t="shared" si="29"/>
@@ -15245,14 +15245,14 @@
       </c>
       <c r="AI60" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>354d4451-1793-2f8b-70f3-75a2a7618196-060</v>
+        <v>d4900a64-0646-6aa4-0940-7f26ea8e652c-060</v>
       </c>
       <c r="AJ60" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK60" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>354d4451-1793-2f8b-70f3-75a2a7618196-060</v>
+        <v>d4900a64-0646-6aa4-0940-7f26ea8e652c-060</v>
       </c>
       <c r="AL60" s="117">
         <f t="shared" si="74"/>
@@ -15306,7 +15306,7 @@
       </c>
       <c r="AZ60" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB354D445117932F8B7</v>
+        <v>BDBD4900A6406466AA40</v>
       </c>
     </row>
     <row r="61" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -15357,7 +15357,7 @@
       </c>
       <c r="N61" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>5c374ece-3a00-0cce-008d-18928ab09bc7-061</v>
+        <v>f1c620ba-6dcb-5565-74b1-994eb81e52ef-061</v>
       </c>
       <c r="O61" s="116" t="str">
         <f t="shared" si="73"/>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="Q61" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>5c374ece-3a00-0cce-008d-18928ab09bc7-061</v>
+        <v>f1c620ba-6dcb-5565-74b1-994eb81e52ef-061</v>
       </c>
       <c r="R61" s="117">
         <f t="shared" si="26"/>
@@ -15417,7 +15417,7 @@
       </c>
       <c r="AC61" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB5C374ECE3A000CCE0</v>
+        <v>BDBF1C620BA6DCB55657</v>
       </c>
       <c r="AD61" s="117" t="str">
         <f t="shared" si="29"/>
@@ -15429,14 +15429,14 @@
       </c>
       <c r="AI61" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>5c374ece-3a00-0cce-008d-18928ab09bc7-061</v>
+        <v>f1c620ba-6dcb-5565-74b1-994eb81e52ef-061</v>
       </c>
       <c r="AJ61" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK61" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>5c374ece-3a00-0cce-008d-18928ab09bc7-061</v>
+        <v>f1c620ba-6dcb-5565-74b1-994eb81e52ef-061</v>
       </c>
       <c r="AL61" s="117">
         <f t="shared" si="74"/>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="AZ61" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB5C374ECE3A000CCE0</v>
+        <v>BDBF1C620BA6DCB55657</v>
       </c>
     </row>
     <row r="62" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -15536,7 +15536,7 @@
       </c>
       <c r="N62" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>103992c8-0bbe-9332-6e46-2d058e6a8c4b-062</v>
+        <v>7118c330-6084-0da7-329a-1118d94719b7-062</v>
       </c>
       <c r="O62" s="116" t="str">
         <f t="shared" si="73"/>
@@ -15548,7 +15548,7 @@
       </c>
       <c r="Q62" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>103992c8-0bbe-9332-6e46-2d058e6a8c4b-062</v>
+        <v>7118c330-6084-0da7-329a-1118d94719b7-062</v>
       </c>
       <c r="R62" s="117">
         <f t="shared" si="26"/>
@@ -15596,7 +15596,7 @@
       </c>
       <c r="AC62" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB103992C80BBE93326</v>
+        <v>BDB7118C33060840DA73</v>
       </c>
       <c r="AD62" s="117" t="str">
         <f t="shared" si="29"/>
@@ -15608,14 +15608,14 @@
       </c>
       <c r="AI62" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>103992c8-0bbe-9332-6e46-2d058e6a8c4b-062</v>
+        <v>7118c330-6084-0da7-329a-1118d94719b7-062</v>
       </c>
       <c r="AJ62" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK62" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>103992c8-0bbe-9332-6e46-2d058e6a8c4b-062</v>
+        <v>7118c330-6084-0da7-329a-1118d94719b7-062</v>
       </c>
       <c r="AL62" s="117">
         <f t="shared" si="74"/>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="AZ62" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB103992C80BBE93326</v>
+        <v>BDB7118C33060840DA73</v>
       </c>
     </row>
     <row r="63" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -15720,7 +15720,7 @@
       </c>
       <c r="N63" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>11b3a583-795b-5775-0eb5-4915c5b898fc-063</v>
+        <v>177a852d-1020-0f05-29e2-3577fadba500-063</v>
       </c>
       <c r="O63" s="116" t="str">
         <f t="shared" si="73"/>
@@ -15732,7 +15732,7 @@
       </c>
       <c r="Q63" s="116" t="str">
         <f t="shared" ref="Q63:Q102" ca="1" si="92">N63</f>
-        <v>11b3a583-795b-5775-0eb5-4915c5b898fc-063</v>
+        <v>177a852d-1020-0f05-29e2-3577fadba500-063</v>
       </c>
       <c r="R63" s="117">
         <f t="shared" si="26"/>
@@ -15780,7 +15780,7 @@
       </c>
       <c r="AC63" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB11B3A583795B57750</v>
+        <v>BDB177A852D10200F052</v>
       </c>
       <c r="AD63" s="117" t="str">
         <f t="shared" si="29"/>
@@ -15792,14 +15792,14 @@
       </c>
       <c r="AI63" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>11b3a583-795b-5775-0eb5-4915c5b898fc-063</v>
+        <v>177a852d-1020-0f05-29e2-3577fadba500-063</v>
       </c>
       <c r="AJ63" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK63" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>11b3a583-795b-5775-0eb5-4915c5b898fc-063</v>
+        <v>177a852d-1020-0f05-29e2-3577fadba500-063</v>
       </c>
       <c r="AL63" s="117">
         <f t="shared" si="74"/>
@@ -15849,7 +15849,7 @@
       </c>
       <c r="AZ63" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB11B3A583795B57750</v>
+        <v>BDB177A852D10200F052</v>
       </c>
     </row>
     <row r="64" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="N64" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>5e47e988-27ca-3bd1-3cdf-ac8aaccb519b-064</v>
+        <v>df4e80c7-3558-80dd-9842-6992975c41bc-064</v>
       </c>
       <c r="O64" s="116" t="str">
         <f t="shared" si="73"/>
@@ -15912,7 +15912,7 @@
       </c>
       <c r="Q64" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>5e47e988-27ca-3bd1-3cdf-ac8aaccb519b-064</v>
+        <v>df4e80c7-3558-80dd-9842-6992975c41bc-064</v>
       </c>
       <c r="R64" s="117">
         <f t="shared" si="26"/>
@@ -15960,7 +15960,7 @@
       </c>
       <c r="AC64" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB5E47E98827CA3BD13</v>
+        <v>BDBDF4E80C7355880DD9</v>
       </c>
       <c r="AD64" s="117" t="str">
         <f t="shared" si="29"/>
@@ -15972,14 +15972,14 @@
       </c>
       <c r="AI64" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>5e47e988-27ca-3bd1-3cdf-ac8aaccb519b-064</v>
+        <v>df4e80c7-3558-80dd-9842-6992975c41bc-064</v>
       </c>
       <c r="AJ64" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK64" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>5e47e988-27ca-3bd1-3cdf-ac8aaccb519b-064</v>
+        <v>df4e80c7-3558-80dd-9842-6992975c41bc-064</v>
       </c>
       <c r="AL64" s="117">
         <f t="shared" si="74"/>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="AZ64" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB5E47E98827CA3BD13</v>
+        <v>BDBDF4E80C7355880DD9</v>
       </c>
     </row>
     <row r="65" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -16079,7 +16079,7 @@
       </c>
       <c r="N65" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>064be94a-1735-9dfa-74d3-f88ae1c13349-065</v>
+        <v>a4f78145-8b13-8a41-28b4-8b82440e3fa4-065</v>
       </c>
       <c r="O65" s="116" t="str">
         <f t="shared" si="73"/>
@@ -16091,7 +16091,7 @@
       </c>
       <c r="Q65" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>064be94a-1735-9dfa-74d3-f88ae1c13349-065</v>
+        <v>a4f78145-8b13-8a41-28b4-8b82440e3fa4-065</v>
       </c>
       <c r="R65" s="117">
         <f t="shared" si="26"/>
@@ -16139,7 +16139,7 @@
       </c>
       <c r="AC65" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB064BE94A17359DFA7</v>
+        <v>BDBA4F781458B138A412</v>
       </c>
       <c r="AD65" s="117" t="str">
         <f t="shared" si="29"/>
@@ -16151,14 +16151,14 @@
       </c>
       <c r="AI65" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>064be94a-1735-9dfa-74d3-f88ae1c13349-065</v>
+        <v>a4f78145-8b13-8a41-28b4-8b82440e3fa4-065</v>
       </c>
       <c r="AJ65" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK65" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>064be94a-1735-9dfa-74d3-f88ae1c13349-065</v>
+        <v>a4f78145-8b13-8a41-28b4-8b82440e3fa4-065</v>
       </c>
       <c r="AL65" s="117">
         <f t="shared" si="74"/>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="AZ65" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB064BE94A17359DFA7</v>
+        <v>BDBA4F781458B138A412</v>
       </c>
     </row>
     <row r="66" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -16262,7 +16262,7 @@
       </c>
       <c r="N66" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>c72e1963-0fb5-8d84-a3f0-cb4212888f90-066</v>
+        <v>b74ea660-770d-2222-7224-7a93266b46f4-066</v>
       </c>
       <c r="O66" s="116" t="str">
         <f t="shared" si="73"/>
@@ -16274,7 +16274,7 @@
       </c>
       <c r="Q66" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>c72e1963-0fb5-8d84-a3f0-cb4212888f90-066</v>
+        <v>b74ea660-770d-2222-7224-7a93266b46f4-066</v>
       </c>
       <c r="R66" s="117">
         <f t="shared" si="26"/>
@@ -16322,7 +16322,7 @@
       </c>
       <c r="AC66" s="116" t="str">
         <f t="shared" ref="AC66:AC102" ca="1" si="103">UPPER(LEFT(U66&amp;SUBSTITUTE(N66,"-",""),20))</f>
-        <v>BDBC72E19630FB58D84A</v>
+        <v>BDBB74EA660770D22227</v>
       </c>
       <c r="AD66" s="117" t="str">
         <f t="shared" si="29"/>
@@ -16334,14 +16334,14 @@
       </c>
       <c r="AI66" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>c72e1963-0fb5-8d84-a3f0-cb4212888f90-066</v>
+        <v>b74ea660-770d-2222-7224-7a93266b46f4-066</v>
       </c>
       <c r="AJ66" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK66" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>c72e1963-0fb5-8d84-a3f0-cb4212888f90-066</v>
+        <v>b74ea660-770d-2222-7224-7a93266b46f4-066</v>
       </c>
       <c r="AL66" s="117">
         <f t="shared" si="74"/>
@@ -16395,7 +16395,7 @@
       </c>
       <c r="AZ66" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBC72E19630FB58D84A</v>
+        <v>BDBB74EA660770D22227</v>
       </c>
     </row>
     <row r="67" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -16445,7 +16445,7 @@
       </c>
       <c r="N67" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>fa05c682-96d7-82b8-6b00-e9874cd1a16c-067</v>
+        <v>d7c971a2-5f0e-9da5-5b1c-23c1edf7a3cf-067</v>
       </c>
       <c r="O67" s="116" t="str">
         <f t="shared" si="73"/>
@@ -16457,7 +16457,7 @@
       </c>
       <c r="Q67" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>fa05c682-96d7-82b8-6b00-e9874cd1a16c-067</v>
+        <v>d7c971a2-5f0e-9da5-5b1c-23c1edf7a3cf-067</v>
       </c>
       <c r="R67" s="117">
         <f t="shared" si="26"/>
@@ -16505,7 +16505,7 @@
       </c>
       <c r="AC67" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBFA05C68296D782B86</v>
+        <v>BDBD7C971A25F0E9DA55</v>
       </c>
       <c r="AD67" s="117" t="str">
         <f t="shared" si="29"/>
@@ -16517,14 +16517,14 @@
       </c>
       <c r="AI67" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>fa05c682-96d7-82b8-6b00-e9874cd1a16c-067</v>
+        <v>d7c971a2-5f0e-9da5-5b1c-23c1edf7a3cf-067</v>
       </c>
       <c r="AJ67" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK67" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>fa05c682-96d7-82b8-6b00-e9874cd1a16c-067</v>
+        <v>d7c971a2-5f0e-9da5-5b1c-23c1edf7a3cf-067</v>
       </c>
       <c r="AL67" s="117">
         <f t="shared" si="74"/>
@@ -16578,7 +16578,7 @@
       </c>
       <c r="AZ67" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBFA05C68296D782B86</v>
+        <v>BDBD7C971A25F0E9DA55</v>
       </c>
     </row>
     <row r="68" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -16628,7 +16628,7 @@
       </c>
       <c r="N68" s="116" t="str">
         <f t="shared" ref="N68:N102" ca="1" si="109">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>cfde381d-5ad6-2946-00a7-d9d81c440af9-068</v>
+        <v>f2b7c9df-a135-04b2-a371-f2bcd639658e-068</v>
       </c>
       <c r="O68" s="116" t="str">
         <f t="shared" si="73"/>
@@ -16640,7 +16640,7 @@
       </c>
       <c r="Q68" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>cfde381d-5ad6-2946-00a7-d9d81c440af9-068</v>
+        <v>f2b7c9df-a135-04b2-a371-f2bcd639658e-068</v>
       </c>
       <c r="R68" s="117">
         <f t="shared" ref="R68:R102" si="110">R$2</f>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="AC68" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBCFDE381D5AD629460</v>
+        <v>BDBF2B7C9DFA13504B2A</v>
       </c>
       <c r="AD68" s="117" t="str">
         <f t="shared" ref="AD68:AD102" si="112">AD$2</f>
@@ -16700,14 +16700,14 @@
       </c>
       <c r="AI68" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>cfde381d-5ad6-2946-00a7-d9d81c440af9-068</v>
+        <v>f2b7c9df-a135-04b2-a371-f2bcd639658e-068</v>
       </c>
       <c r="AJ68" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK68" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>cfde381d-5ad6-2946-00a7-d9d81c440af9-068</v>
+        <v>f2b7c9df-a135-04b2-a371-f2bcd639658e-068</v>
       </c>
       <c r="AL68" s="117">
         <f t="shared" si="74"/>
@@ -16761,7 +16761,7 @@
       </c>
       <c r="AZ68" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBCFDE381D5AD629460</v>
+        <v>BDBF2B7C9DFA13504B2A</v>
       </c>
     </row>
     <row r="69" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -16811,7 +16811,7 @@
       </c>
       <c r="N69" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>d5773793-5c19-1f30-3b36-7d50a64b40fb-069</v>
+        <v>437bf3ae-5421-6191-8b77-bb7fc2da9e18-069</v>
       </c>
       <c r="O69" s="116" t="str">
         <f t="shared" si="73"/>
@@ -16823,7 +16823,7 @@
       </c>
       <c r="Q69" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>d5773793-5c19-1f30-3b36-7d50a64b40fb-069</v>
+        <v>437bf3ae-5421-6191-8b77-bb7fc2da9e18-069</v>
       </c>
       <c r="R69" s="117">
         <f t="shared" si="110"/>
@@ -16871,7 +16871,7 @@
       </c>
       <c r="AC69" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBD57737935C191F303</v>
+        <v>BDB437BF3AE542161918</v>
       </c>
       <c r="AD69" s="117" t="str">
         <f t="shared" si="112"/>
@@ -16883,14 +16883,14 @@
       </c>
       <c r="AI69" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>d5773793-5c19-1f30-3b36-7d50a64b40fb-069</v>
+        <v>437bf3ae-5421-6191-8b77-bb7fc2da9e18-069</v>
       </c>
       <c r="AJ69" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK69" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>d5773793-5c19-1f30-3b36-7d50a64b40fb-069</v>
+        <v>437bf3ae-5421-6191-8b77-bb7fc2da9e18-069</v>
       </c>
       <c r="AL69" s="117">
         <f t="shared" si="74"/>
@@ -16944,7 +16944,7 @@
       </c>
       <c r="AZ69" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBD57737935C191F303</v>
+        <v>BDB437BF3AE542161918</v>
       </c>
     </row>
     <row r="70" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="N70" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>2c6c3651-1c5f-08fb-6b94-01bc4a2785af-070</v>
+        <v>d5d1e809-97f8-1f56-1538-487269af0213-070</v>
       </c>
       <c r="O70" s="116" t="str">
         <f t="shared" si="73"/>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="Q70" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>2c6c3651-1c5f-08fb-6b94-01bc4a2785af-070</v>
+        <v>d5d1e809-97f8-1f56-1538-487269af0213-070</v>
       </c>
       <c r="R70" s="117">
         <f t="shared" si="110"/>
@@ -17054,7 +17054,7 @@
       </c>
       <c r="AC70" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB2C6C36511C5F08FB6</v>
+        <v>BDBD5D1E80997F81F561</v>
       </c>
       <c r="AD70" s="117" t="str">
         <f t="shared" si="112"/>
@@ -17066,14 +17066,14 @@
       </c>
       <c r="AI70" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>2c6c3651-1c5f-08fb-6b94-01bc4a2785af-070</v>
+        <v>d5d1e809-97f8-1f56-1538-487269af0213-070</v>
       </c>
       <c r="AJ70" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK70" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2c6c3651-1c5f-08fb-6b94-01bc4a2785af-070</v>
+        <v>d5d1e809-97f8-1f56-1538-487269af0213-070</v>
       </c>
       <c r="AL70" s="117">
         <f t="shared" si="74"/>
@@ -17127,7 +17127,7 @@
       </c>
       <c r="AZ70" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB2C6C36511C5F08FB6</v>
+        <v>BDBD5D1E80997F81F561</v>
       </c>
     </row>
     <row r="71" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="N71" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>22de6fc1-5026-4ad7-2ea7-50bbdfd543a3-071</v>
+        <v>adb9593c-4da6-1847-96bd-12612cd51ac6-071</v>
       </c>
       <c r="O71" s="116" t="str">
         <f t="shared" si="73"/>
@@ -17189,7 +17189,7 @@
       </c>
       <c r="Q71" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>22de6fc1-5026-4ad7-2ea7-50bbdfd543a3-071</v>
+        <v>adb9593c-4da6-1847-96bd-12612cd51ac6-071</v>
       </c>
       <c r="R71" s="117">
         <f t="shared" si="110"/>
@@ -17237,7 +17237,7 @@
       </c>
       <c r="AC71" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB22DE6FC150264AD72</v>
+        <v>BDBADB9593C4DA618479</v>
       </c>
       <c r="AD71" s="117" t="str">
         <f t="shared" si="112"/>
@@ -17249,14 +17249,14 @@
       </c>
       <c r="AI71" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>22de6fc1-5026-4ad7-2ea7-50bbdfd543a3-071</v>
+        <v>adb9593c-4da6-1847-96bd-12612cd51ac6-071</v>
       </c>
       <c r="AJ71" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK71" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>22de6fc1-5026-4ad7-2ea7-50bbdfd543a3-071</v>
+        <v>adb9593c-4da6-1847-96bd-12612cd51ac6-071</v>
       </c>
       <c r="AL71" s="117">
         <f t="shared" si="74"/>
@@ -17310,7 +17310,7 @@
       </c>
       <c r="AZ71" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB22DE6FC150264AD72</v>
+        <v>BDBADB9593C4DA618479</v>
       </c>
     </row>
     <row r="72" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -17360,7 +17360,7 @@
       </c>
       <c r="N72" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>e6589940-245c-034a-42fa-c7d70e2c116c-072</v>
+        <v>b6190506-593d-4abd-9e1e-bb3338ed3743-072</v>
       </c>
       <c r="O72" s="116" t="str">
         <f t="shared" si="73"/>
@@ -17372,7 +17372,7 @@
       </c>
       <c r="Q72" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>e6589940-245c-034a-42fa-c7d70e2c116c-072</v>
+        <v>b6190506-593d-4abd-9e1e-bb3338ed3743-072</v>
       </c>
       <c r="R72" s="117">
         <f t="shared" si="110"/>
@@ -17420,7 +17420,7 @@
       </c>
       <c r="AC72" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBE6589940245C034A4</v>
+        <v>BDBB6190506593D4ABD9</v>
       </c>
       <c r="AD72" s="117" t="str">
         <f t="shared" si="112"/>
@@ -17432,14 +17432,14 @@
       </c>
       <c r="AI72" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>e6589940-245c-034a-42fa-c7d70e2c116c-072</v>
+        <v>b6190506-593d-4abd-9e1e-bb3338ed3743-072</v>
       </c>
       <c r="AJ72" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK72" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>e6589940-245c-034a-42fa-c7d70e2c116c-072</v>
+        <v>b6190506-593d-4abd-9e1e-bb3338ed3743-072</v>
       </c>
       <c r="AL72" s="117">
         <f t="shared" si="74"/>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="AZ72" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBE6589940245C034A4</v>
+        <v>BDBB6190506593D4ABD9</v>
       </c>
     </row>
     <row r="73" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="N73" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>310a73a4-2eb5-3f25-4e48-6a9a5577177f-073</v>
+        <v>dd4910e3-790f-4965-50f6-e1e46623083d-073</v>
       </c>
       <c r="O73" s="116" t="str">
         <f t="shared" si="73"/>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="Q73" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>310a73a4-2eb5-3f25-4e48-6a9a5577177f-073</v>
+        <v>dd4910e3-790f-4965-50f6-e1e46623083d-073</v>
       </c>
       <c r="R73" s="117">
         <f t="shared" si="110"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="AC73" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB310A73A42EB53F254</v>
+        <v>BDBDD4910E3790F49655</v>
       </c>
       <c r="AD73" s="117" t="str">
         <f t="shared" si="112"/>
@@ -17615,14 +17615,14 @@
       </c>
       <c r="AI73" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>310a73a4-2eb5-3f25-4e48-6a9a5577177f-073</v>
+        <v>dd4910e3-790f-4965-50f6-e1e46623083d-073</v>
       </c>
       <c r="AJ73" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK73" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>310a73a4-2eb5-3f25-4e48-6a9a5577177f-073</v>
+        <v>dd4910e3-790f-4965-50f6-e1e46623083d-073</v>
       </c>
       <c r="AL73" s="117">
         <f t="shared" si="74"/>
@@ -17676,7 +17676,7 @@
       </c>
       <c r="AZ73" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB310A73A42EB53F254</v>
+        <v>BDBDD4910E3790F49655</v>
       </c>
     </row>
     <row r="74" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -17726,7 +17726,7 @@
       </c>
       <c r="N74" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>ea164887-8450-84d3-7aba-e15ece5e305c-074</v>
+        <v>7234068a-9492-1a85-5b9a-9ef9dd1e3d26-074</v>
       </c>
       <c r="O74" s="116" t="str">
         <f t="shared" si="73"/>
@@ -17738,7 +17738,7 @@
       </c>
       <c r="Q74" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>ea164887-8450-84d3-7aba-e15ece5e305c-074</v>
+        <v>7234068a-9492-1a85-5b9a-9ef9dd1e3d26-074</v>
       </c>
       <c r="R74" s="117">
         <f t="shared" si="110"/>
@@ -17786,7 +17786,7 @@
       </c>
       <c r="AC74" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBEA164887845084D37</v>
+        <v>BDB7234068A94921A855</v>
       </c>
       <c r="AD74" s="117" t="str">
         <f t="shared" si="112"/>
@@ -17798,14 +17798,14 @@
       </c>
       <c r="AI74" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>ea164887-8450-84d3-7aba-e15ece5e305c-074</v>
+        <v>7234068a-9492-1a85-5b9a-9ef9dd1e3d26-074</v>
       </c>
       <c r="AJ74" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK74" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>ea164887-8450-84d3-7aba-e15ece5e305c-074</v>
+        <v>7234068a-9492-1a85-5b9a-9ef9dd1e3d26-074</v>
       </c>
       <c r="AL74" s="117">
         <f t="shared" si="74"/>
@@ -17859,7 +17859,7 @@
       </c>
       <c r="AZ74" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBEA164887845084D37</v>
+        <v>BDB7234068A94921A855</v>
       </c>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.25">
@@ -17909,7 +17909,7 @@
       </c>
       <c r="N75" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>16be6dee-a3e8-8233-0076-d549471004db-075</v>
+        <v>ab906e97-84aa-8916-946b-c6603c0a2a72-075</v>
       </c>
       <c r="O75" s="116"/>
       <c r="P75" s="117" t="str">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="Q75" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>16be6dee-a3e8-8233-0076-d549471004db-075</v>
+        <v>ab906e97-84aa-8916-946b-c6603c0a2a72-075</v>
       </c>
       <c r="R75" s="117">
         <f t="shared" si="110"/>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="AC75" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB16BE6DEEA3E882330</v>
+        <v>BDBAB906E9784AA89169</v>
       </c>
       <c r="AD75" s="117" t="str">
         <f t="shared" si="112"/>
@@ -17978,14 +17978,14 @@
       </c>
       <c r="AI75" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>16be6dee-a3e8-8233-0076-d549471004db-075</v>
+        <v>ab906e97-84aa-8916-946b-c6603c0a2a72-075</v>
       </c>
       <c r="AJ75" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK75" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>16be6dee-a3e8-8233-0076-d549471004db-075</v>
+        <v>ab906e97-84aa-8916-946b-c6603c0a2a72-075</v>
       </c>
       <c r="AL75" s="117">
         <f t="shared" si="74"/>
@@ -18004,7 +18004,7 @@
         <v>BDB</v>
       </c>
       <c r="AP75" s="117" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AQ75" s="117">
         <f t="shared" si="59"/>
@@ -18033,7 +18033,7 @@
       </c>
       <c r="AZ75" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB16BE6DEEA3E882330</v>
+        <v>BDBAB906E9784AA89169</v>
       </c>
     </row>
     <row r="76" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -18084,7 +18084,7 @@
       </c>
       <c r="N76" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>e28577da-9a27-2475-2573-edab0eed44b8-076</v>
+        <v>b0eed4cb-a254-68b9-26d2-9297d801809a-076</v>
       </c>
       <c r="O76" s="116" t="str">
         <f t="shared" ref="O76:O101" si="123">LEFT(LEFT(W76,3)&amp;"."&amp;SUBSTITUTE(Y76,"-","")&amp;"."&amp;U76&amp;"0000000000000",20)</f>
@@ -18096,7 +18096,7 @@
       </c>
       <c r="Q76" s="116" t="str">
         <f t="shared" ref="Q76" ca="1" si="125">N76</f>
-        <v>e28577da-9a27-2475-2573-edab0eed44b8-076</v>
+        <v>b0eed4cb-a254-68b9-26d2-9297d801809a-076</v>
       </c>
       <c r="R76" s="117">
         <f t="shared" si="110"/>
@@ -18144,7 +18144,7 @@
       </c>
       <c r="AC76" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBE28577DA9A2724752</v>
+        <v>BDBB0EED4CBA25468B92</v>
       </c>
       <c r="AD76" s="117" t="str">
         <f t="shared" si="112"/>
@@ -18156,14 +18156,14 @@
       </c>
       <c r="AI76" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>e28577da-9a27-2475-2573-edab0eed44b8-076</v>
+        <v>b0eed4cb-a254-68b9-26d2-9297d801809a-076</v>
       </c>
       <c r="AJ76" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK76" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>e28577da-9a27-2475-2573-edab0eed44b8-076</v>
+        <v>b0eed4cb-a254-68b9-26d2-9297d801809a-076</v>
       </c>
       <c r="AL76" s="117">
         <f t="shared" si="74"/>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="AZ76" s="116" t="str">
         <f t="shared" ref="AZ76" ca="1" si="132">AC76</f>
-        <v>BDBE28577DA9A2724752</v>
+        <v>BDBB0EED4CBA25468B92</v>
       </c>
     </row>
     <row r="77" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -18268,7 +18268,7 @@
       </c>
       <c r="N77" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>d9d9ee03-540d-0e9c-9681-c9fc1fd20828-077</v>
+        <v>d0ecb64e-99aa-2f06-4778-c82d50c7a4c1-077</v>
       </c>
       <c r="O77" s="116" t="str">
         <f t="shared" si="123"/>
@@ -18280,7 +18280,7 @@
       </c>
       <c r="Q77" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>d9d9ee03-540d-0e9c-9681-c9fc1fd20828-077</v>
+        <v>d0ecb64e-99aa-2f06-4778-c82d50c7a4c1-077</v>
       </c>
       <c r="R77" s="117">
         <f t="shared" si="110"/>
@@ -18328,7 +18328,7 @@
       </c>
       <c r="AC77" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBD9D9EE03540D0E9C9</v>
+        <v>BDBD0ECB64E99AA2F064</v>
       </c>
       <c r="AD77" s="117" t="str">
         <f t="shared" si="112"/>
@@ -18340,14 +18340,14 @@
       </c>
       <c r="AI77" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>d9d9ee03-540d-0e9c-9681-c9fc1fd20828-077</v>
+        <v>d0ecb64e-99aa-2f06-4778-c82d50c7a4c1-077</v>
       </c>
       <c r="AJ77" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK77" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>d9d9ee03-540d-0e9c-9681-c9fc1fd20828-077</v>
+        <v>d0ecb64e-99aa-2f06-4778-c82d50c7a4c1-077</v>
       </c>
       <c r="AL77" s="117">
         <f>AL75</f>
@@ -18401,7 +18401,7 @@
       </c>
       <c r="AZ77" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBD9D9EE03540D0E9C9</v>
+        <v>BDBD0ECB64E99AA2F064</v>
       </c>
     </row>
     <row r="78" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -18452,7 +18452,7 @@
       </c>
       <c r="N78" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>037211ce-44b5-7a4e-4258-ddf4c66da039-078</v>
+        <v>870c84eb-4114-3488-a1ac-d7574d7b43f8-078</v>
       </c>
       <c r="O78" s="116" t="str">
         <f t="shared" si="123"/>
@@ -18464,7 +18464,7 @@
       </c>
       <c r="Q78" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>037211ce-44b5-7a4e-4258-ddf4c66da039-078</v>
+        <v>870c84eb-4114-3488-a1ac-d7574d7b43f8-078</v>
       </c>
       <c r="R78" s="117">
         <f t="shared" si="110"/>
@@ -18512,7 +18512,7 @@
       </c>
       <c r="AC78" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB037211CE44B57A4E4</v>
+        <v>BDB870C84EB41143488A</v>
       </c>
       <c r="AD78" s="117" t="str">
         <f t="shared" si="112"/>
@@ -18524,14 +18524,14 @@
       </c>
       <c r="AI78" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>037211ce-44b5-7a4e-4258-ddf4c66da039-078</v>
+        <v>870c84eb-4114-3488-a1ac-d7574d7b43f8-078</v>
       </c>
       <c r="AJ78" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK78" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>037211ce-44b5-7a4e-4258-ddf4c66da039-078</v>
+        <v>870c84eb-4114-3488-a1ac-d7574d7b43f8-078</v>
       </c>
       <c r="AL78" s="117">
         <f t="shared" si="74"/>
@@ -18585,7 +18585,7 @@
       </c>
       <c r="AZ78" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB037211CE44B57A4E4</v>
+        <v>BDB870C84EB41143488A</v>
       </c>
     </row>
     <row r="79" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -18636,7 +18636,7 @@
       </c>
       <c r="N79" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>82344aa6-496b-4f6c-5584-592a43872ab8-079</v>
+        <v>f88b2133-3420-9647-58a2-b487c0715bd8-079</v>
       </c>
       <c r="O79" s="116" t="str">
         <f t="shared" si="123"/>
@@ -18648,7 +18648,7 @@
       </c>
       <c r="Q79" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>82344aa6-496b-4f6c-5584-592a43872ab8-079</v>
+        <v>f88b2133-3420-9647-58a2-b487c0715bd8-079</v>
       </c>
       <c r="R79" s="117">
         <f t="shared" si="110"/>
@@ -18696,7 +18696,7 @@
       </c>
       <c r="AC79" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB82344AA6496B4F6C5</v>
+        <v>BDBF88B2133342096475</v>
       </c>
       <c r="AD79" s="117" t="str">
         <f t="shared" si="112"/>
@@ -18708,14 +18708,14 @@
       </c>
       <c r="AI79" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>82344aa6-496b-4f6c-5584-592a43872ab8-079</v>
+        <v>f88b2133-3420-9647-58a2-b487c0715bd8-079</v>
       </c>
       <c r="AJ79" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK79" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>82344aa6-496b-4f6c-5584-592a43872ab8-079</v>
+        <v>f88b2133-3420-9647-58a2-b487c0715bd8-079</v>
       </c>
       <c r="AL79" s="117">
         <f t="shared" si="74"/>
@@ -18769,7 +18769,7 @@
       </c>
       <c r="AZ79" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB82344AA6496B4F6C5</v>
+        <v>BDBF88B2133342096475</v>
       </c>
     </row>
     <row r="80" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -18820,7 +18820,7 @@
       </c>
       <c r="N80" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>748330cb-44d9-408d-5972-c16a31c809b0-080</v>
+        <v>8c8e9d22-037d-17ee-7fe1-8d4539ff4f10-080</v>
       </c>
       <c r="O80" s="116" t="str">
         <f t="shared" si="123"/>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="Q80" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>748330cb-44d9-408d-5972-c16a31c809b0-080</v>
+        <v>8c8e9d22-037d-17ee-7fe1-8d4539ff4f10-080</v>
       </c>
       <c r="R80" s="117">
         <f t="shared" si="110"/>
@@ -18880,7 +18880,7 @@
       </c>
       <c r="AC80" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB748330CB44D9408D5</v>
+        <v>BDB8C8E9D22037D17EE7</v>
       </c>
       <c r="AD80" s="117" t="str">
         <f t="shared" si="112"/>
@@ -18892,14 +18892,14 @@
       </c>
       <c r="AI80" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>748330cb-44d9-408d-5972-c16a31c809b0-080</v>
+        <v>8c8e9d22-037d-17ee-7fe1-8d4539ff4f10-080</v>
       </c>
       <c r="AJ80" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK80" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>748330cb-44d9-408d-5972-c16a31c809b0-080</v>
+        <v>8c8e9d22-037d-17ee-7fe1-8d4539ff4f10-080</v>
       </c>
       <c r="AL80" s="117">
         <f t="shared" si="74"/>
@@ -18953,7 +18953,7 @@
       </c>
       <c r="AZ80" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB748330CB44D9408D5</v>
+        <v>BDB8C8E9D22037D17EE7</v>
       </c>
     </row>
     <row r="81" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -19004,7 +19004,7 @@
       </c>
       <c r="N81" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>a2c56bfb-628b-1871-6e02-14b8a171835d-081</v>
+        <v>dc1a6def-2433-45a4-374b-833607fb386e-081</v>
       </c>
       <c r="O81" s="116" t="str">
         <f t="shared" si="123"/>
@@ -19016,7 +19016,7 @@
       </c>
       <c r="Q81" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>a2c56bfb-628b-1871-6e02-14b8a171835d-081</v>
+        <v>dc1a6def-2433-45a4-374b-833607fb386e-081</v>
       </c>
       <c r="R81" s="117">
         <f t="shared" si="110"/>
@@ -19064,7 +19064,7 @@
       </c>
       <c r="AC81" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBA2C56BFB628B18716</v>
+        <v>BDBDC1A6DEF243345A43</v>
       </c>
       <c r="AD81" s="117" t="str">
         <f t="shared" si="112"/>
@@ -19076,14 +19076,14 @@
       </c>
       <c r="AI81" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>a2c56bfb-628b-1871-6e02-14b8a171835d-081</v>
+        <v>dc1a6def-2433-45a4-374b-833607fb386e-081</v>
       </c>
       <c r="AJ81" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK81" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>a2c56bfb-628b-1871-6e02-14b8a171835d-081</v>
+        <v>dc1a6def-2433-45a4-374b-833607fb386e-081</v>
       </c>
       <c r="AL81" s="117">
         <f t="shared" si="74"/>
@@ -19137,7 +19137,7 @@
       </c>
       <c r="AZ81" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBA2C56BFB628B18716</v>
+        <v>BDBDC1A6DEF243345A43</v>
       </c>
     </row>
     <row r="82" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -19188,7 +19188,7 @@
       </c>
       <c r="N82" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>f58954ab-3adb-9d05-0d4e-b4c0099e2931-082</v>
+        <v>aa8d81ee-a1db-4d25-122e-8a104a1e6309-082</v>
       </c>
       <c r="O82" s="116" t="str">
         <f t="shared" si="123"/>
@@ -19200,7 +19200,7 @@
       </c>
       <c r="Q82" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>f58954ab-3adb-9d05-0d4e-b4c0099e2931-082</v>
+        <v>aa8d81ee-a1db-4d25-122e-8a104a1e6309-082</v>
       </c>
       <c r="R82" s="117">
         <f t="shared" si="110"/>
@@ -19248,7 +19248,7 @@
       </c>
       <c r="AC82" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBF58954AB3ADB9D050</v>
+        <v>BDBAA8D81EEA1DB4D251</v>
       </c>
       <c r="AD82" s="117" t="str">
         <f t="shared" si="112"/>
@@ -19260,14 +19260,14 @@
       </c>
       <c r="AI82" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>f58954ab-3adb-9d05-0d4e-b4c0099e2931-082</v>
+        <v>aa8d81ee-a1db-4d25-122e-8a104a1e6309-082</v>
       </c>
       <c r="AJ82" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK82" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>f58954ab-3adb-9d05-0d4e-b4c0099e2931-082</v>
+        <v>aa8d81ee-a1db-4d25-122e-8a104a1e6309-082</v>
       </c>
       <c r="AL82" s="117">
         <f t="shared" si="74"/>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="AZ82" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBF58954AB3ADB9D050</v>
+        <v>BDBAA8D81EEA1DB4D251</v>
       </c>
     </row>
     <row r="83" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -19372,7 +19372,7 @@
       </c>
       <c r="N83" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>eb89ea12-4194-8ba4-2be8-733f36e47793-083</v>
+        <v>6e024c78-145f-5bc4-98a0-ca95d9732399-083</v>
       </c>
       <c r="O83" s="116" t="str">
         <f t="shared" si="123"/>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="Q83" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>eb89ea12-4194-8ba4-2be8-733f36e47793-083</v>
+        <v>6e024c78-145f-5bc4-98a0-ca95d9732399-083</v>
       </c>
       <c r="R83" s="117">
         <f t="shared" si="110"/>
@@ -19432,7 +19432,7 @@
       </c>
       <c r="AC83" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBEB89EA1241948BA42</v>
+        <v>BDB6E024C78145F5BC49</v>
       </c>
       <c r="AD83" s="117" t="str">
         <f t="shared" si="112"/>
@@ -19444,14 +19444,14 @@
       </c>
       <c r="AI83" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>eb89ea12-4194-8ba4-2be8-733f36e47793-083</v>
+        <v>6e024c78-145f-5bc4-98a0-ca95d9732399-083</v>
       </c>
       <c r="AJ83" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK83" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>eb89ea12-4194-8ba4-2be8-733f36e47793-083</v>
+        <v>6e024c78-145f-5bc4-98a0-ca95d9732399-083</v>
       </c>
       <c r="AL83" s="117">
         <f t="shared" si="74"/>
@@ -19505,7 +19505,7 @@
       </c>
       <c r="AZ83" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBEB89EA1241948BA42</v>
+        <v>BDB6E024C78145F5BC49</v>
       </c>
     </row>
     <row r="84" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -19556,7 +19556,7 @@
       </c>
       <c r="N84" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>055275a0-4261-5585-514b-510aca244063-084</v>
+        <v>fb3988b9-7501-0f88-381b-02737630081b-084</v>
       </c>
       <c r="O84" s="116" t="str">
         <f t="shared" si="123"/>
@@ -19568,7 +19568,7 @@
       </c>
       <c r="Q84" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>055275a0-4261-5585-514b-510aca244063-084</v>
+        <v>fb3988b9-7501-0f88-381b-02737630081b-084</v>
       </c>
       <c r="R84" s="117">
         <f t="shared" si="110"/>
@@ -19616,7 +19616,7 @@
       </c>
       <c r="AC84" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB055275A0426155855</v>
+        <v>BDBFB3988B975010F883</v>
       </c>
       <c r="AD84" s="117" t="str">
         <f t="shared" si="112"/>
@@ -19628,14 +19628,14 @@
       </c>
       <c r="AI84" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>055275a0-4261-5585-514b-510aca244063-084</v>
+        <v>fb3988b9-7501-0f88-381b-02737630081b-084</v>
       </c>
       <c r="AJ84" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK84" s="116" t="str">
         <f t="shared" ref="AK84:AK102" ca="1" si="141">Q84</f>
-        <v>055275a0-4261-5585-514b-510aca244063-084</v>
+        <v>fb3988b9-7501-0f88-381b-02737630081b-084</v>
       </c>
       <c r="AL84" s="117">
         <f t="shared" si="74"/>
@@ -19689,7 +19689,7 @@
       </c>
       <c r="AZ84" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB055275A0426155855</v>
+        <v>BDBFB3988B975010F883</v>
       </c>
     </row>
     <row r="85" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -19740,7 +19740,7 @@
       </c>
       <c r="N85" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>c53cb672-92cb-8299-3b3e-886f15037a4c-085</v>
+        <v>fc2c60a8-14b5-1fb8-1ef0-ae8f1aae731f-085</v>
       </c>
       <c r="O85" s="116" t="str">
         <f t="shared" si="123"/>
@@ -19752,7 +19752,7 @@
       </c>
       <c r="Q85" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>c53cb672-92cb-8299-3b3e-886f15037a4c-085</v>
+        <v>fc2c60a8-14b5-1fb8-1ef0-ae8f1aae731f-085</v>
       </c>
       <c r="R85" s="117">
         <f t="shared" si="110"/>
@@ -19800,7 +19800,7 @@
       </c>
       <c r="AC85" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBC53CB67292CB82993</v>
+        <v>BDBFC2C60A814B51FB81</v>
       </c>
       <c r="AD85" s="117" t="str">
         <f t="shared" si="112"/>
@@ -19812,14 +19812,14 @@
       </c>
       <c r="AI85" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>c53cb672-92cb-8299-3b3e-886f15037a4c-085</v>
+        <v>fc2c60a8-14b5-1fb8-1ef0-ae8f1aae731f-085</v>
       </c>
       <c r="AJ85" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK85" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>c53cb672-92cb-8299-3b3e-886f15037a4c-085</v>
+        <v>fc2c60a8-14b5-1fb8-1ef0-ae8f1aae731f-085</v>
       </c>
       <c r="AL85" s="117">
         <f t="shared" si="74"/>
@@ -19873,7 +19873,7 @@
       </c>
       <c r="AZ85" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBC53CB67292CB82993</v>
+        <v>BDBFC2C60A814B51FB81</v>
       </c>
     </row>
     <row r="86" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="N86" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>0445c153-8673-973d-05a7-ab115c7a3e6a-086</v>
+        <v>19c66279-72c5-0a8d-2447-473ad40d7537-086</v>
       </c>
       <c r="O86" s="116" t="str">
         <f t="shared" si="123"/>
@@ -19936,7 +19936,7 @@
       </c>
       <c r="Q86" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>0445c153-8673-973d-05a7-ab115c7a3e6a-086</v>
+        <v>19c66279-72c5-0a8d-2447-473ad40d7537-086</v>
       </c>
       <c r="R86" s="117">
         <f t="shared" si="110"/>
@@ -19984,7 +19984,7 @@
       </c>
       <c r="AC86" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB0445C1538673973D0</v>
+        <v>BDB19C6627972C50A8D2</v>
       </c>
       <c r="AD86" s="117" t="str">
         <f t="shared" si="112"/>
@@ -19996,14 +19996,14 @@
       </c>
       <c r="AI86" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>0445c153-8673-973d-05a7-ab115c7a3e6a-086</v>
+        <v>19c66279-72c5-0a8d-2447-473ad40d7537-086</v>
       </c>
       <c r="AJ86" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK86" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>0445c153-8673-973d-05a7-ab115c7a3e6a-086</v>
+        <v>19c66279-72c5-0a8d-2447-473ad40d7537-086</v>
       </c>
       <c r="AL86" s="117">
         <f t="shared" si="74"/>
@@ -20057,7 +20057,7 @@
       </c>
       <c r="AZ86" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB0445C1538673973D0</v>
+        <v>BDB19C6627972C50A8D2</v>
       </c>
     </row>
     <row r="87" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -20108,7 +20108,7 @@
       </c>
       <c r="N87" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>df077a5c-519c-729c-68ba-0f84b9da98c4-087</v>
+        <v>f7ebf284-481a-3d62-23f7-29fa80f4202b-087</v>
       </c>
       <c r="O87" s="116" t="str">
         <f t="shared" si="123"/>
@@ -20120,7 +20120,7 @@
       </c>
       <c r="Q87" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>df077a5c-519c-729c-68ba-0f84b9da98c4-087</v>
+        <v>f7ebf284-481a-3d62-23f7-29fa80f4202b-087</v>
       </c>
       <c r="R87" s="117">
         <f t="shared" si="110"/>
@@ -20168,7 +20168,7 @@
       </c>
       <c r="AC87" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBDF077A5C519C729C6</v>
+        <v>BDBF7EBF284481A3D622</v>
       </c>
       <c r="AD87" s="117" t="str">
         <f t="shared" si="112"/>
@@ -20180,14 +20180,14 @@
       </c>
       <c r="AI87" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>df077a5c-519c-729c-68ba-0f84b9da98c4-087</v>
+        <v>f7ebf284-481a-3d62-23f7-29fa80f4202b-087</v>
       </c>
       <c r="AJ87" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK87" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>df077a5c-519c-729c-68ba-0f84b9da98c4-087</v>
+        <v>f7ebf284-481a-3d62-23f7-29fa80f4202b-087</v>
       </c>
       <c r="AL87" s="117">
         <f t="shared" si="74"/>
@@ -20241,7 +20241,7 @@
       </c>
       <c r="AZ87" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBDF077A5C519C729C6</v>
+        <v>BDBF7EBF284481A3D622</v>
       </c>
     </row>
     <row r="88" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -20292,7 +20292,7 @@
       </c>
       <c r="N88" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>2a0f294d-2b4a-632c-a155-cf8c67df23e7-088</v>
+        <v>07eeb355-38a0-7c0c-881a-7f3e11c9268a-088</v>
       </c>
       <c r="O88" s="116" t="str">
         <f t="shared" si="123"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="Q88" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>2a0f294d-2b4a-632c-a155-cf8c67df23e7-088</v>
+        <v>07eeb355-38a0-7c0c-881a-7f3e11c9268a-088</v>
       </c>
       <c r="R88" s="117">
         <f t="shared" si="110"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="AC88" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB2A0F294D2B4A632CA</v>
+        <v>BDB07EEB35538A07C0C8</v>
       </c>
       <c r="AD88" s="117" t="str">
         <f t="shared" si="112"/>
@@ -20364,14 +20364,14 @@
       </c>
       <c r="AI88" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>2a0f294d-2b4a-632c-a155-cf8c67df23e7-088</v>
+        <v>07eeb355-38a0-7c0c-881a-7f3e11c9268a-088</v>
       </c>
       <c r="AJ88" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK88" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>2a0f294d-2b4a-632c-a155-cf8c67df23e7-088</v>
+        <v>07eeb355-38a0-7c0c-881a-7f3e11c9268a-088</v>
       </c>
       <c r="AL88" s="117">
         <f t="shared" si="74"/>
@@ -20425,7 +20425,7 @@
       </c>
       <c r="AZ88" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB2A0F294D2B4A632CA</v>
+        <v>BDB07EEB35538A07C0C8</v>
       </c>
     </row>
     <row r="89" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="N89" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>3b098bb6-5b1f-5163-6dd8-9ec2217840cf-089</v>
+        <v>00a0df8d-7e66-6a52-83be-ea8672b16f4c-089</v>
       </c>
       <c r="O89" s="116" t="str">
         <f t="shared" si="123"/>
@@ -20488,7 +20488,7 @@
       </c>
       <c r="Q89" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>3b098bb6-5b1f-5163-6dd8-9ec2217840cf-089</v>
+        <v>00a0df8d-7e66-6a52-83be-ea8672b16f4c-089</v>
       </c>
       <c r="R89" s="117">
         <f t="shared" si="110"/>
@@ -20536,7 +20536,7 @@
       </c>
       <c r="AC89" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB3B098BB65B1F51636</v>
+        <v>BDB00A0DF8D7E666A528</v>
       </c>
       <c r="AD89" s="117" t="str">
         <f t="shared" si="112"/>
@@ -20548,14 +20548,14 @@
       </c>
       <c r="AI89" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>3b098bb6-5b1f-5163-6dd8-9ec2217840cf-089</v>
+        <v>00a0df8d-7e66-6a52-83be-ea8672b16f4c-089</v>
       </c>
       <c r="AJ89" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK89" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>3b098bb6-5b1f-5163-6dd8-9ec2217840cf-089</v>
+        <v>00a0df8d-7e66-6a52-83be-ea8672b16f4c-089</v>
       </c>
       <c r="AL89" s="117">
         <f t="shared" si="74"/>
@@ -20609,7 +20609,7 @@
       </c>
       <c r="AZ89" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB3B098BB65B1F51636</v>
+        <v>BDB00A0DF8D7E666A528</v>
       </c>
     </row>
     <row r="90" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -20660,7 +20660,7 @@
       </c>
       <c r="N90" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>6939cc3e-0036-1356-1372-7b6bda4f9d43-090</v>
+        <v>3b803f85-2291-a526-a5ba-477cae81a05d-090</v>
       </c>
       <c r="O90" s="116" t="str">
         <f t="shared" si="123"/>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="Q90" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>6939cc3e-0036-1356-1372-7b6bda4f9d43-090</v>
+        <v>3b803f85-2291-a526-a5ba-477cae81a05d-090</v>
       </c>
       <c r="R90" s="117">
         <f t="shared" si="110"/>
@@ -20720,7 +20720,7 @@
       </c>
       <c r="AC90" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB6939CC3E003613561</v>
+        <v>BDB3B803F852291A526A</v>
       </c>
       <c r="AD90" s="117" t="str">
         <f t="shared" si="112"/>
@@ -20732,14 +20732,14 @@
       </c>
       <c r="AI90" s="116" t="str">
         <f t="shared" ref="AI90:AI102" ca="1" si="153">N90</f>
-        <v>6939cc3e-0036-1356-1372-7b6bda4f9d43-090</v>
+        <v>3b803f85-2291-a526-a5ba-477cae81a05d-090</v>
       </c>
       <c r="AJ90" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK90" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>6939cc3e-0036-1356-1372-7b6bda4f9d43-090</v>
+        <v>3b803f85-2291-a526-a5ba-477cae81a05d-090</v>
       </c>
       <c r="AL90" s="117">
         <f t="shared" si="74"/>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="AZ90" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB6939CC3E003613561</v>
+        <v>BDB3B803F852291A526A</v>
       </c>
     </row>
     <row r="91" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -20844,7 +20844,7 @@
       </c>
       <c r="N91" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>38685845-2c54-50de-5a67-0a738f835dcb-091</v>
+        <v>c6f597cf-4979-3dc1-3bdb-2137b70e773d-091</v>
       </c>
       <c r="O91" s="116" t="str">
         <f t="shared" si="123"/>
@@ -20856,7 +20856,7 @@
       </c>
       <c r="Q91" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>38685845-2c54-50de-5a67-0a738f835dcb-091</v>
+        <v>c6f597cf-4979-3dc1-3bdb-2137b70e773d-091</v>
       </c>
       <c r="R91" s="117">
         <f t="shared" si="110"/>
@@ -20904,7 +20904,7 @@
       </c>
       <c r="AC91" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB386858452C5450DE5</v>
+        <v>BDBC6F597CF49793DC13</v>
       </c>
       <c r="AD91" s="117" t="str">
         <f t="shared" si="112"/>
@@ -20916,14 +20916,14 @@
       </c>
       <c r="AI91" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>38685845-2c54-50de-5a67-0a738f835dcb-091</v>
+        <v>c6f597cf-4979-3dc1-3bdb-2137b70e773d-091</v>
       </c>
       <c r="AJ91" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK91" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>38685845-2c54-50de-5a67-0a738f835dcb-091</v>
+        <v>c6f597cf-4979-3dc1-3bdb-2137b70e773d-091</v>
       </c>
       <c r="AL91" s="117">
         <f t="shared" si="74"/>
@@ -20977,7 +20977,7 @@
       </c>
       <c r="AZ91" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB386858452C5450DE5</v>
+        <v>BDBC6F597CF49793DC13</v>
       </c>
     </row>
     <row r="92" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -21028,7 +21028,7 @@
       </c>
       <c r="N92" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>61e6d929-2fde-6fdd-5c25-30f88758a00f-092</v>
+        <v>e8486b61-9499-07a2-2a05-84718313a464-092</v>
       </c>
       <c r="O92" s="116" t="str">
         <f t="shared" si="123"/>
@@ -21040,7 +21040,7 @@
       </c>
       <c r="Q92" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>61e6d929-2fde-6fdd-5c25-30f88758a00f-092</v>
+        <v>e8486b61-9499-07a2-2a05-84718313a464-092</v>
       </c>
       <c r="R92" s="117">
         <f t="shared" si="110"/>
@@ -21088,7 +21088,7 @@
       </c>
       <c r="AC92" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB61E6D9292FDE6FDD5</v>
+        <v>BDBE8486B61949907A22</v>
       </c>
       <c r="AD92" s="117" t="str">
         <f t="shared" si="112"/>
@@ -21100,14 +21100,14 @@
       </c>
       <c r="AI92" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>61e6d929-2fde-6fdd-5c25-30f88758a00f-092</v>
+        <v>e8486b61-9499-07a2-2a05-84718313a464-092</v>
       </c>
       <c r="AJ92" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK92" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>61e6d929-2fde-6fdd-5c25-30f88758a00f-092</v>
+        <v>e8486b61-9499-07a2-2a05-84718313a464-092</v>
       </c>
       <c r="AL92" s="117">
         <f t="shared" si="74"/>
@@ -21161,7 +21161,7 @@
       </c>
       <c r="AZ92" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB61E6D9292FDE6FDD5</v>
+        <v>BDBE8486B61949907A22</v>
       </c>
     </row>
     <row r="93" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -21212,7 +21212,7 @@
       </c>
       <c r="N93" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>53d6d6e1-a403-8167-37af-9c9bf6c159f4-093</v>
+        <v>23598e88-9c45-6549-8523-6a748d785589-093</v>
       </c>
       <c r="O93" s="116" t="str">
         <f t="shared" si="123"/>
@@ -21224,7 +21224,7 @@
       </c>
       <c r="Q93" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>53d6d6e1-a403-8167-37af-9c9bf6c159f4-093</v>
+        <v>23598e88-9c45-6549-8523-6a748d785589-093</v>
       </c>
       <c r="R93" s="117">
         <f t="shared" si="110"/>
@@ -21272,7 +21272,7 @@
       </c>
       <c r="AC93" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB53D6D6E1A40381673</v>
+        <v>BDB23598E889C4565498</v>
       </c>
       <c r="AD93" s="117" t="str">
         <f t="shared" si="112"/>
@@ -21284,14 +21284,14 @@
       </c>
       <c r="AI93" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>53d6d6e1-a403-8167-37af-9c9bf6c159f4-093</v>
+        <v>23598e88-9c45-6549-8523-6a748d785589-093</v>
       </c>
       <c r="AJ93" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK93" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>53d6d6e1-a403-8167-37af-9c9bf6c159f4-093</v>
+        <v>23598e88-9c45-6549-8523-6a748d785589-093</v>
       </c>
       <c r="AL93" s="117">
         <f t="shared" si="74"/>
@@ -21345,7 +21345,7 @@
       </c>
       <c r="AZ93" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB53D6D6E1A40381673</v>
+        <v>BDB23598E889C4565498</v>
       </c>
     </row>
     <row r="94" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -21396,7 +21396,7 @@
       </c>
       <c r="N94" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>df8d8672-3048-57ec-3375-796e00a93692-094</v>
+        <v>44aa659b-332d-9a01-6e14-34aab4905e06-094</v>
       </c>
       <c r="O94" s="116" t="str">
         <f t="shared" si="123"/>
@@ -21408,7 +21408,7 @@
       </c>
       <c r="Q94" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>df8d8672-3048-57ec-3375-796e00a93692-094</v>
+        <v>44aa659b-332d-9a01-6e14-34aab4905e06-094</v>
       </c>
       <c r="R94" s="117">
         <f t="shared" si="110"/>
@@ -21456,7 +21456,7 @@
       </c>
       <c r="AC94" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBDF8D8672304857EC3</v>
+        <v>BDB44AA659B332D9A016</v>
       </c>
       <c r="AD94" s="117" t="str">
         <f t="shared" si="112"/>
@@ -21468,14 +21468,14 @@
       </c>
       <c r="AI94" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>df8d8672-3048-57ec-3375-796e00a93692-094</v>
+        <v>44aa659b-332d-9a01-6e14-34aab4905e06-094</v>
       </c>
       <c r="AJ94" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK94" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>df8d8672-3048-57ec-3375-796e00a93692-094</v>
+        <v>44aa659b-332d-9a01-6e14-34aab4905e06-094</v>
       </c>
       <c r="AL94" s="117">
         <f t="shared" si="74"/>
@@ -21529,7 +21529,7 @@
       </c>
       <c r="AZ94" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBDF8D8672304857EC3</v>
+        <v>BDB44AA659B332D9A016</v>
       </c>
     </row>
     <row r="95" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -21580,7 +21580,7 @@
       </c>
       <c r="N95" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>332d4286-877a-170c-222b-35970b0522e2-095</v>
+        <v>add9c9df-187a-2925-7210-f49663378d47-095</v>
       </c>
       <c r="O95" s="116" t="str">
         <f t="shared" si="123"/>
@@ -21592,7 +21592,7 @@
       </c>
       <c r="Q95" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>332d4286-877a-170c-222b-35970b0522e2-095</v>
+        <v>add9c9df-187a-2925-7210-f49663378d47-095</v>
       </c>
       <c r="R95" s="117">
         <f t="shared" si="110"/>
@@ -21640,7 +21640,7 @@
       </c>
       <c r="AC95" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB332D4286877A170C2</v>
+        <v>BDBADD9C9DF187A29257</v>
       </c>
       <c r="AD95" s="117" t="str">
         <f t="shared" si="112"/>
@@ -21652,14 +21652,14 @@
       </c>
       <c r="AI95" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>332d4286-877a-170c-222b-35970b0522e2-095</v>
+        <v>add9c9df-187a-2925-7210-f49663378d47-095</v>
       </c>
       <c r="AJ95" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK95" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>332d4286-877a-170c-222b-35970b0522e2-095</v>
+        <v>add9c9df-187a-2925-7210-f49663378d47-095</v>
       </c>
       <c r="AL95" s="117">
         <f t="shared" si="74"/>
@@ -21713,7 +21713,7 @@
       </c>
       <c r="AZ95" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB332D4286877A170C2</v>
+        <v>BDBADD9C9DF187A29257</v>
       </c>
     </row>
     <row r="96" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -21764,7 +21764,7 @@
       </c>
       <c r="N96" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>af17c53b-30de-00f6-7e96-47f842b32217-096</v>
+        <v>8047975e-02e2-0e36-11b1-f83eb0065473-096</v>
       </c>
       <c r="O96" s="116" t="str">
         <f t="shared" si="123"/>
@@ -21776,7 +21776,7 @@
       </c>
       <c r="Q96" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>af17c53b-30de-00f6-7e96-47f842b32217-096</v>
+        <v>8047975e-02e2-0e36-11b1-f83eb0065473-096</v>
       </c>
       <c r="R96" s="117">
         <f t="shared" si="110"/>
@@ -21824,7 +21824,7 @@
       </c>
       <c r="AC96" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBAF17C53B30DE00F67</v>
+        <v>BDB8047975E02E20E361</v>
       </c>
       <c r="AD96" s="117" t="str">
         <f t="shared" si="112"/>
@@ -21836,14 +21836,14 @@
       </c>
       <c r="AI96" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>af17c53b-30de-00f6-7e96-47f842b32217-096</v>
+        <v>8047975e-02e2-0e36-11b1-f83eb0065473-096</v>
       </c>
       <c r="AJ96" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK96" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>af17c53b-30de-00f6-7e96-47f842b32217-096</v>
+        <v>8047975e-02e2-0e36-11b1-f83eb0065473-096</v>
       </c>
       <c r="AL96" s="117">
         <f t="shared" si="74"/>
@@ -21897,7 +21897,7 @@
       </c>
       <c r="AZ96" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBAF17C53B30DE00F67</v>
+        <v>BDB8047975E02E20E361</v>
       </c>
     </row>
     <row r="97" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -21948,7 +21948,7 @@
       </c>
       <c r="N97" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>4983032e-3a58-012e-0ed7-1666c67f6f20-097</v>
+        <v>07b9c2cf-1be6-4dfa-1f3d-cb427e0d7adc-097</v>
       </c>
       <c r="O97" s="116" t="str">
         <f t="shared" si="123"/>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="Q97" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>4983032e-3a58-012e-0ed7-1666c67f6f20-097</v>
+        <v>07b9c2cf-1be6-4dfa-1f3d-cb427e0d7adc-097</v>
       </c>
       <c r="R97" s="117">
         <f t="shared" si="110"/>
@@ -22008,7 +22008,7 @@
       </c>
       <c r="AC97" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB4983032E3A58012E0</v>
+        <v>BDB07B9C2CF1BE64DFA1</v>
       </c>
       <c r="AD97" s="117" t="str">
         <f t="shared" si="112"/>
@@ -22020,14 +22020,14 @@
       </c>
       <c r="AI97" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>4983032e-3a58-012e-0ed7-1666c67f6f20-097</v>
+        <v>07b9c2cf-1be6-4dfa-1f3d-cb427e0d7adc-097</v>
       </c>
       <c r="AJ97" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK97" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>4983032e-3a58-012e-0ed7-1666c67f6f20-097</v>
+        <v>07b9c2cf-1be6-4dfa-1f3d-cb427e0d7adc-097</v>
       </c>
       <c r="AL97" s="117">
         <f t="shared" si="74"/>
@@ -22081,7 +22081,7 @@
       </c>
       <c r="AZ97" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB4983032E3A58012E0</v>
+        <v>BDB07B9C2CF1BE64DFA1</v>
       </c>
     </row>
     <row r="98" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -22132,7 +22132,7 @@
       </c>
       <c r="N98" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>3fdfe1bc-9049-647d-491c-f68dbc6a737b-098</v>
+        <v>bcb8b01d-53a1-8dd6-9a58-31c0465d1a4e-098</v>
       </c>
       <c r="O98" s="116" t="str">
         <f t="shared" si="123"/>
@@ -22144,7 +22144,7 @@
       </c>
       <c r="Q98" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>3fdfe1bc-9049-647d-491c-f68dbc6a737b-098</v>
+        <v>bcb8b01d-53a1-8dd6-9a58-31c0465d1a4e-098</v>
       </c>
       <c r="R98" s="117">
         <f t="shared" si="110"/>
@@ -22192,7 +22192,7 @@
       </c>
       <c r="AC98" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB3FDFE1BC9049647D4</v>
+        <v>BDBBCB8B01D53A18DD69</v>
       </c>
       <c r="AD98" s="117" t="str">
         <f t="shared" si="112"/>
@@ -22204,14 +22204,14 @@
       </c>
       <c r="AI98" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>3fdfe1bc-9049-647d-491c-f68dbc6a737b-098</v>
+        <v>bcb8b01d-53a1-8dd6-9a58-31c0465d1a4e-098</v>
       </c>
       <c r="AJ98" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK98" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>3fdfe1bc-9049-647d-491c-f68dbc6a737b-098</v>
+        <v>bcb8b01d-53a1-8dd6-9a58-31c0465d1a4e-098</v>
       </c>
       <c r="AL98" s="117">
         <f t="shared" si="74"/>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="AZ98" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB3FDFE1BC9049647D4</v>
+        <v>BDBBCB8B01D53A18DD69</v>
       </c>
     </row>
     <row r="99" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="N99" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>41c8d4b1-8b02-6709-7ce2-9e1c44646033-099</v>
+        <v>2d2f8500-08b4-4045-385f-e6edf0211b17-099</v>
       </c>
       <c r="O99" s="116" t="str">
         <f t="shared" si="123"/>
@@ -22328,7 +22328,7 @@
       </c>
       <c r="Q99" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>41c8d4b1-8b02-6709-7ce2-9e1c44646033-099</v>
+        <v>2d2f8500-08b4-4045-385f-e6edf0211b17-099</v>
       </c>
       <c r="R99" s="117">
         <f t="shared" si="110"/>
@@ -22376,7 +22376,7 @@
       </c>
       <c r="AC99" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB41C8D4B18B0267097</v>
+        <v>BDB2D2F850008B440453</v>
       </c>
       <c r="AD99" s="117" t="str">
         <f t="shared" si="112"/>
@@ -22388,14 +22388,14 @@
       </c>
       <c r="AI99" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>41c8d4b1-8b02-6709-7ce2-9e1c44646033-099</v>
+        <v>2d2f8500-08b4-4045-385f-e6edf0211b17-099</v>
       </c>
       <c r="AJ99" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK99" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>41c8d4b1-8b02-6709-7ce2-9e1c44646033-099</v>
+        <v>2d2f8500-08b4-4045-385f-e6edf0211b17-099</v>
       </c>
       <c r="AL99" s="117">
         <f t="shared" si="74"/>
@@ -22449,7 +22449,7 @@
       </c>
       <c r="AZ99" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB41C8D4B18B0267097</v>
+        <v>BDB2D2F850008B440453</v>
       </c>
     </row>
     <row r="100" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -22500,7 +22500,7 @@
       </c>
       <c r="N100" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>675e9a40-6b2a-a41d-9919-095e36934e44-100</v>
+        <v>ffa6ea1e-453c-a202-621c-ef9ae8746c43-100</v>
       </c>
       <c r="O100" s="116" t="str">
         <f t="shared" si="123"/>
@@ -22512,7 +22512,7 @@
       </c>
       <c r="Q100" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>675e9a40-6b2a-a41d-9919-095e36934e44-100</v>
+        <v>ffa6ea1e-453c-a202-621c-ef9ae8746c43-100</v>
       </c>
       <c r="R100" s="117">
         <f t="shared" si="110"/>
@@ -22560,7 +22560,7 @@
       </c>
       <c r="AC100" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB675E9A406B2AA41D9</v>
+        <v>BDBFFA6EA1E453CA2026</v>
       </c>
       <c r="AD100" s="117" t="str">
         <f t="shared" si="112"/>
@@ -22572,14 +22572,14 @@
       </c>
       <c r="AI100" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>675e9a40-6b2a-a41d-9919-095e36934e44-100</v>
+        <v>ffa6ea1e-453c-a202-621c-ef9ae8746c43-100</v>
       </c>
       <c r="AJ100" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK100" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>675e9a40-6b2a-a41d-9919-095e36934e44-100</v>
+        <v>ffa6ea1e-453c-a202-621c-ef9ae8746c43-100</v>
       </c>
       <c r="AL100" s="117">
         <f t="shared" si="74"/>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="AZ100" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB675E9A406B2AA41D9</v>
+        <v>BDBFFA6EA1E453CA2026</v>
       </c>
     </row>
     <row r="101" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="N101" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>3959ba26-6fb3-57c0-5ed2-7960ce111092-101</v>
+        <v>128b0e8d-13b2-09ad-1676-0e71d53f6ba2-101</v>
       </c>
       <c r="O101" s="116" t="str">
         <f t="shared" si="123"/>
@@ -22696,7 +22696,7 @@
       </c>
       <c r="Q101" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>3959ba26-6fb3-57c0-5ed2-7960ce111092-101</v>
+        <v>128b0e8d-13b2-09ad-1676-0e71d53f6ba2-101</v>
       </c>
       <c r="R101" s="117">
         <f t="shared" si="110"/>
@@ -22744,7 +22744,7 @@
       </c>
       <c r="AC101" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB3959BA266FB357C05</v>
+        <v>BDB128B0E8D13B209AD1</v>
       </c>
       <c r="AD101" s="117" t="str">
         <f t="shared" si="112"/>
@@ -22756,14 +22756,14 @@
       </c>
       <c r="AI101" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>3959ba26-6fb3-57c0-5ed2-7960ce111092-101</v>
+        <v>128b0e8d-13b2-09ad-1676-0e71d53f6ba2-101</v>
       </c>
       <c r="AJ101" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK101" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>3959ba26-6fb3-57c0-5ed2-7960ce111092-101</v>
+        <v>128b0e8d-13b2-09ad-1676-0e71d53f6ba2-101</v>
       </c>
       <c r="AL101" s="117">
         <f t="shared" si="74"/>
@@ -22817,7 +22817,7 @@
       </c>
       <c r="AZ101" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB3959BA266FB357C05</v>
+        <v>BDB128B0E8D13B209AD1</v>
       </c>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.25">
@@ -22866,7 +22866,7 @@
       </c>
       <c r="N102" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>7f837012-42f8-2d30-1952-799d200b329b-102</v>
+        <v>2659442b-14bb-6d46-9d41-ccab45f04ec0-102</v>
       </c>
       <c r="O102" s="116"/>
       <c r="P102" s="117" t="str">
@@ -22875,7 +22875,7 @@
       </c>
       <c r="Q102" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>7f837012-42f8-2d30-1952-799d200b329b-102</v>
+        <v>2659442b-14bb-6d46-9d41-ccab45f04ec0-102</v>
       </c>
       <c r="R102" s="117">
         <f t="shared" si="110"/>
@@ -22923,7 +22923,7 @@
       </c>
       <c r="AC102" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB7F83701242F82D301</v>
+        <v>BDB2659442B14BB6D469</v>
       </c>
       <c r="AD102" s="117" t="str">
         <f t="shared" si="112"/>
@@ -22935,14 +22935,14 @@
       </c>
       <c r="AI102" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>7f837012-42f8-2d30-1952-799d200b329b-102</v>
+        <v>2659442b-14bb-6d46-9d41-ccab45f04ec0-102</v>
       </c>
       <c r="AJ102" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK102" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>7f837012-42f8-2d30-1952-799d200b329b-102</v>
+        <v>2659442b-14bb-6d46-9d41-ccab45f04ec0-102</v>
       </c>
       <c r="AL102" s="117">
         <f t="shared" si="74"/>
@@ -22961,7 +22961,7 @@
         <v>BDB</v>
       </c>
       <c r="AP102" s="117" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AQ102" s="117">
         <f t="shared" si="146"/>
@@ -22990,7 +22990,7 @@
       </c>
       <c r="AZ102" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB7F83701242F82D301</v>
+        <v>BDB2659442B14BB6D469</v>
       </c>
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.25">

--- a/Prospects/HomeSend/Siena Transaction Generator/BASE/Case 1 - WIP (version 2).xlsb.xlsx
+++ b/Prospects/HomeSend/Siena Transaction Generator/BASE/Case 1 - WIP (version 2).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtownsend\Documents\GitHub\ebSiena-DemoSystemData\Prospects\HomeSend\Siena Transaction Generator\BASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADFB646-AB82-401F-9B59-15A7E2042C77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53AB9B1-3402-41E5-ACF0-771BFDFA5F96}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3375" yWindow="2865" windowWidth="21600" windowHeight="11505" firstSheet="3" activeTab="3" xr2:uid="{123A3C3A-CA81-4564-8BED-B192D3F76CA1}"/>
   </bookViews>
@@ -4810,7 +4810,7 @@
   <dimension ref="A1:AZ206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AU107" sqref="AU107"/>
+      <selection activeCell="AI102" sqref="AI102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="N2" s="116" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>d3c28fe3-0aa1-8f24-98f5-0c39ea332114-002</v>
+        <v>1f0fc929-9dc1-122a-0064-79871a3b3832-002</v>
       </c>
       <c r="O2" s="116" t="str">
         <f>LEFT(LEFT(W2,3)&amp;"."&amp;SUBSTITUTE(Y2,"-","")&amp;"."&amp;U2&amp;"0000000000000",20)</f>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="Q2" s="116" t="str">
         <f ca="1">N2</f>
-        <v>d3c28fe3-0aa1-8f24-98f5-0c39ea332114-002</v>
+        <v>1f0fc929-9dc1-122a-0064-79871a3b3832-002</v>
       </c>
       <c r="R2" s="117">
         <v>0</v>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="AC2" s="116" t="str">
         <f t="shared" ref="AC2:AC33" ca="1" si="6">UPPER(LEFT(U2&amp;SUBSTITUTE(N2,"-",""),20))</f>
-        <v>BDBD3C28FE30AA18F249</v>
+        <v>BDB1F0FC9299DC1122A0</v>
       </c>
       <c r="AD2" s="121" t="s">
         <v>96</v>
@@ -5109,14 +5109,14 @@
       </c>
       <c r="AI2" s="116" t="str">
         <f t="shared" ref="AI2:AI24" ca="1" si="7">N2</f>
-        <v>d3c28fe3-0aa1-8f24-98f5-0c39ea332114-002</v>
+        <v>1f0fc929-9dc1-122a-0064-79871a3b3832-002</v>
       </c>
       <c r="AJ2" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK2" s="116" t="str">
         <f t="shared" ref="AK2:AK23" ca="1" si="8">Q2</f>
-        <v>d3c28fe3-0aa1-8f24-98f5-0c39ea332114-002</v>
+        <v>1f0fc929-9dc1-122a-0064-79871a3b3832-002</v>
       </c>
       <c r="AL2" s="117">
         <f t="shared" ref="AL2:AL23" si="9">R2</f>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="AZ2" s="116" t="str">
         <f t="shared" ref="AZ2:AZ23" ca="1" si="15">AC2</f>
-        <v>BDBD3C28FE30AA18F249</v>
+        <v>BDB1F0FC9299DC1122A0</v>
       </c>
     </row>
     <row r="3" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="N3" s="116" t="str">
         <f t="shared" ref="N3:N67" ca="1" si="18">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>b5f93127-3d5e-12b4-85b0-3fad0d124229-003</v>
+        <v>af4219d6-1377-742d-1a3b-dc3b002b7476-003</v>
       </c>
       <c r="O3" s="116" t="str">
         <f t="shared" ref="O3:O23" si="19">LEFT(LEFT(W3,3)&amp;"."&amp;SUBSTITUTE(Y3,"-","")&amp;"."&amp;U3&amp;"0000000000000",20)</f>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="Q3" s="116" t="str">
         <f t="shared" ref="Q3:Q51" ca="1" si="20">N3</f>
-        <v>b5f93127-3d5e-12b4-85b0-3fad0d124229-003</v>
+        <v>af4219d6-1377-742d-1a3b-dc3b002b7476-003</v>
       </c>
       <c r="R3" s="117">
         <f>R$2</f>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="AC3" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBB5F931273D5E12B48</v>
+        <v>BDBAF4219D61377742D1</v>
       </c>
       <c r="AD3" s="117" t="str">
         <f>AD$2</f>
@@ -5278,14 +5278,14 @@
       </c>
       <c r="AI3" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>b5f93127-3d5e-12b4-85b0-3fad0d124229-003</v>
+        <v>af4219d6-1377-742d-1a3b-dc3b002b7476-003</v>
       </c>
       <c r="AJ3" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK3" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>b5f93127-3d5e-12b4-85b0-3fad0d124229-003</v>
+        <v>af4219d6-1377-742d-1a3b-dc3b002b7476-003</v>
       </c>
       <c r="AL3" s="117">
         <f t="shared" si="9"/>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="AZ3" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBB5F931273D5E12B48</v>
+        <v>BDBAF4219D61377742D1</v>
       </c>
     </row>
     <row r="4" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="N4" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>3ec853fc-a76b-0709-8298-fd5e09fa9257-004</v>
+        <v>66e7b70a-a712-0d51-8192-00ce1e2d8f11-004</v>
       </c>
       <c r="O4" s="116" t="str">
         <f t="shared" si="19"/>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="Q4" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>3ec853fc-a76b-0709-8298-fd5e09fa9257-004</v>
+        <v>66e7b70a-a712-0d51-8192-00ce1e2d8f11-004</v>
       </c>
       <c r="R4" s="117">
         <f t="shared" ref="R4:R67" si="26">R$2</f>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="AC4" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB3EC853FCA76B07098</v>
+        <v>BDB66E7B70AA7120D518</v>
       </c>
       <c r="AD4" s="117" t="str">
         <f t="shared" ref="AD4:AD67" si="29">AD$2</f>
@@ -5445,14 +5445,14 @@
       </c>
       <c r="AI4" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>3ec853fc-a76b-0709-8298-fd5e09fa9257-004</v>
+        <v>66e7b70a-a712-0d51-8192-00ce1e2d8f11-004</v>
       </c>
       <c r="AJ4" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK4" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>3ec853fc-a76b-0709-8298-fd5e09fa9257-004</v>
+        <v>66e7b70a-a712-0d51-8192-00ce1e2d8f11-004</v>
       </c>
       <c r="AL4" s="117">
         <f t="shared" si="9"/>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="AZ4" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB3EC853FCA76B07098</v>
+        <v>BDB66E7B70AA7120D518</v>
       </c>
     </row>
     <row r="5" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="N5" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>f254534c-7928-34fe-28c0-11853ba852b8-005</v>
+        <v>55911232-0666-68ae-71e5-531002fa881c-005</v>
       </c>
       <c r="O5" s="116" t="str">
         <f t="shared" si="19"/>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="Q5" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>f254534c-7928-34fe-28c0-11853ba852b8-005</v>
+        <v>55911232-0666-68ae-71e5-531002fa881c-005</v>
       </c>
       <c r="R5" s="117">
         <f t="shared" si="26"/>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="AC5" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBF254534C792834FE2</v>
+        <v>BDB55911232066668AE7</v>
       </c>
       <c r="AD5" s="117" t="str">
         <f t="shared" si="29"/>
@@ -5612,14 +5612,14 @@
       </c>
       <c r="AI5" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>f254534c-7928-34fe-28c0-11853ba852b8-005</v>
+        <v>55911232-0666-68ae-71e5-531002fa881c-005</v>
       </c>
       <c r="AJ5" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK5" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>f254534c-7928-34fe-28c0-11853ba852b8-005</v>
+        <v>55911232-0666-68ae-71e5-531002fa881c-005</v>
       </c>
       <c r="AL5" s="117">
         <f t="shared" si="9"/>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="AZ5" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBF254534C792834FE2</v>
+        <v>BDB55911232066668AE7</v>
       </c>
     </row>
     <row r="6" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="N6" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>d6ba598f-4570-1d95-0633-1f3ef1d004dd-006</v>
+        <v>aad2d283-990f-386e-0c96-df60c9543ca9-006</v>
       </c>
       <c r="O6" s="116" t="str">
         <f t="shared" si="19"/>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="Q6" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>d6ba598f-4570-1d95-0633-1f3ef1d004dd-006</v>
+        <v>aad2d283-990f-386e-0c96-df60c9543ca9-006</v>
       </c>
       <c r="R6" s="117">
         <f t="shared" si="26"/>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="AC6" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBD6BA598F45701D950</v>
+        <v>BDBAAD2D283990F386E0</v>
       </c>
       <c r="AD6" s="117" t="str">
         <f t="shared" si="29"/>
@@ -5779,14 +5779,14 @@
       </c>
       <c r="AI6" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>d6ba598f-4570-1d95-0633-1f3ef1d004dd-006</v>
+        <v>aad2d283-990f-386e-0c96-df60c9543ca9-006</v>
       </c>
       <c r="AJ6" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK6" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>d6ba598f-4570-1d95-0633-1f3ef1d004dd-006</v>
+        <v>aad2d283-990f-386e-0c96-df60c9543ca9-006</v>
       </c>
       <c r="AL6" s="117">
         <f t="shared" si="9"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="AZ6" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBD6BA598F45701D950</v>
+        <v>BDBAAD2D283990F386E0</v>
       </c>
     </row>
     <row r="7" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="N7" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>7b10120b-801e-968f-5740-1e709f510892-007</v>
+        <v>c850228c-6bb9-207f-1ef2-c9e7cdb600ac-007</v>
       </c>
       <c r="O7" s="116" t="str">
         <f t="shared" si="19"/>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="Q7" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>7b10120b-801e-968f-5740-1e709f510892-007</v>
+        <v>c850228c-6bb9-207f-1ef2-c9e7cdb600ac-007</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" si="26"/>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="AC7" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB7B10120B801E968F5</v>
+        <v>BDBC850228C6BB9207F1</v>
       </c>
       <c r="AD7" s="117" t="str">
         <f t="shared" si="29"/>
@@ -5952,14 +5952,14 @@
       </c>
       <c r="AI7" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>7b10120b-801e-968f-5740-1e709f510892-007</v>
+        <v>c850228c-6bb9-207f-1ef2-c9e7cdb600ac-007</v>
       </c>
       <c r="AJ7" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK7" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>7b10120b-801e-968f-5740-1e709f510892-007</v>
+        <v>c850228c-6bb9-207f-1ef2-c9e7cdb600ac-007</v>
       </c>
       <c r="AL7" s="117">
         <f t="shared" si="9"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="AZ7" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB7B10120B801E968F5</v>
+        <v>BDBC850228C6BB9207F1</v>
       </c>
     </row>
     <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="N8" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>a2a7dc2b-7981-9de2-6d25-9eafd5320f41-008</v>
+        <v>83315f45-0734-494d-02dd-c3f02023571e-008</v>
       </c>
       <c r="O8" s="116" t="str">
         <f t="shared" si="19"/>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="Q8" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>a2a7dc2b-7981-9de2-6d25-9eafd5320f41-008</v>
+        <v>83315f45-0734-494d-02dd-c3f02023571e-008</v>
       </c>
       <c r="R8" s="117">
         <f t="shared" si="26"/>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="AC8" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBA2A7DC2B79819DE26</v>
+        <v>BDB83315F450734494D0</v>
       </c>
       <c r="AD8" s="117" t="str">
         <f t="shared" si="29"/>
@@ -6127,14 +6127,14 @@
       </c>
       <c r="AI8" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>a2a7dc2b-7981-9de2-6d25-9eafd5320f41-008</v>
+        <v>83315f45-0734-494d-02dd-c3f02023571e-008</v>
       </c>
       <c r="AJ8" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK8" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>a2a7dc2b-7981-9de2-6d25-9eafd5320f41-008</v>
+        <v>83315f45-0734-494d-02dd-c3f02023571e-008</v>
       </c>
       <c r="AL8" s="117">
         <f t="shared" si="9"/>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="AZ8" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBA2A7DC2B79819DE26</v>
+        <v>BDB83315F450734494D0</v>
       </c>
     </row>
     <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="N9" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>4335acac-3775-9b80-9a2c-519a51c95c96-009</v>
+        <v>be6093f7-7623-0728-2a24-61aa5d3b3359-009</v>
       </c>
       <c r="O9" s="116" t="str">
         <f t="shared" si="19"/>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="Q9" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>4335acac-3775-9b80-9a2c-519a51c95c96-009</v>
+        <v>be6093f7-7623-0728-2a24-61aa5d3b3359-009</v>
       </c>
       <c r="R9" s="117">
         <f t="shared" si="26"/>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="AC9" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB4335ACAC37759B809</v>
+        <v>BDBBE6093F7762307282</v>
       </c>
       <c r="AD9" s="117" t="str">
         <f t="shared" si="29"/>
@@ -6304,14 +6304,14 @@
       </c>
       <c r="AI9" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>4335acac-3775-9b80-9a2c-519a51c95c96-009</v>
+        <v>be6093f7-7623-0728-2a24-61aa5d3b3359-009</v>
       </c>
       <c r="AJ9" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK9" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>4335acac-3775-9b80-9a2c-519a51c95c96-009</v>
+        <v>be6093f7-7623-0728-2a24-61aa5d3b3359-009</v>
       </c>
       <c r="AL9" s="117">
         <f t="shared" si="9"/>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="AZ9" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB4335ACAC37759B809</v>
+        <v>BDBBE6093F7762307282</v>
       </c>
     </row>
     <row r="10" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="N10" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>808816e0-8fca-885d-1a74-c2a5f4f7964f-010</v>
+        <v>b34f6299-3f33-4184-5db1-36a87d1d193f-010</v>
       </c>
       <c r="O10" s="116" t="str">
         <f t="shared" si="19"/>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="Q10" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>808816e0-8fca-885d-1a74-c2a5f4f7964f-010</v>
+        <v>b34f6299-3f33-4184-5db1-36a87d1d193f-010</v>
       </c>
       <c r="R10" s="117">
         <f t="shared" si="26"/>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="AC10" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB808816E08FCA885D1</v>
+        <v>BDBB34F62993F3341845</v>
       </c>
       <c r="AD10" s="117" t="str">
         <f t="shared" si="29"/>
@@ -6475,14 +6475,14 @@
       </c>
       <c r="AI10" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>808816e0-8fca-885d-1a74-c2a5f4f7964f-010</v>
+        <v>b34f6299-3f33-4184-5db1-36a87d1d193f-010</v>
       </c>
       <c r="AJ10" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK10" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>808816e0-8fca-885d-1a74-c2a5f4f7964f-010</v>
+        <v>b34f6299-3f33-4184-5db1-36a87d1d193f-010</v>
       </c>
       <c r="AL10" s="117">
         <f t="shared" si="9"/>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="AZ10" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB808816E08FCA885D1</v>
+        <v>BDBB34F62993F3341845</v>
       </c>
     </row>
     <row r="11" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="N11" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>014ab0a7-0b91-51a9-7bef-028d8ff81638-011</v>
+        <v>407440d4-2dc4-8495-a113-e4cb3f659a03-011</v>
       </c>
       <c r="O11" s="116" t="str">
         <f t="shared" si="19"/>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="Q11" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>014ab0a7-0b91-51a9-7bef-028d8ff81638-011</v>
+        <v>407440d4-2dc4-8495-a113-e4cb3f659a03-011</v>
       </c>
       <c r="R11" s="117">
         <f t="shared" si="26"/>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="AC11" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB014AB0A70B9151A97</v>
+        <v>BDB407440D42DC48495A</v>
       </c>
       <c r="AD11" s="117" t="str">
         <f t="shared" si="29"/>
@@ -6648,14 +6648,14 @@
       </c>
       <c r="AI11" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>014ab0a7-0b91-51a9-7bef-028d8ff81638-011</v>
+        <v>407440d4-2dc4-8495-a113-e4cb3f659a03-011</v>
       </c>
       <c r="AJ11" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK11" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>014ab0a7-0b91-51a9-7bef-028d8ff81638-011</v>
+        <v>407440d4-2dc4-8495-a113-e4cb3f659a03-011</v>
       </c>
       <c r="AL11" s="117">
         <f t="shared" si="9"/>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="AZ11" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB014AB0A70B9151A97</v>
+        <v>BDB407440D42DC48495A</v>
       </c>
     </row>
     <row r="12" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="N12" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>9a65efe5-39ca-37ca-a6e5-f765bf78910d-012</v>
+        <v>afac811c-5816-8ca9-6c6d-956459320876-012</v>
       </c>
       <c r="O12" s="116" t="str">
         <f t="shared" si="19"/>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="Q12" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>9a65efe5-39ca-37ca-a6e5-f765bf78910d-012</v>
+        <v>afac811c-5816-8ca9-6c6d-956459320876-012</v>
       </c>
       <c r="R12" s="117">
         <f t="shared" si="26"/>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="AC12" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB9A65EFE539CA37CAA</v>
+        <v>BDBAFAC811C58168CA96</v>
       </c>
       <c r="AD12" s="117" t="str">
         <f t="shared" si="29"/>
@@ -6819,14 +6819,14 @@
       </c>
       <c r="AI12" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>9a65efe5-39ca-37ca-a6e5-f765bf78910d-012</v>
+        <v>afac811c-5816-8ca9-6c6d-956459320876-012</v>
       </c>
       <c r="AJ12" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK12" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>9a65efe5-39ca-37ca-a6e5-f765bf78910d-012</v>
+        <v>afac811c-5816-8ca9-6c6d-956459320876-012</v>
       </c>
       <c r="AL12" s="117">
         <f t="shared" si="9"/>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="AZ12" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB9A65EFE539CA37CAA</v>
+        <v>BDBAFAC811C58168CA96</v>
       </c>
     </row>
     <row r="13" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="N13" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>78894672-8190-5270-673e-5689c814265b-013</v>
+        <v>9e336049-9fce-26ea-89f2-e4d40cf1944c-013</v>
       </c>
       <c r="O13" s="116" t="str">
         <f t="shared" si="19"/>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="Q13" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>78894672-8190-5270-673e-5689c814265b-013</v>
+        <v>9e336049-9fce-26ea-89f2-e4d40cf1944c-013</v>
       </c>
       <c r="R13" s="117">
         <f t="shared" si="26"/>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="AC13" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB78894672819052706</v>
+        <v>BDB9E3360499FCE26EA8</v>
       </c>
       <c r="AD13" s="117" t="str">
         <f t="shared" si="29"/>
@@ -6986,14 +6986,14 @@
       </c>
       <c r="AI13" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>78894672-8190-5270-673e-5689c814265b-013</v>
+        <v>9e336049-9fce-26ea-89f2-e4d40cf1944c-013</v>
       </c>
       <c r="AJ13" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK13" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>78894672-8190-5270-673e-5689c814265b-013</v>
+        <v>9e336049-9fce-26ea-89f2-e4d40cf1944c-013</v>
       </c>
       <c r="AL13" s="117">
         <f t="shared" si="9"/>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="AZ13" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB78894672819052706</v>
+        <v>BDB9E3360499FCE26EA8</v>
       </c>
     </row>
     <row r="14" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="N14" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>54ca4ce8-0c86-0936-70e9-10af864191c5-014</v>
+        <v>555f35ac-2be8-481f-22fa-114b655d54d6-014</v>
       </c>
       <c r="O14" s="116" t="str">
         <f t="shared" si="19"/>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="Q14" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>54ca4ce8-0c86-0936-70e9-10af864191c5-014</v>
+        <v>555f35ac-2be8-481f-22fa-114b655d54d6-014</v>
       </c>
       <c r="R14" s="117">
         <f t="shared" si="26"/>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="AC14" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB54CA4CE80C8609367</v>
+        <v>BDB555F35AC2BE8481F2</v>
       </c>
       <c r="AD14" s="117" t="str">
         <f t="shared" si="29"/>
@@ -7159,14 +7159,14 @@
       </c>
       <c r="AI14" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>54ca4ce8-0c86-0936-70e9-10af864191c5-014</v>
+        <v>555f35ac-2be8-481f-22fa-114b655d54d6-014</v>
       </c>
       <c r="AJ14" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK14" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>54ca4ce8-0c86-0936-70e9-10af864191c5-014</v>
+        <v>555f35ac-2be8-481f-22fa-114b655d54d6-014</v>
       </c>
       <c r="AL14" s="117">
         <f t="shared" si="9"/>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="AZ14" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB54CA4CE80C8609367</v>
+        <v>BDB555F35AC2BE8481F2</v>
       </c>
     </row>
     <row r="15" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="N15" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>31f1ed0d-87c8-6e79-8894-170d781b7fb8-015</v>
+        <v>b89d494b-1858-5201-83e1-63829fe4345f-015</v>
       </c>
       <c r="O15" s="116" t="str">
         <f t="shared" si="19"/>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="Q15" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>31f1ed0d-87c8-6e79-8894-170d781b7fb8-015</v>
+        <v>b89d494b-1858-5201-83e1-63829fe4345f-015</v>
       </c>
       <c r="R15" s="117">
         <f t="shared" si="26"/>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="AC15" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB31F1ED0D87C86E798</v>
+        <v>BDBB89D494B185852018</v>
       </c>
       <c r="AD15" s="117" t="str">
         <f t="shared" si="29"/>
@@ -7336,14 +7336,14 @@
       </c>
       <c r="AI15" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>31f1ed0d-87c8-6e79-8894-170d781b7fb8-015</v>
+        <v>b89d494b-1858-5201-83e1-63829fe4345f-015</v>
       </c>
       <c r="AJ15" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK15" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>31f1ed0d-87c8-6e79-8894-170d781b7fb8-015</v>
+        <v>b89d494b-1858-5201-83e1-63829fe4345f-015</v>
       </c>
       <c r="AL15" s="117">
         <f t="shared" si="9"/>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="AZ15" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB31F1ED0D87C86E798</v>
+        <v>BDBB89D494B185852018</v>
       </c>
     </row>
     <row r="16" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="N16" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>081542cd-862b-2474-3835-629e21d3a18f-016</v>
+        <v>917ebed3-608a-8dd8-7c86-3fbc9a4c3d10-016</v>
       </c>
       <c r="O16" s="116" t="str">
         <f t="shared" si="19"/>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="Q16" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>081542cd-862b-2474-3835-629e21d3a18f-016</v>
+        <v>917ebed3-608a-8dd8-7c86-3fbc9a4c3d10-016</v>
       </c>
       <c r="R16" s="117">
         <f t="shared" si="26"/>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="AC16" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB081542CD862B24743</v>
+        <v>BDB917EBED3608A8DD87</v>
       </c>
       <c r="AD16" s="117" t="str">
         <f t="shared" si="29"/>
@@ -7513,14 +7513,14 @@
       </c>
       <c r="AI16" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>081542cd-862b-2474-3835-629e21d3a18f-016</v>
+        <v>917ebed3-608a-8dd8-7c86-3fbc9a4c3d10-016</v>
       </c>
       <c r="AJ16" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK16" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>081542cd-862b-2474-3835-629e21d3a18f-016</v>
+        <v>917ebed3-608a-8dd8-7c86-3fbc9a4c3d10-016</v>
       </c>
       <c r="AL16" s="117">
         <f t="shared" si="9"/>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="AZ16" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB081542CD862B24743</v>
+        <v>BDB917EBED3608A8DD87</v>
       </c>
     </row>
     <row r="17" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="N17" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>2390eba1-1369-3515-516f-f7567bd58fa7-017</v>
+        <v>a233701e-4cf6-78c8-7914-bca09101163e-017</v>
       </c>
       <c r="O17" s="116" t="str">
         <f t="shared" si="19"/>
@@ -7630,7 +7630,7 @@
       </c>
       <c r="Q17" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>2390eba1-1369-3515-516f-f7567bd58fa7-017</v>
+        <v>a233701e-4cf6-78c8-7914-bca09101163e-017</v>
       </c>
       <c r="R17" s="117">
         <f t="shared" si="26"/>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="AC17" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB2390EBA1136935155</v>
+        <v>BDBA233701E4CF678C87</v>
       </c>
       <c r="AD17" s="117" t="str">
         <f t="shared" si="29"/>
@@ -7690,14 +7690,14 @@
       </c>
       <c r="AI17" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2390eba1-1369-3515-516f-f7567bd58fa7-017</v>
+        <v>a233701e-4cf6-78c8-7914-bca09101163e-017</v>
       </c>
       <c r="AJ17" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK17" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2390eba1-1369-3515-516f-f7567bd58fa7-017</v>
+        <v>a233701e-4cf6-78c8-7914-bca09101163e-017</v>
       </c>
       <c r="AL17" s="117">
         <f t="shared" si="9"/>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="AZ17" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB2390EBA1136935155</v>
+        <v>BDBA233701E4CF678C87</v>
       </c>
     </row>
     <row r="18" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="N18" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>4a46467b-9f32-7230-3db4-67631cb5896b-018</v>
+        <v>be5fb0a5-8eae-9e1b-7d5d-34979c6505df-018</v>
       </c>
       <c r="O18" s="116" t="str">
         <f t="shared" si="19"/>
@@ -7807,7 +7807,7 @@
       </c>
       <c r="Q18" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>4a46467b-9f32-7230-3db4-67631cb5896b-018</v>
+        <v>be5fb0a5-8eae-9e1b-7d5d-34979c6505df-018</v>
       </c>
       <c r="R18" s="117">
         <f t="shared" si="26"/>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="AC18" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB4A46467B9F3272303</v>
+        <v>BDBBE5FB0A58EAE9E1B7</v>
       </c>
       <c r="AD18" s="117" t="str">
         <f t="shared" si="29"/>
@@ -7867,14 +7867,14 @@
       </c>
       <c r="AI18" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>4a46467b-9f32-7230-3db4-67631cb5896b-018</v>
+        <v>be5fb0a5-8eae-9e1b-7d5d-34979c6505df-018</v>
       </c>
       <c r="AJ18" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK18" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>4a46467b-9f32-7230-3db4-67631cb5896b-018</v>
+        <v>be5fb0a5-8eae-9e1b-7d5d-34979c6505df-018</v>
       </c>
       <c r="AL18" s="117">
         <f t="shared" si="9"/>
@@ -7928,7 +7928,7 @@
       </c>
       <c r="AZ18" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDB4A46467B9F3272303</v>
+        <v>BDBBE5FB0A58EAE9E1B7</v>
       </c>
     </row>
     <row r="19" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="N19" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>aa0c97da-122c-1797-02c8-ac29a54e1159-019</v>
+        <v>e9b30980-99fd-2671-2e51-5ca7d13752e9-019</v>
       </c>
       <c r="O19" s="116" t="str">
         <f t="shared" si="19"/>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="Q19" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>aa0c97da-122c-1797-02c8-ac29a54e1159-019</v>
+        <v>e9b30980-99fd-2671-2e51-5ca7d13752e9-019</v>
       </c>
       <c r="R19" s="117">
         <f t="shared" si="26"/>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="AC19" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBAA0C97DA122C17970</v>
+        <v>BDBE9B3098099FD26712</v>
       </c>
       <c r="AD19" s="117" t="str">
         <f t="shared" si="29"/>
@@ -8044,14 +8044,14 @@
       </c>
       <c r="AI19" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>aa0c97da-122c-1797-02c8-ac29a54e1159-019</v>
+        <v>e9b30980-99fd-2671-2e51-5ca7d13752e9-019</v>
       </c>
       <c r="AJ19" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK19" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>aa0c97da-122c-1797-02c8-ac29a54e1159-019</v>
+        <v>e9b30980-99fd-2671-2e51-5ca7d13752e9-019</v>
       </c>
       <c r="AL19" s="117">
         <f t="shared" si="9"/>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="AZ19" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBAA0C97DA122C17970</v>
+        <v>BDBE9B3098099FD26712</v>
       </c>
     </row>
     <row r="20" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="N20" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>b63eb73d-1b26-7c78-4e55-b5b89a3b0e2f-020</v>
+        <v>e285b084-4706-9fe1-80ee-30497f60280d-020</v>
       </c>
       <c r="O20" s="116" t="str">
         <f t="shared" si="19"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="Q20" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>b63eb73d-1b26-7c78-4e55-b5b89a3b0e2f-020</v>
+        <v>e285b084-4706-9fe1-80ee-30497f60280d-020</v>
       </c>
       <c r="R20" s="117">
         <f t="shared" si="26"/>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="AC20" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBB63EB73D1B267C784</v>
+        <v>BDBE285B08447069FE18</v>
       </c>
       <c r="AD20" s="117" t="str">
         <f t="shared" si="29"/>
@@ -8221,14 +8221,14 @@
       </c>
       <c r="AI20" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>b63eb73d-1b26-7c78-4e55-b5b89a3b0e2f-020</v>
+        <v>e285b084-4706-9fe1-80ee-30497f60280d-020</v>
       </c>
       <c r="AJ20" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK20" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>b63eb73d-1b26-7c78-4e55-b5b89a3b0e2f-020</v>
+        <v>e285b084-4706-9fe1-80ee-30497f60280d-020</v>
       </c>
       <c r="AL20" s="117">
         <f t="shared" si="9"/>
@@ -8282,7 +8282,7 @@
       </c>
       <c r="AZ20" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBB63EB73D1B267C784</v>
+        <v>BDBE285B08447069FE18</v>
       </c>
     </row>
     <row r="21" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="N21" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>c59997d9-17b4-037f-5eb7-ebcd8da5a633-021</v>
+        <v>de476ad3-93ec-7a7d-2ef6-100e97963ad3-021</v>
       </c>
       <c r="O21" s="116" t="str">
         <f t="shared" si="19"/>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="Q21" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>c59997d9-17b4-037f-5eb7-ebcd8da5a633-021</v>
+        <v>de476ad3-93ec-7a7d-2ef6-100e97963ad3-021</v>
       </c>
       <c r="R21" s="117">
         <f t="shared" si="26"/>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="AC21" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBC59997D917B4037F5</v>
+        <v>BDBDE476AD393EC7A7D2</v>
       </c>
       <c r="AD21" s="117" t="str">
         <f t="shared" si="29"/>
@@ -8398,14 +8398,14 @@
       </c>
       <c r="AI21" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>c59997d9-17b4-037f-5eb7-ebcd8da5a633-021</v>
+        <v>de476ad3-93ec-7a7d-2ef6-100e97963ad3-021</v>
       </c>
       <c r="AJ21" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK21" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>c59997d9-17b4-037f-5eb7-ebcd8da5a633-021</v>
+        <v>de476ad3-93ec-7a7d-2ef6-100e97963ad3-021</v>
       </c>
       <c r="AL21" s="117">
         <f t="shared" si="9"/>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="AZ21" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBC59997D917B4037F5</v>
+        <v>BDBDE476AD393EC7A7D2</v>
       </c>
     </row>
     <row r="22" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="N22" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>dce7e12e-1001-03a8-9e4a-c1d37e7a43f0-022</v>
+        <v>da339055-5dfa-1472-a090-79a367886264-022</v>
       </c>
       <c r="O22" s="116" t="str">
         <f t="shared" si="19"/>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="Q22" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>dce7e12e-1001-03a8-9e4a-c1d37e7a43f0-022</v>
+        <v>da339055-5dfa-1472-a090-79a367886264-022</v>
       </c>
       <c r="R22" s="117">
         <f t="shared" si="26"/>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="AC22" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBDCE7E12E100103A89</v>
+        <v>BDBDA3390555DFA1472A</v>
       </c>
       <c r="AD22" s="117" t="str">
         <f t="shared" si="29"/>
@@ -8575,14 +8575,14 @@
       </c>
       <c r="AI22" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>dce7e12e-1001-03a8-9e4a-c1d37e7a43f0-022</v>
+        <v>da339055-5dfa-1472-a090-79a367886264-022</v>
       </c>
       <c r="AJ22" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK22" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>dce7e12e-1001-03a8-9e4a-c1d37e7a43f0-022</v>
+        <v>da339055-5dfa-1472-a090-79a367886264-022</v>
       </c>
       <c r="AL22" s="117">
         <f t="shared" si="9"/>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="AZ22" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBDCE7E12E100103A89</v>
+        <v>BDBDA3390555DFA1472A</v>
       </c>
     </row>
     <row r="23" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="N23" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>b8d45375-09b0-711b-9b8f-980c167a591a-023</v>
+        <v>0607ba76-1e3d-a269-9f0d-1231de6b733a-023</v>
       </c>
       <c r="O23" s="116" t="str">
         <f t="shared" si="19"/>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="Q23" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>b8d45375-09b0-711b-9b8f-980c167a591a-023</v>
+        <v>0607ba76-1e3d-a269-9f0d-1231de6b733a-023</v>
       </c>
       <c r="R23" s="117">
         <f t="shared" si="26"/>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="AC23" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBB8D4537509B0711B9</v>
+        <v>BDB0607BA761E3DA2699</v>
       </c>
       <c r="AD23" s="117" t="str">
         <f t="shared" si="29"/>
@@ -8752,14 +8752,14 @@
       </c>
       <c r="AI23" s="116" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>b8d45375-09b0-711b-9b8f-980c167a591a-023</v>
+        <v>0607ba76-1e3d-a269-9f0d-1231de6b733a-023</v>
       </c>
       <c r="AJ23" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK23" s="116" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>b8d45375-09b0-711b-9b8f-980c167a591a-023</v>
+        <v>0607ba76-1e3d-a269-9f0d-1231de6b733a-023</v>
       </c>
       <c r="AL23" s="117">
         <f t="shared" si="9"/>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="AZ23" s="116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BDBB8D4537509B0711B9</v>
+        <v>BDB0607BA761E3DA2699</v>
       </c>
     </row>
     <row r="24" spans="1:52" s="169" customFormat="1" x14ac:dyDescent="0.25">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="N24" s="170" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>23d633a4-8087-283d-23b3-386cb6ec6971-024</v>
+        <v>72157eda-9380-5ed1-6f1b-1f0e672a89e9-024</v>
       </c>
       <c r="O24" s="170"/>
       <c r="P24" s="169" t="str">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="Q24" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>23d633a4-8087-283d-23b3-386cb6ec6971-024</v>
+        <v>72157eda-9380-5ed1-6f1b-1f0e672a89e9-024</v>
       </c>
       <c r="R24" s="117">
         <f t="shared" si="26"/>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="AC24" s="170" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB23D633A48087283D2</v>
+        <v>BDB72157EDA93805ED16</v>
       </c>
       <c r="AD24" s="117" t="str">
         <f t="shared" si="29"/>
@@ -8925,14 +8925,14 @@
       </c>
       <c r="AI24" s="170" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>23d633a4-8087-283d-23b3-386cb6ec6971-024</v>
+        <v>72157eda-9380-5ed1-6f1b-1f0e672a89e9-024</v>
       </c>
       <c r="AJ24" s="169" t="s">
         <v>76</v>
       </c>
       <c r="AK24" s="170" t="str">
         <f ca="1">Q25</f>
-        <v>2417fe96-7208-8bdf-4e47-68fdaba89e6f-025</v>
+        <v>90201047-60af-6716-8de9-ec8114923fbb-025</v>
       </c>
       <c r="AL24" s="169">
         <f>R24</f>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="AZ24" s="170" t="str">
         <f ca="1">AC24</f>
-        <v>BDB23D633A48087283D2</v>
+        <v>BDB72157EDA93805ED16</v>
       </c>
     </row>
     <row r="25" spans="1:52" s="169" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -9024,7 +9024,7 @@
       </c>
       <c r="N25" s="170" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>2417fe96-7208-8bdf-4e47-68fdaba89e6f-025</v>
+        <v>90201047-60af-6716-8de9-ec8114923fbb-025</v>
       </c>
       <c r="O25" s="116" t="str">
         <f t="shared" ref="O25:O50" si="37">LEFT(LEFT(W25,3)&amp;"."&amp;SUBSTITUTE(Y25,"-","")&amp;"."&amp;U25&amp;"0000000000000",20)</f>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="Q25" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>2417fe96-7208-8bdf-4e47-68fdaba89e6f-025</v>
+        <v>90201047-60af-6716-8de9-ec8114923fbb-025</v>
       </c>
       <c r="R25" s="117">
         <f t="shared" si="26"/>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="AC25" s="170" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB2417FE9672088BDF4</v>
+        <v>BDB9020104760AF67168</v>
       </c>
       <c r="AD25" s="117" t="str">
         <f t="shared" si="29"/>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="N26" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>6a964376-1115-5f49-2622-1b69f2971664-026</v>
+        <v>e2072f6b-3207-79e1-5448-43e0620f0007-026</v>
       </c>
       <c r="O26" s="116" t="str">
         <f t="shared" si="37"/>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="Q26" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>6a964376-1115-5f49-2622-1b69f2971664-026</v>
+        <v>e2072f6b-3207-79e1-5448-43e0620f0007-026</v>
       </c>
       <c r="R26" s="117">
         <f t="shared" si="26"/>
@@ -9203,7 +9203,7 @@
       </c>
       <c r="AC26" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB6A96437611155F492</v>
+        <v>BDBE2072F6B320779E15</v>
       </c>
       <c r="AD26" s="117" t="str">
         <f t="shared" si="29"/>
@@ -9215,14 +9215,14 @@
       </c>
       <c r="AI26" s="116" t="str">
         <f t="shared" ref="AI26:AI57" ca="1" si="39">N26</f>
-        <v>6a964376-1115-5f49-2622-1b69f2971664-026</v>
+        <v>e2072f6b-3207-79e1-5448-43e0620f0007-026</v>
       </c>
       <c r="AJ26" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK26" s="116" t="str">
         <f t="shared" ref="AK26:AK51" ca="1" si="40">Q26</f>
-        <v>6a964376-1115-5f49-2622-1b69f2971664-026</v>
+        <v>e2072f6b-3207-79e1-5448-43e0620f0007-026</v>
       </c>
       <c r="AL26" s="117">
         <f t="shared" ref="AL26:AL51" si="41">R26</f>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="AZ26" s="116" t="str">
         <f t="shared" ref="AZ26:AZ51" ca="1" si="51">AC26</f>
-        <v>BDB6A96437611155F492</v>
+        <v>BDBE2072F6B320779E15</v>
       </c>
     </row>
     <row r="27" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="N27" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>91cda290-053c-03ff-56f8-91bcc6c55cf2-027</v>
+        <v>2fc843cc-9da2-762f-2006-3daa889e4ae6-027</v>
       </c>
       <c r="O27" s="116" t="str">
         <f t="shared" si="37"/>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="Q27" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>91cda290-053c-03ff-56f8-91bcc6c55cf2-027</v>
+        <v>2fc843cc-9da2-762f-2006-3daa889e4ae6-027</v>
       </c>
       <c r="R27" s="117">
         <f t="shared" si="26"/>
@@ -9380,7 +9380,7 @@
       </c>
       <c r="AC27" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB91CDA290053C03FF5</v>
+        <v>BDB2FC843CC9DA2762F2</v>
       </c>
       <c r="AD27" s="117" t="str">
         <f t="shared" si="29"/>
@@ -9392,14 +9392,14 @@
       </c>
       <c r="AI27" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>91cda290-053c-03ff-56f8-91bcc6c55cf2-027</v>
+        <v>2fc843cc-9da2-762f-2006-3daa889e4ae6-027</v>
       </c>
       <c r="AJ27" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK27" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>91cda290-053c-03ff-56f8-91bcc6c55cf2-027</v>
+        <v>2fc843cc-9da2-762f-2006-3daa889e4ae6-027</v>
       </c>
       <c r="AL27" s="117">
         <f t="shared" si="41"/>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="AZ27" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB91CDA290053C03FF5</v>
+        <v>BDB2FC843CC9DA2762F2</v>
       </c>
     </row>
     <row r="28" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -9497,7 +9497,7 @@
       </c>
       <c r="N28" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>d1838453-8238-9eda-1612-81234c2e3518-028</v>
+        <v>a6af37dc-0670-1659-a001-2606f5171585-028</v>
       </c>
       <c r="O28" s="116" t="str">
         <f t="shared" si="37"/>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="Q28" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>d1838453-8238-9eda-1612-81234c2e3518-028</v>
+        <v>a6af37dc-0670-1659-a001-2606f5171585-028</v>
       </c>
       <c r="R28" s="117">
         <f t="shared" si="26"/>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="AC28" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBD183845382389EDA1</v>
+        <v>BDBA6AF37DC06701659A</v>
       </c>
       <c r="AD28" s="117" t="str">
         <f t="shared" si="29"/>
@@ -9569,14 +9569,14 @@
       </c>
       <c r="AI28" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>d1838453-8238-9eda-1612-81234c2e3518-028</v>
+        <v>a6af37dc-0670-1659-a001-2606f5171585-028</v>
       </c>
       <c r="AJ28" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK28" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>d1838453-8238-9eda-1612-81234c2e3518-028</v>
+        <v>a6af37dc-0670-1659-a001-2606f5171585-028</v>
       </c>
       <c r="AL28" s="117">
         <f t="shared" si="41"/>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="AZ28" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBD183845382389EDA1</v>
+        <v>BDBA6AF37DC06701659A</v>
       </c>
     </row>
     <row r="29" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -9674,7 +9674,7 @@
       </c>
       <c r="N29" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1bbe817a-3dc3-5158-a227-432f785488fb-029</v>
+        <v>f54e62db-8f7f-4b5e-9b76-4143804f4a70-029</v>
       </c>
       <c r="O29" s="116" t="str">
         <f t="shared" si="37"/>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="Q29" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>1bbe817a-3dc3-5158-a227-432f785488fb-029</v>
+        <v>f54e62db-8f7f-4b5e-9b76-4143804f4a70-029</v>
       </c>
       <c r="R29" s="117">
         <f t="shared" si="26"/>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="AC29" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB1BBE817A3DC35158A</v>
+        <v>BDBF54E62DB8F7F4B5E9</v>
       </c>
       <c r="AD29" s="117" t="str">
         <f t="shared" si="29"/>
@@ -9746,14 +9746,14 @@
       </c>
       <c r="AI29" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>1bbe817a-3dc3-5158-a227-432f785488fb-029</v>
+        <v>f54e62db-8f7f-4b5e-9b76-4143804f4a70-029</v>
       </c>
       <c r="AJ29" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK29" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>1bbe817a-3dc3-5158-a227-432f785488fb-029</v>
+        <v>f54e62db-8f7f-4b5e-9b76-4143804f4a70-029</v>
       </c>
       <c r="AL29" s="117">
         <f t="shared" si="41"/>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="AZ29" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB1BBE817A3DC35158A</v>
+        <v>BDBF54E62DB8F7F4B5E9</v>
       </c>
     </row>
     <row r="30" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="N30" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>7912acc6-8e41-5f29-3f30-11337a151963-030</v>
+        <v>e771c6c6-9659-3482-4df1-89d58843189d-030</v>
       </c>
       <c r="O30" s="116" t="str">
         <f t="shared" si="37"/>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="Q30" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>7912acc6-8e41-5f29-3f30-11337a151963-030</v>
+        <v>e771c6c6-9659-3482-4df1-89d58843189d-030</v>
       </c>
       <c r="R30" s="117">
         <f t="shared" si="26"/>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="AC30" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB7912ACC68E415F293</v>
+        <v>BDBE771C6C6965934824</v>
       </c>
       <c r="AD30" s="117" t="str">
         <f t="shared" si="29"/>
@@ -9923,14 +9923,14 @@
       </c>
       <c r="AI30" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>7912acc6-8e41-5f29-3f30-11337a151963-030</v>
+        <v>e771c6c6-9659-3482-4df1-89d58843189d-030</v>
       </c>
       <c r="AJ30" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK30" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>7912acc6-8e41-5f29-3f30-11337a151963-030</v>
+        <v>e771c6c6-9659-3482-4df1-89d58843189d-030</v>
       </c>
       <c r="AL30" s="117">
         <f t="shared" si="41"/>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="AZ30" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB7912ACC68E415F293</v>
+        <v>BDBE771C6C6965934824</v>
       </c>
     </row>
     <row r="31" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="N31" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>ae307f6a-a449-1357-52b1-694d4e2b3865-031</v>
+        <v>9e6ee75c-54a0-972f-a2fc-b83ed9ca823b-031</v>
       </c>
       <c r="O31" s="116" t="str">
         <f t="shared" si="37"/>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="Q31" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>ae307f6a-a449-1357-52b1-694d4e2b3865-031</v>
+        <v>9e6ee75c-54a0-972f-a2fc-b83ed9ca823b-031</v>
       </c>
       <c r="R31" s="117">
         <f t="shared" si="26"/>
@@ -10088,7 +10088,7 @@
       </c>
       <c r="AC31" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBAE307F6AA44913575</v>
+        <v>BDB9E6EE75C54A0972FA</v>
       </c>
       <c r="AD31" s="117" t="str">
         <f t="shared" si="29"/>
@@ -10100,14 +10100,14 @@
       </c>
       <c r="AI31" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>ae307f6a-a449-1357-52b1-694d4e2b3865-031</v>
+        <v>9e6ee75c-54a0-972f-a2fc-b83ed9ca823b-031</v>
       </c>
       <c r="AJ31" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK31" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>ae307f6a-a449-1357-52b1-694d4e2b3865-031</v>
+        <v>9e6ee75c-54a0-972f-a2fc-b83ed9ca823b-031</v>
       </c>
       <c r="AL31" s="117">
         <f t="shared" si="41"/>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="AZ31" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBAE307F6AA44913575</v>
+        <v>BDB9E6EE75C54A0972FA</v>
       </c>
     </row>
     <row r="32" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10205,7 +10205,7 @@
       </c>
       <c r="N32" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>966ed0dd-a3bb-3617-8b32-c6d5ba052446-032</v>
+        <v>aee0b60a-a034-3118-0443-d8c9b32c198a-032</v>
       </c>
       <c r="O32" s="116" t="str">
         <f t="shared" si="37"/>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="Q32" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>966ed0dd-a3bb-3617-8b32-c6d5ba052446-032</v>
+        <v>aee0b60a-a034-3118-0443-d8c9b32c198a-032</v>
       </c>
       <c r="R32" s="117">
         <f t="shared" si="26"/>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="AC32" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDB966ED0DDA3BB36178</v>
+        <v>BDBAEE0B60AA03431180</v>
       </c>
       <c r="AD32" s="117" t="str">
         <f t="shared" si="29"/>
@@ -10277,14 +10277,14 @@
       </c>
       <c r="AI32" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>966ed0dd-a3bb-3617-8b32-c6d5ba052446-032</v>
+        <v>aee0b60a-a034-3118-0443-d8c9b32c198a-032</v>
       </c>
       <c r="AJ32" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK32" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>966ed0dd-a3bb-3617-8b32-c6d5ba052446-032</v>
+        <v>aee0b60a-a034-3118-0443-d8c9b32c198a-032</v>
       </c>
       <c r="AL32" s="117">
         <f t="shared" si="41"/>
@@ -10338,7 +10338,7 @@
       </c>
       <c r="AZ32" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB966ED0DDA3BB36178</v>
+        <v>BDBAEE0B60AA03431180</v>
       </c>
     </row>
     <row r="33" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10382,7 +10382,7 @@
       </c>
       <c r="N33" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>d96ceae4-3b38-0614-2173-c238c9282a27-033</v>
+        <v>bfbce642-3d5e-9069-559b-e35b9092980b-033</v>
       </c>
       <c r="O33" s="116" t="str">
         <f t="shared" si="37"/>
@@ -10394,7 +10394,7 @@
       </c>
       <c r="Q33" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>d96ceae4-3b38-0614-2173-c238c9282a27-033</v>
+        <v>bfbce642-3d5e-9069-559b-e35b9092980b-033</v>
       </c>
       <c r="R33" s="117">
         <f t="shared" si="26"/>
@@ -10442,7 +10442,7 @@
       </c>
       <c r="AC33" s="116" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BDBD96CEAE43B3806142</v>
+        <v>BDBBFBCE6423D5E90695</v>
       </c>
       <c r="AD33" s="117" t="str">
         <f t="shared" si="29"/>
@@ -10454,14 +10454,14 @@
       </c>
       <c r="AI33" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>d96ceae4-3b38-0614-2173-c238c9282a27-033</v>
+        <v>bfbce642-3d5e-9069-559b-e35b9092980b-033</v>
       </c>
       <c r="AJ33" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK33" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>d96ceae4-3b38-0614-2173-c238c9282a27-033</v>
+        <v>bfbce642-3d5e-9069-559b-e35b9092980b-033</v>
       </c>
       <c r="AL33" s="117">
         <f t="shared" si="41"/>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="AZ33" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBD96CEAE43B3806142</v>
+        <v>BDBBFBCE6423D5E90695</v>
       </c>
     </row>
     <row r="34" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="N34" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>5712918d-107c-4351-504f-a4c690c3760a-034</v>
+        <v>f95ba3d4-5142-88ac-96a1-8abc73e323cc-034</v>
       </c>
       <c r="O34" s="116" t="str">
         <f t="shared" si="37"/>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="Q34" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>5712918d-107c-4351-504f-a4c690c3760a-034</v>
+        <v>f95ba3d4-5142-88ac-96a1-8abc73e323cc-034</v>
       </c>
       <c r="R34" s="117">
         <f t="shared" si="26"/>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="AC34" s="116" t="str">
         <f t="shared" ref="AC34:AC65" ca="1" si="58">UPPER(LEFT(U34&amp;SUBSTITUTE(N34,"-",""),20))</f>
-        <v>BDB5712918D107C43515</v>
+        <v>BDBF95BA3D4514288AC9</v>
       </c>
       <c r="AD34" s="117" t="str">
         <f t="shared" si="29"/>
@@ -10631,14 +10631,14 @@
       </c>
       <c r="AI34" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>5712918d-107c-4351-504f-a4c690c3760a-034</v>
+        <v>f95ba3d4-5142-88ac-96a1-8abc73e323cc-034</v>
       </c>
       <c r="AJ34" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK34" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>5712918d-107c-4351-504f-a4c690c3760a-034</v>
+        <v>f95ba3d4-5142-88ac-96a1-8abc73e323cc-034</v>
       </c>
       <c r="AL34" s="117">
         <f t="shared" si="41"/>
@@ -10692,7 +10692,7 @@
       </c>
       <c r="AZ34" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB5712918D107C43515</v>
+        <v>BDBF95BA3D4514288AC9</v>
       </c>
     </row>
     <row r="35" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="N35" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>81a02c0d-391d-3eee-4e09-69390d1956e5-035</v>
+        <v>4b3bcfef-6032-3c62-7709-cf48dc49a2a8-035</v>
       </c>
       <c r="O35" s="116" t="str">
         <f t="shared" si="37"/>
@@ -10748,7 +10748,7 @@
       </c>
       <c r="Q35" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>81a02c0d-391d-3eee-4e09-69390d1956e5-035</v>
+        <v>4b3bcfef-6032-3c62-7709-cf48dc49a2a8-035</v>
       </c>
       <c r="R35" s="117">
         <f t="shared" si="26"/>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="AC35" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB81A02C0D391D3EEE4</v>
+        <v>BDB4B3BCFEF60323C627</v>
       </c>
       <c r="AD35" s="117" t="str">
         <f t="shared" si="29"/>
@@ -10808,14 +10808,14 @@
       </c>
       <c r="AI35" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>81a02c0d-391d-3eee-4e09-69390d1956e5-035</v>
+        <v>4b3bcfef-6032-3c62-7709-cf48dc49a2a8-035</v>
       </c>
       <c r="AJ35" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK35" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>81a02c0d-391d-3eee-4e09-69390d1956e5-035</v>
+        <v>4b3bcfef-6032-3c62-7709-cf48dc49a2a8-035</v>
       </c>
       <c r="AL35" s="117">
         <f t="shared" si="41"/>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="AZ35" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB81A02C0D391D3EEE4</v>
+        <v>BDB4B3BCFEF60323C627</v>
       </c>
     </row>
     <row r="36" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="N36" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>5662db84-26e7-5f79-139a-e67c87a33417-036</v>
+        <v>cd3b2d5a-40d8-1501-a58a-d92e7e930d4f-036</v>
       </c>
       <c r="O36" s="116" t="str">
         <f t="shared" si="37"/>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="Q36" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>5662db84-26e7-5f79-139a-e67c87a33417-036</v>
+        <v>cd3b2d5a-40d8-1501-a58a-d92e7e930d4f-036</v>
       </c>
       <c r="R36" s="117">
         <f t="shared" si="26"/>
@@ -10973,7 +10973,7 @@
       </c>
       <c r="AC36" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB5662DB8426E75F791</v>
+        <v>BDBCD3B2D5A40D81501A</v>
       </c>
       <c r="AD36" s="117" t="str">
         <f t="shared" si="29"/>
@@ -10985,14 +10985,14 @@
       </c>
       <c r="AI36" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>5662db84-26e7-5f79-139a-e67c87a33417-036</v>
+        <v>cd3b2d5a-40d8-1501-a58a-d92e7e930d4f-036</v>
       </c>
       <c r="AJ36" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK36" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>5662db84-26e7-5f79-139a-e67c87a33417-036</v>
+        <v>cd3b2d5a-40d8-1501-a58a-d92e7e930d4f-036</v>
       </c>
       <c r="AL36" s="117">
         <f t="shared" si="41"/>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="AZ36" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB5662DB8426E75F791</v>
+        <v>BDBCD3B2D5A40D81501A</v>
       </c>
     </row>
     <row r="37" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="N37" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>ec1f5196-6ea3-4132-1213-85676d853361-037</v>
+        <v>3a794c16-32ef-47aa-48c0-bf45fbb49b7a-037</v>
       </c>
       <c r="O37" s="116" t="str">
         <f t="shared" si="37"/>
@@ -11102,7 +11102,7 @@
       </c>
       <c r="Q37" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>ec1f5196-6ea3-4132-1213-85676d853361-037</v>
+        <v>3a794c16-32ef-47aa-48c0-bf45fbb49b7a-037</v>
       </c>
       <c r="R37" s="117">
         <f t="shared" si="26"/>
@@ -11150,7 +11150,7 @@
       </c>
       <c r="AC37" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBEC1F51966EA341321</v>
+        <v>BDB3A794C1632EF47AA4</v>
       </c>
       <c r="AD37" s="117" t="str">
         <f t="shared" si="29"/>
@@ -11162,14 +11162,14 @@
       </c>
       <c r="AI37" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>ec1f5196-6ea3-4132-1213-85676d853361-037</v>
+        <v>3a794c16-32ef-47aa-48c0-bf45fbb49b7a-037</v>
       </c>
       <c r="AJ37" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK37" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>ec1f5196-6ea3-4132-1213-85676d853361-037</v>
+        <v>3a794c16-32ef-47aa-48c0-bf45fbb49b7a-037</v>
       </c>
       <c r="AL37" s="117">
         <f t="shared" si="41"/>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="AZ37" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBEC1F51966EA341321</v>
+        <v>BDB3A794C1632EF47AA4</v>
       </c>
     </row>
     <row r="38" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="N38" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>71dce7ac-2308-209b-14aa-76491f36a5ff-038</v>
+        <v>b420e30b-09ac-2090-4f18-06c120d75c4a-038</v>
       </c>
       <c r="O38" s="116" t="str">
         <f t="shared" si="37"/>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="Q38" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>71dce7ac-2308-209b-14aa-76491f36a5ff-038</v>
+        <v>b420e30b-09ac-2090-4f18-06c120d75c4a-038</v>
       </c>
       <c r="R38" s="117">
         <f t="shared" si="26"/>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="AC38" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB71DCE7AC2308209B1</v>
+        <v>BDBB420E30B09AC20904</v>
       </c>
       <c r="AD38" s="117" t="str">
         <f t="shared" si="29"/>
@@ -11339,14 +11339,14 @@
       </c>
       <c r="AI38" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>71dce7ac-2308-209b-14aa-76491f36a5ff-038</v>
+        <v>b420e30b-09ac-2090-4f18-06c120d75c4a-038</v>
       </c>
       <c r="AJ38" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK38" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>71dce7ac-2308-209b-14aa-76491f36a5ff-038</v>
+        <v>b420e30b-09ac-2090-4f18-06c120d75c4a-038</v>
       </c>
       <c r="AL38" s="117">
         <f t="shared" si="41"/>
@@ -11400,7 +11400,7 @@
       </c>
       <c r="AZ38" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB71DCE7AC2308209B1</v>
+        <v>BDBB420E30B09AC20904</v>
       </c>
     </row>
     <row r="39" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -11444,7 +11444,7 @@
       </c>
       <c r="N39" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>cf319095-937f-a4d2-7137-8c0719cb37b7-039</v>
+        <v>4382d716-34ed-2186-0fd1-af8ef5407979-039</v>
       </c>
       <c r="O39" s="116" t="str">
         <f t="shared" si="37"/>
@@ -11456,7 +11456,7 @@
       </c>
       <c r="Q39" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>cf319095-937f-a4d2-7137-8c0719cb37b7-039</v>
+        <v>4382d716-34ed-2186-0fd1-af8ef5407979-039</v>
       </c>
       <c r="R39" s="117">
         <f t="shared" si="26"/>
@@ -11504,7 +11504,7 @@
       </c>
       <c r="AC39" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBCF319095937FA4D27</v>
+        <v>BDB4382D71634ED21860</v>
       </c>
       <c r="AD39" s="117" t="str">
         <f t="shared" si="29"/>
@@ -11516,14 +11516,14 @@
       </c>
       <c r="AI39" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>cf319095-937f-a4d2-7137-8c0719cb37b7-039</v>
+        <v>4382d716-34ed-2186-0fd1-af8ef5407979-039</v>
       </c>
       <c r="AJ39" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK39" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>cf319095-937f-a4d2-7137-8c0719cb37b7-039</v>
+        <v>4382d716-34ed-2186-0fd1-af8ef5407979-039</v>
       </c>
       <c r="AL39" s="117">
         <f t="shared" si="41"/>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="AZ39" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBCF319095937FA4D27</v>
+        <v>BDB4382D71634ED21860</v>
       </c>
     </row>
     <row r="40" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="N40" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>d902665c-7782-9f35-276f-c0294f6c33b3-040</v>
+        <v>f075a6c5-8e3f-8e82-a40c-2b65e9ca7715-040</v>
       </c>
       <c r="O40" s="116" t="str">
         <f t="shared" si="37"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="Q40" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>d902665c-7782-9f35-276f-c0294f6c33b3-040</v>
+        <v>f075a6c5-8e3f-8e82-a40c-2b65e9ca7715-040</v>
       </c>
       <c r="R40" s="117">
         <f t="shared" si="26"/>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="AC40" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBD902665C77829F352</v>
+        <v>BDBF075A6C58E3F8E82A</v>
       </c>
       <c r="AD40" s="117" t="str">
         <f t="shared" si="29"/>
@@ -11693,14 +11693,14 @@
       </c>
       <c r="AI40" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>d902665c-7782-9f35-276f-c0294f6c33b3-040</v>
+        <v>f075a6c5-8e3f-8e82-a40c-2b65e9ca7715-040</v>
       </c>
       <c r="AJ40" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK40" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>d902665c-7782-9f35-276f-c0294f6c33b3-040</v>
+        <v>f075a6c5-8e3f-8e82-a40c-2b65e9ca7715-040</v>
       </c>
       <c r="AL40" s="117">
         <f t="shared" si="41"/>
@@ -11754,7 +11754,7 @@
       </c>
       <c r="AZ40" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBD902665C77829F352</v>
+        <v>BDBF075A6C58E3F8E82A</v>
       </c>
     </row>
     <row r="41" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="N41" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>500a85cc-58f8-00d7-28e1-2d39a8b456fd-041</v>
+        <v>2a42fe98-792e-78d2-3a45-aaf163f3303b-041</v>
       </c>
       <c r="O41" s="116" t="str">
         <f t="shared" si="37"/>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="Q41" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>500a85cc-58f8-00d7-28e1-2d39a8b456fd-041</v>
+        <v>2a42fe98-792e-78d2-3a45-aaf163f3303b-041</v>
       </c>
       <c r="R41" s="117">
         <f t="shared" si="26"/>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="AC41" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB500A85CC58F800D72</v>
+        <v>BDB2A42FE98792E78D23</v>
       </c>
       <c r="AD41" s="117" t="str">
         <f t="shared" si="29"/>
@@ -11870,14 +11870,14 @@
       </c>
       <c r="AI41" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>500a85cc-58f8-00d7-28e1-2d39a8b456fd-041</v>
+        <v>2a42fe98-792e-78d2-3a45-aaf163f3303b-041</v>
       </c>
       <c r="AJ41" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK41" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>500a85cc-58f8-00d7-28e1-2d39a8b456fd-041</v>
+        <v>2a42fe98-792e-78d2-3a45-aaf163f3303b-041</v>
       </c>
       <c r="AL41" s="117">
         <f t="shared" si="41"/>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="AZ41" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB500A85CC58F800D72</v>
+        <v>BDB2A42FE98792E78D23</v>
       </c>
     </row>
     <row r="42" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -11975,7 +11975,7 @@
       </c>
       <c r="N42" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>31f029af-9e86-7879-7dcd-e7f10d9a9e22-042</v>
+        <v>5dd2a0ee-1e2a-7648-36be-906e3f772222-042</v>
       </c>
       <c r="O42" s="116" t="str">
         <f t="shared" si="37"/>
@@ -11987,7 +11987,7 @@
       </c>
       <c r="Q42" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>31f029af-9e86-7879-7dcd-e7f10d9a9e22-042</v>
+        <v>5dd2a0ee-1e2a-7648-36be-906e3f772222-042</v>
       </c>
       <c r="R42" s="117">
         <f t="shared" si="26"/>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="AC42" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB31F029AF9E8678797</v>
+        <v>BDB5DD2A0EE1E2A76483</v>
       </c>
       <c r="AD42" s="117" t="str">
         <f t="shared" si="29"/>
@@ -12047,14 +12047,14 @@
       </c>
       <c r="AI42" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>31f029af-9e86-7879-7dcd-e7f10d9a9e22-042</v>
+        <v>5dd2a0ee-1e2a-7648-36be-906e3f772222-042</v>
       </c>
       <c r="AJ42" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK42" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>31f029af-9e86-7879-7dcd-e7f10d9a9e22-042</v>
+        <v>5dd2a0ee-1e2a-7648-36be-906e3f772222-042</v>
       </c>
       <c r="AL42" s="117">
         <f t="shared" si="41"/>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="AZ42" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB31F029AF9E8678797</v>
+        <v>BDB5DD2A0EE1E2A76483</v>
       </c>
     </row>
     <row r="43" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="N43" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>555132cf-8745-5958-1ee1-591cd02d9f07-043</v>
+        <v>12e5c333-1cc3-1082-3127-7c15ec00a0e1-043</v>
       </c>
       <c r="O43" s="116" t="str">
         <f t="shared" si="37"/>
@@ -12164,7 +12164,7 @@
       </c>
       <c r="Q43" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>555132cf-8745-5958-1ee1-591cd02d9f07-043</v>
+        <v>12e5c333-1cc3-1082-3127-7c15ec00a0e1-043</v>
       </c>
       <c r="R43" s="117">
         <f t="shared" si="26"/>
@@ -12212,7 +12212,7 @@
       </c>
       <c r="AC43" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB555132CF874559581</v>
+        <v>BDB12E5C3331CC310823</v>
       </c>
       <c r="AD43" s="117" t="str">
         <f t="shared" si="29"/>
@@ -12224,14 +12224,14 @@
       </c>
       <c r="AI43" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>555132cf-8745-5958-1ee1-591cd02d9f07-043</v>
+        <v>12e5c333-1cc3-1082-3127-7c15ec00a0e1-043</v>
       </c>
       <c r="AJ43" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK43" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>555132cf-8745-5958-1ee1-591cd02d9f07-043</v>
+        <v>12e5c333-1cc3-1082-3127-7c15ec00a0e1-043</v>
       </c>
       <c r="AL43" s="117">
         <f t="shared" si="41"/>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="AZ43" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB555132CF874559581</v>
+        <v>BDB12E5C3331CC310823</v>
       </c>
     </row>
     <row r="44" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="N44" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>df4ea8f1-13eb-0716-277f-c7ec8cdb6a90-044</v>
+        <v>771d3002-a677-3828-8b76-6a25d392984d-044</v>
       </c>
       <c r="O44" s="116" t="str">
         <f t="shared" si="37"/>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="Q44" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>df4ea8f1-13eb-0716-277f-c7ec8cdb6a90-044</v>
+        <v>771d3002-a677-3828-8b76-6a25d392984d-044</v>
       </c>
       <c r="R44" s="117">
         <f t="shared" si="26"/>
@@ -12389,7 +12389,7 @@
       </c>
       <c r="AC44" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBDF4EA8F113EB07162</v>
+        <v>BDB771D3002A67738288</v>
       </c>
       <c r="AD44" s="117" t="str">
         <f t="shared" si="29"/>
@@ -12401,14 +12401,14 @@
       </c>
       <c r="AI44" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>df4ea8f1-13eb-0716-277f-c7ec8cdb6a90-044</v>
+        <v>771d3002-a677-3828-8b76-6a25d392984d-044</v>
       </c>
       <c r="AJ44" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK44" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>df4ea8f1-13eb-0716-277f-c7ec8cdb6a90-044</v>
+        <v>771d3002-a677-3828-8b76-6a25d392984d-044</v>
       </c>
       <c r="AL44" s="117">
         <f t="shared" si="41"/>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AZ44" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBDF4EA8F113EB07162</v>
+        <v>BDB771D3002A67738288</v>
       </c>
     </row>
     <row r="45" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -12506,7 +12506,7 @@
       </c>
       <c r="N45" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>b298135b-56f9-8e1e-827d-3c9217b76bcc-045</v>
+        <v>6eb41e3e-2c65-40d5-9ef1-68e72ca31460-045</v>
       </c>
       <c r="O45" s="116" t="str">
         <f t="shared" si="37"/>
@@ -12518,7 +12518,7 @@
       </c>
       <c r="Q45" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>b298135b-56f9-8e1e-827d-3c9217b76bcc-045</v>
+        <v>6eb41e3e-2c65-40d5-9ef1-68e72ca31460-045</v>
       </c>
       <c r="R45" s="117">
         <f t="shared" si="26"/>
@@ -12566,7 +12566,7 @@
       </c>
       <c r="AC45" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBB298135B56F98E1E8</v>
+        <v>BDB6EB41E3E2C6540D59</v>
       </c>
       <c r="AD45" s="117" t="str">
         <f t="shared" si="29"/>
@@ -12578,14 +12578,14 @@
       </c>
       <c r="AI45" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>b298135b-56f9-8e1e-827d-3c9217b76bcc-045</v>
+        <v>6eb41e3e-2c65-40d5-9ef1-68e72ca31460-045</v>
       </c>
       <c r="AJ45" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK45" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>b298135b-56f9-8e1e-827d-3c9217b76bcc-045</v>
+        <v>6eb41e3e-2c65-40d5-9ef1-68e72ca31460-045</v>
       </c>
       <c r="AL45" s="117">
         <f t="shared" si="41"/>
@@ -12639,7 +12639,7 @@
       </c>
       <c r="AZ45" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBB298135B56F98E1E8</v>
+        <v>BDB6EB41E3E2C6540D59</v>
       </c>
     </row>
     <row r="46" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="N46" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>4f7dd5ba-8d01-3a41-6090-90f017323294-046</v>
+        <v>162c2b93-4124-48cf-587b-3c1acd666f66-046</v>
       </c>
       <c r="O46" s="116" t="str">
         <f t="shared" si="37"/>
@@ -12695,7 +12695,7 @@
       </c>
       <c r="Q46" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>4f7dd5ba-8d01-3a41-6090-90f017323294-046</v>
+        <v>162c2b93-4124-48cf-587b-3c1acd666f66-046</v>
       </c>
       <c r="R46" s="117">
         <f t="shared" si="26"/>
@@ -12743,7 +12743,7 @@
       </c>
       <c r="AC46" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB4F7DD5BA8D013A416</v>
+        <v>BDB162C2B93412448CF5</v>
       </c>
       <c r="AD46" s="117" t="str">
         <f t="shared" si="29"/>
@@ -12755,14 +12755,14 @@
       </c>
       <c r="AI46" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>4f7dd5ba-8d01-3a41-6090-90f017323294-046</v>
+        <v>162c2b93-4124-48cf-587b-3c1acd666f66-046</v>
       </c>
       <c r="AJ46" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK46" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>4f7dd5ba-8d01-3a41-6090-90f017323294-046</v>
+        <v>162c2b93-4124-48cf-587b-3c1acd666f66-046</v>
       </c>
       <c r="AL46" s="117">
         <f t="shared" si="41"/>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="AZ46" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB4F7DD5BA8D013A416</v>
+        <v>BDB162C2B93412448CF5</v>
       </c>
     </row>
     <row r="47" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="N47" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>e6f4ae83-9982-8d84-835f-d1b433442afe-047</v>
+        <v>16b628f2-8d6e-895f-36d2-9c68b7705801-047</v>
       </c>
       <c r="O47" s="116" t="str">
         <f t="shared" si="37"/>
@@ -12872,7 +12872,7 @@
       </c>
       <c r="Q47" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>e6f4ae83-9982-8d84-835f-d1b433442afe-047</v>
+        <v>16b628f2-8d6e-895f-36d2-9c68b7705801-047</v>
       </c>
       <c r="R47" s="117">
         <f t="shared" si="26"/>
@@ -12920,7 +12920,7 @@
       </c>
       <c r="AC47" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBE6F4AE8399828D848</v>
+        <v>BDB16B628F28D6E895F3</v>
       </c>
       <c r="AD47" s="117" t="str">
         <f t="shared" si="29"/>
@@ -12932,14 +12932,14 @@
       </c>
       <c r="AI47" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>e6f4ae83-9982-8d84-835f-d1b433442afe-047</v>
+        <v>16b628f2-8d6e-895f-36d2-9c68b7705801-047</v>
       </c>
       <c r="AJ47" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK47" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>e6f4ae83-9982-8d84-835f-d1b433442afe-047</v>
+        <v>16b628f2-8d6e-895f-36d2-9c68b7705801-047</v>
       </c>
       <c r="AL47" s="117">
         <f t="shared" si="41"/>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="AZ47" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBE6F4AE8399828D848</v>
+        <v>BDB16B628F28D6E895F3</v>
       </c>
     </row>
     <row r="48" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -13037,7 +13037,7 @@
       </c>
       <c r="N48" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>c2847e16-3e04-4a03-1d96-9ac0794548b4-048</v>
+        <v>cee19780-a04d-576a-a527-3da65aea5d7b-048</v>
       </c>
       <c r="O48" s="116" t="str">
         <f t="shared" si="37"/>
@@ -13049,7 +13049,7 @@
       </c>
       <c r="Q48" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>c2847e16-3e04-4a03-1d96-9ac0794548b4-048</v>
+        <v>cee19780-a04d-576a-a527-3da65aea5d7b-048</v>
       </c>
       <c r="R48" s="117">
         <f t="shared" si="26"/>
@@ -13097,7 +13097,7 @@
       </c>
       <c r="AC48" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBC2847E163E044A031</v>
+        <v>BDBCEE19780A04D576AA</v>
       </c>
       <c r="AD48" s="117" t="str">
         <f t="shared" si="29"/>
@@ -13109,14 +13109,14 @@
       </c>
       <c r="AI48" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>c2847e16-3e04-4a03-1d96-9ac0794548b4-048</v>
+        <v>cee19780-a04d-576a-a527-3da65aea5d7b-048</v>
       </c>
       <c r="AJ48" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK48" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>c2847e16-3e04-4a03-1d96-9ac0794548b4-048</v>
+        <v>cee19780-a04d-576a-a527-3da65aea5d7b-048</v>
       </c>
       <c r="AL48" s="117">
         <f t="shared" si="41"/>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="AZ48" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBC2847E163E044A031</v>
+        <v>BDBCEE19780A04D576AA</v>
       </c>
     </row>
     <row r="49" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -13214,7 +13214,7 @@
       </c>
       <c r="N49" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>fbebc9d3-740e-0de9-3e47-ae33e2bf5ce9-049</v>
+        <v>b51466f4-0088-a542-9adc-cbe78da934f5-049</v>
       </c>
       <c r="O49" s="116" t="str">
         <f t="shared" si="37"/>
@@ -13226,7 +13226,7 @@
       </c>
       <c r="Q49" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>fbebc9d3-740e-0de9-3e47-ae33e2bf5ce9-049</v>
+        <v>b51466f4-0088-a542-9adc-cbe78da934f5-049</v>
       </c>
       <c r="R49" s="117">
         <f t="shared" si="26"/>
@@ -13274,7 +13274,7 @@
       </c>
       <c r="AC49" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBFBEBC9D3740E0DE93</v>
+        <v>BDBB51466F40088A5429</v>
       </c>
       <c r="AD49" s="117" t="str">
         <f t="shared" si="29"/>
@@ -13286,14 +13286,14 @@
       </c>
       <c r="AI49" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>fbebc9d3-740e-0de9-3e47-ae33e2bf5ce9-049</v>
+        <v>b51466f4-0088-a542-9adc-cbe78da934f5-049</v>
       </c>
       <c r="AJ49" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK49" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>fbebc9d3-740e-0de9-3e47-ae33e2bf5ce9-049</v>
+        <v>b51466f4-0088-a542-9adc-cbe78da934f5-049</v>
       </c>
       <c r="AL49" s="117">
         <f t="shared" si="41"/>
@@ -13347,7 +13347,7 @@
       </c>
       <c r="AZ49" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBFBEBC9D3740E0DE93</v>
+        <v>BDBB51466F40088A5429</v>
       </c>
     </row>
     <row r="50" spans="1:52" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="N50" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>f9c8af2d-9b8c-324f-1994-f61a88983963-050</v>
+        <v>3fd4d624-22a5-5621-373e-68afd8415776-050</v>
       </c>
       <c r="O50" s="116" t="str">
         <f t="shared" si="37"/>
@@ -13403,7 +13403,7 @@
       </c>
       <c r="Q50" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>f9c8af2d-9b8c-324f-1994-f61a88983963-050</v>
+        <v>3fd4d624-22a5-5621-373e-68afd8415776-050</v>
       </c>
       <c r="R50" s="117">
         <f t="shared" si="26"/>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="AC50" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBF9C8AF2D9B8C324F1</v>
+        <v>BDB3FD4D62422A556213</v>
       </c>
       <c r="AD50" s="117" t="str">
         <f t="shared" si="29"/>
@@ -13463,14 +13463,14 @@
       </c>
       <c r="AI50" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>f9c8af2d-9b8c-324f-1994-f61a88983963-050</v>
+        <v>3fd4d624-22a5-5621-373e-68afd8415776-050</v>
       </c>
       <c r="AJ50" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK50" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>f9c8af2d-9b8c-324f-1994-f61a88983963-050</v>
+        <v>3fd4d624-22a5-5621-373e-68afd8415776-050</v>
       </c>
       <c r="AL50" s="117">
         <f t="shared" si="41"/>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="AZ50" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDBF9C8AF2D9B8C324F1</v>
+        <v>BDB3FD4D62422A556213</v>
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
@@ -13567,7 +13567,7 @@
       </c>
       <c r="N51" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>370b957b-471f-2b88-7eb9-26e0f5987d81-051</v>
+        <v>678afe7f-6724-a5b8-5adc-c7e6fb1802bc-051</v>
       </c>
       <c r="O51" s="116"/>
       <c r="P51" s="117" t="str">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="Q51" s="116" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>370b957b-471f-2b88-7eb9-26e0f5987d81-051</v>
+        <v>678afe7f-6724-a5b8-5adc-c7e6fb1802bc-051</v>
       </c>
       <c r="R51" s="117">
         <f t="shared" si="26"/>
@@ -13624,7 +13624,7 @@
       </c>
       <c r="AC51" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB370B957B471F2B887</v>
+        <v>BDB678AFE7F6724A5B85</v>
       </c>
       <c r="AD51" s="117" t="str">
         <f t="shared" si="29"/>
@@ -13636,14 +13636,14 @@
       </c>
       <c r="AI51" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>370b957b-471f-2b88-7eb9-26e0f5987d81-051</v>
+        <v>678afe7f-6724-a5b8-5adc-c7e6fb1802bc-051</v>
       </c>
       <c r="AJ51" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK51" s="116" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>370b957b-471f-2b88-7eb9-26e0f5987d81-051</v>
+        <v>678afe7f-6724-a5b8-5adc-c7e6fb1802bc-051</v>
       </c>
       <c r="AL51" s="117">
         <f t="shared" si="41"/>
@@ -13691,7 +13691,7 @@
       </c>
       <c r="AZ51" s="116" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>BDB370B957B471F2B887</v>
+        <v>BDB678AFE7F6724A5B85</v>
       </c>
     </row>
     <row r="52" spans="1:52" s="157" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
@@ -13731,7 +13731,7 @@
       <c r="L52" s="158"/>
       <c r="N52" s="159" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>f4a6bf87-a20f-960b-285f-d2af09bb8c77-052</v>
+        <v>bdd0687e-3834-032f-8b80-eedef56b4d01-052</v>
       </c>
       <c r="O52" s="159"/>
       <c r="P52" s="157" t="str">
@@ -13740,7 +13740,7 @@
       </c>
       <c r="Q52" s="159" t="str">
         <f t="shared" ref="Q52:Q62" ca="1" si="61">N52</f>
-        <v>f4a6bf87-a20f-960b-285f-d2af09bb8c77-052</v>
+        <v>bdd0687e-3834-032f-8b80-eedef56b4d01-052</v>
       </c>
       <c r="R52" s="117">
         <f t="shared" si="26"/>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="AC52" s="159" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBACTF4A6BF87A20F96</v>
+        <v>BDBACTBDD0687E383403</v>
       </c>
       <c r="AD52" s="117" t="str">
         <f t="shared" si="29"/>
@@ -13800,14 +13800,14 @@
       </c>
       <c r="AI52" s="159" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>f4a6bf87-a20f-960b-285f-d2af09bb8c77-052</v>
+        <v>bdd0687e-3834-032f-8b80-eedef56b4d01-052</v>
       </c>
       <c r="AJ52" s="157" t="s">
         <v>76</v>
       </c>
       <c r="AK52" s="159" t="str">
         <f t="shared" ref="AK52:AK83" ca="1" si="63">Q52</f>
-        <v>f4a6bf87-a20f-960b-285f-d2af09bb8c77-052</v>
+        <v>bdd0687e-3834-032f-8b80-eedef56b4d01-052</v>
       </c>
       <c r="AL52" s="157">
         <f>AL51</f>
@@ -13857,7 +13857,7 @@
       </c>
       <c r="AZ52" s="159" t="str">
         <f t="shared" ref="AZ52:AZ102" ca="1" si="70">AC52</f>
-        <v>BDBACTF4A6BF87A20F96</v>
+        <v>BDBACTBDD0687E383403</v>
       </c>
     </row>
     <row r="53" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="N53" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>821ad0b2-4637-9e58-7486-97f754eba1c1-053</v>
+        <v>8ffa2997-44fc-63d0-394f-985c2cf5a771-053</v>
       </c>
       <c r="O53" s="116" t="str">
         <f t="shared" ref="O53:O74" si="73">LEFT(LEFT(W53,3)&amp;"."&amp;SUBSTITUTE(Y53,"-","")&amp;"."&amp;U53&amp;"0000000000000",20)</f>
@@ -13920,7 +13920,7 @@
       </c>
       <c r="Q53" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>821ad0b2-4637-9e58-7486-97f754eba1c1-053</v>
+        <v>8ffa2997-44fc-63d0-394f-985c2cf5a771-053</v>
       </c>
       <c r="R53" s="117">
         <f t="shared" si="26"/>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="AC53" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB821AD0B246379E587</v>
+        <v>BDB8FFA299744FC63D03</v>
       </c>
       <c r="AD53" s="117" t="str">
         <f t="shared" si="29"/>
@@ -13980,14 +13980,14 @@
       </c>
       <c r="AI53" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>821ad0b2-4637-9e58-7486-97f754eba1c1-053</v>
+        <v>8ffa2997-44fc-63d0-394f-985c2cf5a771-053</v>
       </c>
       <c r="AJ53" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK53" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>821ad0b2-4637-9e58-7486-97f754eba1c1-053</v>
+        <v>8ffa2997-44fc-63d0-394f-985c2cf5a771-053</v>
       </c>
       <c r="AL53" s="117">
         <f t="shared" ref="AL53:AL102" si="74">AL52</f>
@@ -14037,7 +14037,7 @@
       </c>
       <c r="AZ53" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB821AD0B246379E587</v>
+        <v>BDB8FFA299744FC63D03</v>
       </c>
     </row>
     <row r="54" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -14088,7 +14088,7 @@
       </c>
       <c r="N54" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>12676ee3-24bd-4666-0e3d-193ce1b893a9-054</v>
+        <v>c7f94d14-4146-57ae-567e-a6ad6da22aab-054</v>
       </c>
       <c r="O54" s="116" t="str">
         <f t="shared" si="73"/>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="Q54" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>12676ee3-24bd-4666-0e3d-193ce1b893a9-054</v>
+        <v>c7f94d14-4146-57ae-567e-a6ad6da22aab-054</v>
       </c>
       <c r="R54" s="117">
         <f t="shared" si="26"/>
@@ -14148,7 +14148,7 @@
       </c>
       <c r="AC54" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB12676EE324BD46660</v>
+        <v>BDBC7F94D14414657AE5</v>
       </c>
       <c r="AD54" s="117" t="str">
         <f t="shared" si="29"/>
@@ -14160,14 +14160,14 @@
       </c>
       <c r="AI54" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>12676ee3-24bd-4666-0e3d-193ce1b893a9-054</v>
+        <v>c7f94d14-4146-57ae-567e-a6ad6da22aab-054</v>
       </c>
       <c r="AJ54" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK54" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>12676ee3-24bd-4666-0e3d-193ce1b893a9-054</v>
+        <v>c7f94d14-4146-57ae-567e-a6ad6da22aab-054</v>
       </c>
       <c r="AL54" s="117">
         <f t="shared" si="74"/>
@@ -14217,7 +14217,7 @@
       </c>
       <c r="AZ54" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB12676EE324BD46660</v>
+        <v>BDBC7F94D14414657AE5</v>
       </c>
     </row>
     <row r="55" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -14268,7 +14268,7 @@
       </c>
       <c r="N55" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>00bf4b77-410c-5cff-6a61-af67fb38422c-055</v>
+        <v>a937d21c-55d3-6940-96f5-75bb68444b7a-055</v>
       </c>
       <c r="O55" s="116" t="str">
         <f t="shared" si="73"/>
@@ -14280,7 +14280,7 @@
       </c>
       <c r="Q55" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>00bf4b77-410c-5cff-6a61-af67fb38422c-055</v>
+        <v>a937d21c-55d3-6940-96f5-75bb68444b7a-055</v>
       </c>
       <c r="R55" s="117">
         <f t="shared" si="26"/>
@@ -14328,7 +14328,7 @@
       </c>
       <c r="AC55" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB00BF4B77410C5CFF6</v>
+        <v>BDBA937D21C55D369409</v>
       </c>
       <c r="AD55" s="117" t="str">
         <f t="shared" si="29"/>
@@ -14340,14 +14340,14 @@
       </c>
       <c r="AI55" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>00bf4b77-410c-5cff-6a61-af67fb38422c-055</v>
+        <v>a937d21c-55d3-6940-96f5-75bb68444b7a-055</v>
       </c>
       <c r="AJ55" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK55" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>00bf4b77-410c-5cff-6a61-af67fb38422c-055</v>
+        <v>a937d21c-55d3-6940-96f5-75bb68444b7a-055</v>
       </c>
       <c r="AL55" s="117">
         <f t="shared" si="74"/>
@@ -14397,7 +14397,7 @@
       </c>
       <c r="AZ55" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB00BF4B77410C5CFF6</v>
+        <v>BDBA937D21C55D369409</v>
       </c>
     </row>
     <row r="56" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -14448,7 +14448,7 @@
       </c>
       <c r="N56" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>316985de-1382-586b-9670-368423281bc9-056</v>
+        <v>fece8fe0-73f4-7b3f-2baf-b667853a1d59-056</v>
       </c>
       <c r="O56" s="116" t="str">
         <f t="shared" si="73"/>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="Q56" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>316985de-1382-586b-9670-368423281bc9-056</v>
+        <v>fece8fe0-73f4-7b3f-2baf-b667853a1d59-056</v>
       </c>
       <c r="R56" s="117">
         <f t="shared" si="26"/>
@@ -14508,7 +14508,7 @@
       </c>
       <c r="AC56" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB316985DE1382586B9</v>
+        <v>BDBFECE8FE073F47B3F2</v>
       </c>
       <c r="AD56" s="117" t="str">
         <f t="shared" si="29"/>
@@ -14520,14 +14520,14 @@
       </c>
       <c r="AI56" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>316985de-1382-586b-9670-368423281bc9-056</v>
+        <v>fece8fe0-73f4-7b3f-2baf-b667853a1d59-056</v>
       </c>
       <c r="AJ56" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK56" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>316985de-1382-586b-9670-368423281bc9-056</v>
+        <v>fece8fe0-73f4-7b3f-2baf-b667853a1d59-056</v>
       </c>
       <c r="AL56" s="117">
         <f t="shared" si="74"/>
@@ -14577,7 +14577,7 @@
       </c>
       <c r="AZ56" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB316985DE1382586B9</v>
+        <v>BDBFECE8FE073F47B3F2</v>
       </c>
     </row>
     <row r="57" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="N57" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>fc0d8fd2-14e2-5219-8710-610405d23595-057</v>
+        <v>e44497f0-a1aa-10fd-83eb-b37254951bc1-057</v>
       </c>
       <c r="O57" s="116" t="str">
         <f t="shared" si="73"/>
@@ -14640,7 +14640,7 @@
       </c>
       <c r="Q57" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>fc0d8fd2-14e2-5219-8710-610405d23595-057</v>
+        <v>e44497f0-a1aa-10fd-83eb-b37254951bc1-057</v>
       </c>
       <c r="R57" s="117">
         <f t="shared" si="26"/>
@@ -14688,7 +14688,7 @@
       </c>
       <c r="AC57" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBFC0D8FD214E252198</v>
+        <v>BDBE44497F0A1AA10FD8</v>
       </c>
       <c r="AD57" s="117" t="str">
         <f t="shared" si="29"/>
@@ -14700,14 +14700,14 @@
       </c>
       <c r="AI57" s="116" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>fc0d8fd2-14e2-5219-8710-610405d23595-057</v>
+        <v>e44497f0-a1aa-10fd-83eb-b37254951bc1-057</v>
       </c>
       <c r="AJ57" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK57" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>fc0d8fd2-14e2-5219-8710-610405d23595-057</v>
+        <v>e44497f0-a1aa-10fd-83eb-b37254951bc1-057</v>
       </c>
       <c r="AL57" s="117">
         <f t="shared" si="74"/>
@@ -14757,7 +14757,7 @@
       </c>
       <c r="AZ57" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBFC0D8FD214E252198</v>
+        <v>BDBE44497F0A1AA10FD8</v>
       </c>
     </row>
     <row r="58" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -14807,7 +14807,7 @@
       </c>
       <c r="N58" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>180ba6eb-1a23-1652-162d-5a9b96a81874-058</v>
+        <v>22819315-1b20-a487-5c00-1fe912fa449b-058</v>
       </c>
       <c r="O58" s="116" t="str">
         <f t="shared" si="73"/>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="Q58" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>180ba6eb-1a23-1652-162d-5a9b96a81874-058</v>
+        <v>22819315-1b20-a487-5c00-1fe912fa449b-058</v>
       </c>
       <c r="R58" s="117">
         <f t="shared" si="26"/>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="AC58" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB180BA6EB1A2316521</v>
+        <v>BDB228193151B20A4875</v>
       </c>
       <c r="AD58" s="117" t="str">
         <f t="shared" si="29"/>
@@ -14879,14 +14879,14 @@
       </c>
       <c r="AI58" s="116" t="str">
         <f t="shared" ref="AI58:AI89" ca="1" si="82">N58</f>
-        <v>180ba6eb-1a23-1652-162d-5a9b96a81874-058</v>
+        <v>22819315-1b20-a487-5c00-1fe912fa449b-058</v>
       </c>
       <c r="AJ58" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK58" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>180ba6eb-1a23-1652-162d-5a9b96a81874-058</v>
+        <v>22819315-1b20-a487-5c00-1fe912fa449b-058</v>
       </c>
       <c r="AL58" s="117">
         <f t="shared" si="74"/>
@@ -14940,7 +14940,7 @@
       </c>
       <c r="AZ58" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB180BA6EB1A2316521</v>
+        <v>BDB228193151B20A4875</v>
       </c>
     </row>
     <row r="59" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -14990,7 +14990,7 @@
       </c>
       <c r="N59" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>48223a2c-8ab5-61c0-8d94-0a963f9995e7-059</v>
+        <v>30c435d9-0c7d-2f62-8070-abb87b23404c-059</v>
       </c>
       <c r="O59" s="116" t="str">
         <f t="shared" si="73"/>
@@ -15002,7 +15002,7 @@
       </c>
       <c r="Q59" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>48223a2c-8ab5-61c0-8d94-0a963f9995e7-059</v>
+        <v>30c435d9-0c7d-2f62-8070-abb87b23404c-059</v>
       </c>
       <c r="R59" s="117">
         <f t="shared" si="26"/>
@@ -15050,7 +15050,7 @@
       </c>
       <c r="AC59" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB48223A2C8AB561C08</v>
+        <v>BDB30C435D90C7D2F628</v>
       </c>
       <c r="AD59" s="117" t="str">
         <f t="shared" si="29"/>
@@ -15062,14 +15062,14 @@
       </c>
       <c r="AI59" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>48223a2c-8ab5-61c0-8d94-0a963f9995e7-059</v>
+        <v>30c435d9-0c7d-2f62-8070-abb87b23404c-059</v>
       </c>
       <c r="AJ59" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK59" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>48223a2c-8ab5-61c0-8d94-0a963f9995e7-059</v>
+        <v>30c435d9-0c7d-2f62-8070-abb87b23404c-059</v>
       </c>
       <c r="AL59" s="117">
         <f t="shared" si="74"/>
@@ -15123,7 +15123,7 @@
       </c>
       <c r="AZ59" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB48223A2C8AB561C08</v>
+        <v>BDB30C435D90C7D2F628</v>
       </c>
     </row>
     <row r="60" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -15173,7 +15173,7 @@
       </c>
       <c r="N60" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>d4900a64-0646-6aa4-0940-7f26ea8e652c-060</v>
+        <v>26c491d4-8895-1c6e-7911-552a819a560f-060</v>
       </c>
       <c r="O60" s="116" t="str">
         <f t="shared" si="73"/>
@@ -15185,7 +15185,7 @@
       </c>
       <c r="Q60" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>d4900a64-0646-6aa4-0940-7f26ea8e652c-060</v>
+        <v>26c491d4-8895-1c6e-7911-552a819a560f-060</v>
       </c>
       <c r="R60" s="117">
         <f t="shared" si="26"/>
@@ -15233,7 +15233,7 @@
       </c>
       <c r="AC60" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBD4900A6406466AA40</v>
+        <v>BDB26C491D488951C6E7</v>
       </c>
       <c r="AD60" s="117" t="str">
         <f t="shared" si="29"/>
@@ -15245,14 +15245,14 @@
       </c>
       <c r="AI60" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>d4900a64-0646-6aa4-0940-7f26ea8e652c-060</v>
+        <v>26c491d4-8895-1c6e-7911-552a819a560f-060</v>
       </c>
       <c r="AJ60" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK60" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>d4900a64-0646-6aa4-0940-7f26ea8e652c-060</v>
+        <v>26c491d4-8895-1c6e-7911-552a819a560f-060</v>
       </c>
       <c r="AL60" s="117">
         <f t="shared" si="74"/>
@@ -15306,7 +15306,7 @@
       </c>
       <c r="AZ60" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBD4900A6406466AA40</v>
+        <v>BDB26C491D488951C6E7</v>
       </c>
     </row>
     <row r="61" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -15357,7 +15357,7 @@
       </c>
       <c r="N61" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>f1c620ba-6dcb-5565-74b1-994eb81e52ef-061</v>
+        <v>0e6b299e-5d81-45fd-7752-e4a56d3c0e2b-061</v>
       </c>
       <c r="O61" s="116" t="str">
         <f t="shared" si="73"/>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="Q61" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>f1c620ba-6dcb-5565-74b1-994eb81e52ef-061</v>
+        <v>0e6b299e-5d81-45fd-7752-e4a56d3c0e2b-061</v>
       </c>
       <c r="R61" s="117">
         <f t="shared" si="26"/>
@@ -15417,7 +15417,7 @@
       </c>
       <c r="AC61" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBF1C620BA6DCB55657</v>
+        <v>BDB0E6B299E5D8145FD7</v>
       </c>
       <c r="AD61" s="117" t="str">
         <f t="shared" si="29"/>
@@ -15429,14 +15429,14 @@
       </c>
       <c r="AI61" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>f1c620ba-6dcb-5565-74b1-994eb81e52ef-061</v>
+        <v>0e6b299e-5d81-45fd-7752-e4a56d3c0e2b-061</v>
       </c>
       <c r="AJ61" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK61" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>f1c620ba-6dcb-5565-74b1-994eb81e52ef-061</v>
+        <v>0e6b299e-5d81-45fd-7752-e4a56d3c0e2b-061</v>
       </c>
       <c r="AL61" s="117">
         <f t="shared" si="74"/>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="AZ61" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBF1C620BA6DCB55657</v>
+        <v>BDB0E6B299E5D8145FD7</v>
       </c>
     </row>
     <row r="62" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -15536,7 +15536,7 @@
       </c>
       <c r="N62" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>7118c330-6084-0da7-329a-1118d94719b7-062</v>
+        <v>2a991db6-6212-0f3b-7d95-caabd26455f8-062</v>
       </c>
       <c r="O62" s="116" t="str">
         <f t="shared" si="73"/>
@@ -15548,7 +15548,7 @@
       </c>
       <c r="Q62" s="116" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>7118c330-6084-0da7-329a-1118d94719b7-062</v>
+        <v>2a991db6-6212-0f3b-7d95-caabd26455f8-062</v>
       </c>
       <c r="R62" s="117">
         <f t="shared" si="26"/>
@@ -15596,7 +15596,7 @@
       </c>
       <c r="AC62" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB7118C33060840DA73</v>
+        <v>BDB2A991DB662120F3B7</v>
       </c>
       <c r="AD62" s="117" t="str">
         <f t="shared" si="29"/>
@@ -15608,14 +15608,14 @@
       </c>
       <c r="AI62" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>7118c330-6084-0da7-329a-1118d94719b7-062</v>
+        <v>2a991db6-6212-0f3b-7d95-caabd26455f8-062</v>
       </c>
       <c r="AJ62" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK62" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>7118c330-6084-0da7-329a-1118d94719b7-062</v>
+        <v>2a991db6-6212-0f3b-7d95-caabd26455f8-062</v>
       </c>
       <c r="AL62" s="117">
         <f t="shared" si="74"/>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="AZ62" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB7118C33060840DA73</v>
+        <v>BDB2A991DB662120F3B7</v>
       </c>
     </row>
     <row r="63" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -15720,7 +15720,7 @@
       </c>
       <c r="N63" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>177a852d-1020-0f05-29e2-3577fadba500-063</v>
+        <v>3f6417f7-1d7d-8cda-696e-0bb5e6d176ec-063</v>
       </c>
       <c r="O63" s="116" t="str">
         <f t="shared" si="73"/>
@@ -15732,7 +15732,7 @@
       </c>
       <c r="Q63" s="116" t="str">
         <f t="shared" ref="Q63:Q102" ca="1" si="92">N63</f>
-        <v>177a852d-1020-0f05-29e2-3577fadba500-063</v>
+        <v>3f6417f7-1d7d-8cda-696e-0bb5e6d176ec-063</v>
       </c>
       <c r="R63" s="117">
         <f t="shared" si="26"/>
@@ -15780,7 +15780,7 @@
       </c>
       <c r="AC63" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDB177A852D10200F052</v>
+        <v>BDB3F6417F71D7D8CDA6</v>
       </c>
       <c r="AD63" s="117" t="str">
         <f t="shared" si="29"/>
@@ -15792,14 +15792,14 @@
       </c>
       <c r="AI63" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>177a852d-1020-0f05-29e2-3577fadba500-063</v>
+        <v>3f6417f7-1d7d-8cda-696e-0bb5e6d176ec-063</v>
       </c>
       <c r="AJ63" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK63" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>177a852d-1020-0f05-29e2-3577fadba500-063</v>
+        <v>3f6417f7-1d7d-8cda-696e-0bb5e6d176ec-063</v>
       </c>
       <c r="AL63" s="117">
         <f t="shared" si="74"/>
@@ -15849,7 +15849,7 @@
       </c>
       <c r="AZ63" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB177A852D10200F052</v>
+        <v>BDB3F6417F71D7D8CDA6</v>
       </c>
     </row>
     <row r="64" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="N64" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>df4e80c7-3558-80dd-9842-6992975c41bc-064</v>
+        <v>d1fece76-a5c9-983b-540a-cfe06a603e71-064</v>
       </c>
       <c r="O64" s="116" t="str">
         <f t="shared" si="73"/>
@@ -15912,7 +15912,7 @@
       </c>
       <c r="Q64" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>df4e80c7-3558-80dd-9842-6992975c41bc-064</v>
+        <v>d1fece76-a5c9-983b-540a-cfe06a603e71-064</v>
       </c>
       <c r="R64" s="117">
         <f t="shared" si="26"/>
@@ -15960,7 +15960,7 @@
       </c>
       <c r="AC64" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBDF4E80C7355880DD9</v>
+        <v>BDBD1FECE76A5C9983B5</v>
       </c>
       <c r="AD64" s="117" t="str">
         <f t="shared" si="29"/>
@@ -15972,14 +15972,14 @@
       </c>
       <c r="AI64" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>df4e80c7-3558-80dd-9842-6992975c41bc-064</v>
+        <v>d1fece76-a5c9-983b-540a-cfe06a603e71-064</v>
       </c>
       <c r="AJ64" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK64" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>df4e80c7-3558-80dd-9842-6992975c41bc-064</v>
+        <v>d1fece76-a5c9-983b-540a-cfe06a603e71-064</v>
       </c>
       <c r="AL64" s="117">
         <f t="shared" si="74"/>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="AZ64" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBDF4E80C7355880DD9</v>
+        <v>BDBD1FECE76A5C9983B5</v>
       </c>
     </row>
     <row r="65" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -16079,7 +16079,7 @@
       </c>
       <c r="N65" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>a4f78145-8b13-8a41-28b4-8b82440e3fa4-065</v>
+        <v>eb64b452-0d08-a044-91ad-47e4b6068c6b-065</v>
       </c>
       <c r="O65" s="116" t="str">
         <f t="shared" si="73"/>
@@ -16091,7 +16091,7 @@
       </c>
       <c r="Q65" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>a4f78145-8b13-8a41-28b4-8b82440e3fa4-065</v>
+        <v>eb64b452-0d08-a044-91ad-47e4b6068c6b-065</v>
       </c>
       <c r="R65" s="117">
         <f t="shared" si="26"/>
@@ -16139,7 +16139,7 @@
       </c>
       <c r="AC65" s="116" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>BDBA4F781458B138A412</v>
+        <v>BDBEB64B4520D08A0449</v>
       </c>
       <c r="AD65" s="117" t="str">
         <f t="shared" si="29"/>
@@ -16151,14 +16151,14 @@
       </c>
       <c r="AI65" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>a4f78145-8b13-8a41-28b4-8b82440e3fa4-065</v>
+        <v>eb64b452-0d08-a044-91ad-47e4b6068c6b-065</v>
       </c>
       <c r="AJ65" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK65" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>a4f78145-8b13-8a41-28b4-8b82440e3fa4-065</v>
+        <v>eb64b452-0d08-a044-91ad-47e4b6068c6b-065</v>
       </c>
       <c r="AL65" s="117">
         <f t="shared" si="74"/>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="AZ65" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBA4F781458B138A412</v>
+        <v>BDBEB64B4520D08A0449</v>
       </c>
     </row>
     <row r="66" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -16262,7 +16262,7 @@
       </c>
       <c r="N66" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>b74ea660-770d-2222-7224-7a93266b46f4-066</v>
+        <v>4be8bf5a-3f50-a0b7-2fb5-127c0484786d-066</v>
       </c>
       <c r="O66" s="116" t="str">
         <f t="shared" si="73"/>
@@ -16274,7 +16274,7 @@
       </c>
       <c r="Q66" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>b74ea660-770d-2222-7224-7a93266b46f4-066</v>
+        <v>4be8bf5a-3f50-a0b7-2fb5-127c0484786d-066</v>
       </c>
       <c r="R66" s="117">
         <f t="shared" si="26"/>
@@ -16322,7 +16322,7 @@
       </c>
       <c r="AC66" s="116" t="str">
         <f t="shared" ref="AC66:AC102" ca="1" si="103">UPPER(LEFT(U66&amp;SUBSTITUTE(N66,"-",""),20))</f>
-        <v>BDBB74EA660770D22227</v>
+        <v>BDB4BE8BF5A3F50A0B72</v>
       </c>
       <c r="AD66" s="117" t="str">
         <f t="shared" si="29"/>
@@ -16334,14 +16334,14 @@
       </c>
       <c r="AI66" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>b74ea660-770d-2222-7224-7a93266b46f4-066</v>
+        <v>4be8bf5a-3f50-a0b7-2fb5-127c0484786d-066</v>
       </c>
       <c r="AJ66" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK66" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>b74ea660-770d-2222-7224-7a93266b46f4-066</v>
+        <v>4be8bf5a-3f50-a0b7-2fb5-127c0484786d-066</v>
       </c>
       <c r="AL66" s="117">
         <f t="shared" si="74"/>
@@ -16395,7 +16395,7 @@
       </c>
       <c r="AZ66" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBB74EA660770D22227</v>
+        <v>BDB4BE8BF5A3F50A0B72</v>
       </c>
     </row>
     <row r="67" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -16445,7 +16445,7 @@
       </c>
       <c r="N67" s="116" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>d7c971a2-5f0e-9da5-5b1c-23c1edf7a3cf-067</v>
+        <v>128a62d0-136f-1540-0369-88b2eb507abe-067</v>
       </c>
       <c r="O67" s="116" t="str">
         <f t="shared" si="73"/>
@@ -16457,7 +16457,7 @@
       </c>
       <c r="Q67" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>d7c971a2-5f0e-9da5-5b1c-23c1edf7a3cf-067</v>
+        <v>128a62d0-136f-1540-0369-88b2eb507abe-067</v>
       </c>
       <c r="R67" s="117">
         <f t="shared" si="26"/>
@@ -16505,7 +16505,7 @@
       </c>
       <c r="AC67" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBD7C971A25F0E9DA55</v>
+        <v>BDB128A62D0136F15400</v>
       </c>
       <c r="AD67" s="117" t="str">
         <f t="shared" si="29"/>
@@ -16517,14 +16517,14 @@
       </c>
       <c r="AI67" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>d7c971a2-5f0e-9da5-5b1c-23c1edf7a3cf-067</v>
+        <v>128a62d0-136f-1540-0369-88b2eb507abe-067</v>
       </c>
       <c r="AJ67" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK67" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>d7c971a2-5f0e-9da5-5b1c-23c1edf7a3cf-067</v>
+        <v>128a62d0-136f-1540-0369-88b2eb507abe-067</v>
       </c>
       <c r="AL67" s="117">
         <f t="shared" si="74"/>
@@ -16578,7 +16578,7 @@
       </c>
       <c r="AZ67" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBD7C971A25F0E9DA55</v>
+        <v>BDB128A62D0136F15400</v>
       </c>
     </row>
     <row r="68" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -16628,7 +16628,7 @@
       </c>
       <c r="N68" s="116" t="str">
         <f t="shared" ref="N68:N102" ca="1" si="109">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>f2b7c9df-a135-04b2-a371-f2bcd639658e-068</v>
+        <v>060e3ee6-7127-0942-912d-797257b9617e-068</v>
       </c>
       <c r="O68" s="116" t="str">
         <f t="shared" si="73"/>
@@ -16640,7 +16640,7 @@
       </c>
       <c r="Q68" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>f2b7c9df-a135-04b2-a371-f2bcd639658e-068</v>
+        <v>060e3ee6-7127-0942-912d-797257b9617e-068</v>
       </c>
       <c r="R68" s="117">
         <f t="shared" ref="R68:R102" si="110">R$2</f>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="AC68" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBF2B7C9DFA13504B2A</v>
+        <v>BDB060E3EE6712709429</v>
       </c>
       <c r="AD68" s="117" t="str">
         <f t="shared" ref="AD68:AD102" si="112">AD$2</f>
@@ -16700,14 +16700,14 @@
       </c>
       <c r="AI68" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>f2b7c9df-a135-04b2-a371-f2bcd639658e-068</v>
+        <v>060e3ee6-7127-0942-912d-797257b9617e-068</v>
       </c>
       <c r="AJ68" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK68" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>f2b7c9df-a135-04b2-a371-f2bcd639658e-068</v>
+        <v>060e3ee6-7127-0942-912d-797257b9617e-068</v>
       </c>
       <c r="AL68" s="117">
         <f t="shared" si="74"/>
@@ -16761,7 +16761,7 @@
       </c>
       <c r="AZ68" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBF2B7C9DFA13504B2A</v>
+        <v>BDB060E3EE6712709429</v>
       </c>
     </row>
     <row r="69" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -16811,7 +16811,7 @@
       </c>
       <c r="N69" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>437bf3ae-5421-6191-8b77-bb7fc2da9e18-069</v>
+        <v>dc0c22e1-7f4f-72bf-7b61-f7c8c8487330-069</v>
       </c>
       <c r="O69" s="116" t="str">
         <f t="shared" si="73"/>
@@ -16823,7 +16823,7 @@
       </c>
       <c r="Q69" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>437bf3ae-5421-6191-8b77-bb7fc2da9e18-069</v>
+        <v>dc0c22e1-7f4f-72bf-7b61-f7c8c8487330-069</v>
       </c>
       <c r="R69" s="117">
         <f t="shared" si="110"/>
@@ -16871,7 +16871,7 @@
       </c>
       <c r="AC69" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB437BF3AE542161918</v>
+        <v>BDBDC0C22E17F4F72BF7</v>
       </c>
       <c r="AD69" s="117" t="str">
         <f t="shared" si="112"/>
@@ -16883,14 +16883,14 @@
       </c>
       <c r="AI69" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>437bf3ae-5421-6191-8b77-bb7fc2da9e18-069</v>
+        <v>dc0c22e1-7f4f-72bf-7b61-f7c8c8487330-069</v>
       </c>
       <c r="AJ69" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK69" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>437bf3ae-5421-6191-8b77-bb7fc2da9e18-069</v>
+        <v>dc0c22e1-7f4f-72bf-7b61-f7c8c8487330-069</v>
       </c>
       <c r="AL69" s="117">
         <f t="shared" si="74"/>
@@ -16944,7 +16944,7 @@
       </c>
       <c r="AZ69" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB437BF3AE542161918</v>
+        <v>BDBDC0C22E17F4F72BF7</v>
       </c>
     </row>
     <row r="70" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="N70" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>d5d1e809-97f8-1f56-1538-487269af0213-070</v>
+        <v>3154e853-04bd-1ecd-41ff-f9ad4712a04f-070</v>
       </c>
       <c r="O70" s="116" t="str">
         <f t="shared" si="73"/>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="Q70" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>d5d1e809-97f8-1f56-1538-487269af0213-070</v>
+        <v>3154e853-04bd-1ecd-41ff-f9ad4712a04f-070</v>
       </c>
       <c r="R70" s="117">
         <f t="shared" si="110"/>
@@ -17054,7 +17054,7 @@
       </c>
       <c r="AC70" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBD5D1E80997F81F561</v>
+        <v>BDB3154E85304BD1ECD4</v>
       </c>
       <c r="AD70" s="117" t="str">
         <f t="shared" si="112"/>
@@ -17066,14 +17066,14 @@
       </c>
       <c r="AI70" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>d5d1e809-97f8-1f56-1538-487269af0213-070</v>
+        <v>3154e853-04bd-1ecd-41ff-f9ad4712a04f-070</v>
       </c>
       <c r="AJ70" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK70" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>d5d1e809-97f8-1f56-1538-487269af0213-070</v>
+        <v>3154e853-04bd-1ecd-41ff-f9ad4712a04f-070</v>
       </c>
       <c r="AL70" s="117">
         <f t="shared" si="74"/>
@@ -17127,7 +17127,7 @@
       </c>
       <c r="AZ70" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBD5D1E80997F81F561</v>
+        <v>BDB3154E85304BD1ECD4</v>
       </c>
     </row>
     <row r="71" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="N71" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>adb9593c-4da6-1847-96bd-12612cd51ac6-071</v>
+        <v>2be5ae69-3f08-19cf-463c-e80317c51467-071</v>
       </c>
       <c r="O71" s="116" t="str">
         <f t="shared" si="73"/>
@@ -17189,7 +17189,7 @@
       </c>
       <c r="Q71" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>adb9593c-4da6-1847-96bd-12612cd51ac6-071</v>
+        <v>2be5ae69-3f08-19cf-463c-e80317c51467-071</v>
       </c>
       <c r="R71" s="117">
         <f t="shared" si="110"/>
@@ -17237,7 +17237,7 @@
       </c>
       <c r="AC71" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBADB9593C4DA618479</v>
+        <v>BDB2BE5AE693F0819CF4</v>
       </c>
       <c r="AD71" s="117" t="str">
         <f t="shared" si="112"/>
@@ -17249,14 +17249,14 @@
       </c>
       <c r="AI71" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>adb9593c-4da6-1847-96bd-12612cd51ac6-071</v>
+        <v>2be5ae69-3f08-19cf-463c-e80317c51467-071</v>
       </c>
       <c r="AJ71" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK71" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>adb9593c-4da6-1847-96bd-12612cd51ac6-071</v>
+        <v>2be5ae69-3f08-19cf-463c-e80317c51467-071</v>
       </c>
       <c r="AL71" s="117">
         <f t="shared" si="74"/>
@@ -17310,7 +17310,7 @@
       </c>
       <c r="AZ71" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBADB9593C4DA618479</v>
+        <v>BDB2BE5AE693F0819CF4</v>
       </c>
     </row>
     <row r="72" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -17360,7 +17360,7 @@
       </c>
       <c r="N72" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>b6190506-593d-4abd-9e1e-bb3338ed3743-072</v>
+        <v>fe64fd37-828c-895d-4f44-d1e3843a464a-072</v>
       </c>
       <c r="O72" s="116" t="str">
         <f t="shared" si="73"/>
@@ -17372,7 +17372,7 @@
       </c>
       <c r="Q72" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>b6190506-593d-4abd-9e1e-bb3338ed3743-072</v>
+        <v>fe64fd37-828c-895d-4f44-d1e3843a464a-072</v>
       </c>
       <c r="R72" s="117">
         <f t="shared" si="110"/>
@@ -17420,7 +17420,7 @@
       </c>
       <c r="AC72" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBB6190506593D4ABD9</v>
+        <v>BDBFE64FD37828C895D4</v>
       </c>
       <c r="AD72" s="117" t="str">
         <f t="shared" si="112"/>
@@ -17432,14 +17432,14 @@
       </c>
       <c r="AI72" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>b6190506-593d-4abd-9e1e-bb3338ed3743-072</v>
+        <v>fe64fd37-828c-895d-4f44-d1e3843a464a-072</v>
       </c>
       <c r="AJ72" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK72" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>b6190506-593d-4abd-9e1e-bb3338ed3743-072</v>
+        <v>fe64fd37-828c-895d-4f44-d1e3843a464a-072</v>
       </c>
       <c r="AL72" s="117">
         <f t="shared" si="74"/>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="AZ72" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBB6190506593D4ABD9</v>
+        <v>BDBFE64FD37828C895D4</v>
       </c>
     </row>
     <row r="73" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="N73" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>dd4910e3-790f-4965-50f6-e1e46623083d-073</v>
+        <v>f5f69b8a-a62a-767f-760a-2e00db538786-073</v>
       </c>
       <c r="O73" s="116" t="str">
         <f t="shared" si="73"/>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="Q73" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>dd4910e3-790f-4965-50f6-e1e46623083d-073</v>
+        <v>f5f69b8a-a62a-767f-760a-2e00db538786-073</v>
       </c>
       <c r="R73" s="117">
         <f t="shared" si="110"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="AC73" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBDD4910E3790F49655</v>
+        <v>BDBF5F69B8AA62A767F7</v>
       </c>
       <c r="AD73" s="117" t="str">
         <f t="shared" si="112"/>
@@ -17615,14 +17615,14 @@
       </c>
       <c r="AI73" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>dd4910e3-790f-4965-50f6-e1e46623083d-073</v>
+        <v>f5f69b8a-a62a-767f-760a-2e00db538786-073</v>
       </c>
       <c r="AJ73" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK73" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>dd4910e3-790f-4965-50f6-e1e46623083d-073</v>
+        <v>f5f69b8a-a62a-767f-760a-2e00db538786-073</v>
       </c>
       <c r="AL73" s="117">
         <f t="shared" si="74"/>
@@ -17676,7 +17676,7 @@
       </c>
       <c r="AZ73" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBDD4910E3790F49655</v>
+        <v>BDBF5F69B8AA62A767F7</v>
       </c>
     </row>
     <row r="74" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -17726,7 +17726,7 @@
       </c>
       <c r="N74" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>7234068a-9492-1a85-5b9a-9ef9dd1e3d26-074</v>
+        <v>d2b9cf63-7820-887b-3fdf-868c20a68e15-074</v>
       </c>
       <c r="O74" s="116" t="str">
         <f t="shared" si="73"/>
@@ -17738,7 +17738,7 @@
       </c>
       <c r="Q74" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>7234068a-9492-1a85-5b9a-9ef9dd1e3d26-074</v>
+        <v>d2b9cf63-7820-887b-3fdf-868c20a68e15-074</v>
       </c>
       <c r="R74" s="117">
         <f t="shared" si="110"/>
@@ -17786,7 +17786,7 @@
       </c>
       <c r="AC74" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB7234068A94921A855</v>
+        <v>BDBD2B9CF637820887B3</v>
       </c>
       <c r="AD74" s="117" t="str">
         <f t="shared" si="112"/>
@@ -17798,14 +17798,14 @@
       </c>
       <c r="AI74" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>7234068a-9492-1a85-5b9a-9ef9dd1e3d26-074</v>
+        <v>d2b9cf63-7820-887b-3fdf-868c20a68e15-074</v>
       </c>
       <c r="AJ74" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK74" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>7234068a-9492-1a85-5b9a-9ef9dd1e3d26-074</v>
+        <v>d2b9cf63-7820-887b-3fdf-868c20a68e15-074</v>
       </c>
       <c r="AL74" s="117">
         <f t="shared" si="74"/>
@@ -17859,7 +17859,7 @@
       </c>
       <c r="AZ74" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB7234068A94921A855</v>
+        <v>BDBD2B9CF637820887B3</v>
       </c>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.25">
@@ -17909,7 +17909,7 @@
       </c>
       <c r="N75" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>ab906e97-84aa-8916-946b-c6603c0a2a72-075</v>
+        <v>3487fc7c-482d-88a9-7524-6f17bfe83c4a-075</v>
       </c>
       <c r="O75" s="116"/>
       <c r="P75" s="117" t="str">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="Q75" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>ab906e97-84aa-8916-946b-c6603c0a2a72-075</v>
+        <v>3487fc7c-482d-88a9-7524-6f17bfe83c4a-075</v>
       </c>
       <c r="R75" s="117">
         <f t="shared" si="110"/>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="AC75" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBAB906E9784AA89169</v>
+        <v>BDB3487FC7C482D88A97</v>
       </c>
       <c r="AD75" s="117" t="str">
         <f t="shared" si="112"/>
@@ -17978,14 +17978,14 @@
       </c>
       <c r="AI75" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>ab906e97-84aa-8916-946b-c6603c0a2a72-075</v>
+        <v>3487fc7c-482d-88a9-7524-6f17bfe83c4a-075</v>
       </c>
       <c r="AJ75" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK75" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>ab906e97-84aa-8916-946b-c6603c0a2a72-075</v>
+        <v>3487fc7c-482d-88a9-7524-6f17bfe83c4a-075</v>
       </c>
       <c r="AL75" s="117">
         <f t="shared" si="74"/>
@@ -18033,7 +18033,7 @@
       </c>
       <c r="AZ75" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBAB906E9784AA89169</v>
+        <v>BDB3487FC7C482D88A97</v>
       </c>
     </row>
     <row r="76" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -18084,7 +18084,7 @@
       </c>
       <c r="N76" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>b0eed4cb-a254-68b9-26d2-9297d801809a-076</v>
+        <v>c8c8531b-50a4-068c-77c2-978c06c4a696-076</v>
       </c>
       <c r="O76" s="116" t="str">
         <f t="shared" ref="O76:O101" si="123">LEFT(LEFT(W76,3)&amp;"."&amp;SUBSTITUTE(Y76,"-","")&amp;"."&amp;U76&amp;"0000000000000",20)</f>
@@ -18096,7 +18096,7 @@
       </c>
       <c r="Q76" s="116" t="str">
         <f t="shared" ref="Q76" ca="1" si="125">N76</f>
-        <v>b0eed4cb-a254-68b9-26d2-9297d801809a-076</v>
+        <v>c8c8531b-50a4-068c-77c2-978c06c4a696-076</v>
       </c>
       <c r="R76" s="117">
         <f t="shared" si="110"/>
@@ -18144,7 +18144,7 @@
       </c>
       <c r="AC76" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBB0EED4CBA25468B92</v>
+        <v>BDBC8C8531B50A4068C7</v>
       </c>
       <c r="AD76" s="117" t="str">
         <f t="shared" si="112"/>
@@ -18156,14 +18156,14 @@
       </c>
       <c r="AI76" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>b0eed4cb-a254-68b9-26d2-9297d801809a-076</v>
+        <v>c8c8531b-50a4-068c-77c2-978c06c4a696-076</v>
       </c>
       <c r="AJ76" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK76" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>b0eed4cb-a254-68b9-26d2-9297d801809a-076</v>
+        <v>c8c8531b-50a4-068c-77c2-978c06c4a696-076</v>
       </c>
       <c r="AL76" s="117">
         <f t="shared" si="74"/>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="AZ76" s="116" t="str">
         <f t="shared" ref="AZ76" ca="1" si="132">AC76</f>
-        <v>BDBB0EED4CBA25468B92</v>
+        <v>BDBC8C8531B50A4068C7</v>
       </c>
     </row>
     <row r="77" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -18268,7 +18268,7 @@
       </c>
       <c r="N77" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>d0ecb64e-99aa-2f06-4778-c82d50c7a4c1-077</v>
+        <v>edb4f50d-1aa0-34db-9291-f7159d6e5c5a-077</v>
       </c>
       <c r="O77" s="116" t="str">
         <f t="shared" si="123"/>
@@ -18280,7 +18280,7 @@
       </c>
       <c r="Q77" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>d0ecb64e-99aa-2f06-4778-c82d50c7a4c1-077</v>
+        <v>edb4f50d-1aa0-34db-9291-f7159d6e5c5a-077</v>
       </c>
       <c r="R77" s="117">
         <f t="shared" si="110"/>
@@ -18328,7 +18328,7 @@
       </c>
       <c r="AC77" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBD0ECB64E99AA2F064</v>
+        <v>BDBEDB4F50D1AA034DB9</v>
       </c>
       <c r="AD77" s="117" t="str">
         <f t="shared" si="112"/>
@@ -18340,14 +18340,14 @@
       </c>
       <c r="AI77" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>d0ecb64e-99aa-2f06-4778-c82d50c7a4c1-077</v>
+        <v>edb4f50d-1aa0-34db-9291-f7159d6e5c5a-077</v>
       </c>
       <c r="AJ77" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK77" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>d0ecb64e-99aa-2f06-4778-c82d50c7a4c1-077</v>
+        <v>edb4f50d-1aa0-34db-9291-f7159d6e5c5a-077</v>
       </c>
       <c r="AL77" s="117">
         <f>AL75</f>
@@ -18401,7 +18401,7 @@
       </c>
       <c r="AZ77" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBD0ECB64E99AA2F064</v>
+        <v>BDBEDB4F50D1AA034DB9</v>
       </c>
     </row>
     <row r="78" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -18452,7 +18452,7 @@
       </c>
       <c r="N78" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>870c84eb-4114-3488-a1ac-d7574d7b43f8-078</v>
+        <v>fcf189c7-7bdc-a728-186b-f804bf66a632-078</v>
       </c>
       <c r="O78" s="116" t="str">
         <f t="shared" si="123"/>
@@ -18464,7 +18464,7 @@
       </c>
       <c r="Q78" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>870c84eb-4114-3488-a1ac-d7574d7b43f8-078</v>
+        <v>fcf189c7-7bdc-a728-186b-f804bf66a632-078</v>
       </c>
       <c r="R78" s="117">
         <f t="shared" si="110"/>
@@ -18512,7 +18512,7 @@
       </c>
       <c r="AC78" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB870C84EB41143488A</v>
+        <v>BDBFCF189C77BDCA7281</v>
       </c>
       <c r="AD78" s="117" t="str">
         <f t="shared" si="112"/>
@@ -18524,14 +18524,14 @@
       </c>
       <c r="AI78" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>870c84eb-4114-3488-a1ac-d7574d7b43f8-078</v>
+        <v>fcf189c7-7bdc-a728-186b-f804bf66a632-078</v>
       </c>
       <c r="AJ78" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK78" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>870c84eb-4114-3488-a1ac-d7574d7b43f8-078</v>
+        <v>fcf189c7-7bdc-a728-186b-f804bf66a632-078</v>
       </c>
       <c r="AL78" s="117">
         <f t="shared" si="74"/>
@@ -18585,7 +18585,7 @@
       </c>
       <c r="AZ78" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB870C84EB41143488A</v>
+        <v>BDBFCF189C77BDCA7281</v>
       </c>
     </row>
     <row r="79" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -18636,7 +18636,7 @@
       </c>
       <c r="N79" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>f88b2133-3420-9647-58a2-b487c0715bd8-079</v>
+        <v>6b0cf8f7-a4e6-42ae-1ed3-80dc2d7408f1-079</v>
       </c>
       <c r="O79" s="116" t="str">
         <f t="shared" si="123"/>
@@ -18648,7 +18648,7 @@
       </c>
       <c r="Q79" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>f88b2133-3420-9647-58a2-b487c0715bd8-079</v>
+        <v>6b0cf8f7-a4e6-42ae-1ed3-80dc2d7408f1-079</v>
       </c>
       <c r="R79" s="117">
         <f t="shared" si="110"/>
@@ -18696,7 +18696,7 @@
       </c>
       <c r="AC79" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBF88B2133342096475</v>
+        <v>BDB6B0CF8F7A4E642AE1</v>
       </c>
       <c r="AD79" s="117" t="str">
         <f t="shared" si="112"/>
@@ -18708,14 +18708,14 @@
       </c>
       <c r="AI79" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>f88b2133-3420-9647-58a2-b487c0715bd8-079</v>
+        <v>6b0cf8f7-a4e6-42ae-1ed3-80dc2d7408f1-079</v>
       </c>
       <c r="AJ79" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK79" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>f88b2133-3420-9647-58a2-b487c0715bd8-079</v>
+        <v>6b0cf8f7-a4e6-42ae-1ed3-80dc2d7408f1-079</v>
       </c>
       <c r="AL79" s="117">
         <f t="shared" si="74"/>
@@ -18769,7 +18769,7 @@
       </c>
       <c r="AZ79" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBF88B2133342096475</v>
+        <v>BDB6B0CF8F7A4E642AE1</v>
       </c>
     </row>
     <row r="80" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -18820,7 +18820,7 @@
       </c>
       <c r="N80" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>8c8e9d22-037d-17ee-7fe1-8d4539ff4f10-080</v>
+        <v>789ed777-044a-987b-0849-67e4455b123e-080</v>
       </c>
       <c r="O80" s="116" t="str">
         <f t="shared" si="123"/>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="Q80" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>8c8e9d22-037d-17ee-7fe1-8d4539ff4f10-080</v>
+        <v>789ed777-044a-987b-0849-67e4455b123e-080</v>
       </c>
       <c r="R80" s="117">
         <f t="shared" si="110"/>
@@ -18880,7 +18880,7 @@
       </c>
       <c r="AC80" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB8C8E9D22037D17EE7</v>
+        <v>BDB789ED777044A987B0</v>
       </c>
       <c r="AD80" s="117" t="str">
         <f t="shared" si="112"/>
@@ -18892,14 +18892,14 @@
       </c>
       <c r="AI80" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>8c8e9d22-037d-17ee-7fe1-8d4539ff4f10-080</v>
+        <v>789ed777-044a-987b-0849-67e4455b123e-080</v>
       </c>
       <c r="AJ80" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK80" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>8c8e9d22-037d-17ee-7fe1-8d4539ff4f10-080</v>
+        <v>789ed777-044a-987b-0849-67e4455b123e-080</v>
       </c>
       <c r="AL80" s="117">
         <f t="shared" si="74"/>
@@ -18953,7 +18953,7 @@
       </c>
       <c r="AZ80" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB8C8E9D22037D17EE7</v>
+        <v>BDB789ED777044A987B0</v>
       </c>
     </row>
     <row r="81" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -19004,7 +19004,7 @@
       </c>
       <c r="N81" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>dc1a6def-2433-45a4-374b-833607fb386e-081</v>
+        <v>0e1d30a9-4c6d-471c-7d64-c4f419b05624-081</v>
       </c>
       <c r="O81" s="116" t="str">
         <f t="shared" si="123"/>
@@ -19016,7 +19016,7 @@
       </c>
       <c r="Q81" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>dc1a6def-2433-45a4-374b-833607fb386e-081</v>
+        <v>0e1d30a9-4c6d-471c-7d64-c4f419b05624-081</v>
       </c>
       <c r="R81" s="117">
         <f t="shared" si="110"/>
@@ -19064,7 +19064,7 @@
       </c>
       <c r="AC81" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBDC1A6DEF243345A43</v>
+        <v>BDB0E1D30A94C6D471C7</v>
       </c>
       <c r="AD81" s="117" t="str">
         <f t="shared" si="112"/>
@@ -19076,14 +19076,14 @@
       </c>
       <c r="AI81" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>dc1a6def-2433-45a4-374b-833607fb386e-081</v>
+        <v>0e1d30a9-4c6d-471c-7d64-c4f419b05624-081</v>
       </c>
       <c r="AJ81" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK81" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>dc1a6def-2433-45a4-374b-833607fb386e-081</v>
+        <v>0e1d30a9-4c6d-471c-7d64-c4f419b05624-081</v>
       </c>
       <c r="AL81" s="117">
         <f t="shared" si="74"/>
@@ -19137,7 +19137,7 @@
       </c>
       <c r="AZ81" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBDC1A6DEF243345A43</v>
+        <v>BDB0E1D30A94C6D471C7</v>
       </c>
     </row>
     <row r="82" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -19188,7 +19188,7 @@
       </c>
       <c r="N82" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>aa8d81ee-a1db-4d25-122e-8a104a1e6309-082</v>
+        <v>b6a9dc75-54c8-0382-2d51-87db4b3d1828-082</v>
       </c>
       <c r="O82" s="116" t="str">
         <f t="shared" si="123"/>
@@ -19200,7 +19200,7 @@
       </c>
       <c r="Q82" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>aa8d81ee-a1db-4d25-122e-8a104a1e6309-082</v>
+        <v>b6a9dc75-54c8-0382-2d51-87db4b3d1828-082</v>
       </c>
       <c r="R82" s="117">
         <f t="shared" si="110"/>
@@ -19248,7 +19248,7 @@
       </c>
       <c r="AC82" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBAA8D81EEA1DB4D251</v>
+        <v>BDBB6A9DC7554C803822</v>
       </c>
       <c r="AD82" s="117" t="str">
         <f t="shared" si="112"/>
@@ -19260,14 +19260,14 @@
       </c>
       <c r="AI82" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>aa8d81ee-a1db-4d25-122e-8a104a1e6309-082</v>
+        <v>b6a9dc75-54c8-0382-2d51-87db4b3d1828-082</v>
       </c>
       <c r="AJ82" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK82" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>aa8d81ee-a1db-4d25-122e-8a104a1e6309-082</v>
+        <v>b6a9dc75-54c8-0382-2d51-87db4b3d1828-082</v>
       </c>
       <c r="AL82" s="117">
         <f t="shared" si="74"/>
@@ -19321,7 +19321,7 @@
       </c>
       <c r="AZ82" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBAA8D81EEA1DB4D251</v>
+        <v>BDBB6A9DC7554C803822</v>
       </c>
     </row>
     <row r="83" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -19372,7 +19372,7 @@
       </c>
       <c r="N83" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>6e024c78-145f-5bc4-98a0-ca95d9732399-083</v>
+        <v>ce1df487-28d1-5eec-7144-e350ea4a1e2a-083</v>
       </c>
       <c r="O83" s="116" t="str">
         <f t="shared" si="123"/>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="Q83" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>6e024c78-145f-5bc4-98a0-ca95d9732399-083</v>
+        <v>ce1df487-28d1-5eec-7144-e350ea4a1e2a-083</v>
       </c>
       <c r="R83" s="117">
         <f t="shared" si="110"/>
@@ -19432,7 +19432,7 @@
       </c>
       <c r="AC83" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB6E024C78145F5BC49</v>
+        <v>BDBCE1DF48728D15EEC7</v>
       </c>
       <c r="AD83" s="117" t="str">
         <f t="shared" si="112"/>
@@ -19444,14 +19444,14 @@
       </c>
       <c r="AI83" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>6e024c78-145f-5bc4-98a0-ca95d9732399-083</v>
+        <v>ce1df487-28d1-5eec-7144-e350ea4a1e2a-083</v>
       </c>
       <c r="AJ83" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK83" s="116" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>6e024c78-145f-5bc4-98a0-ca95d9732399-083</v>
+        <v>ce1df487-28d1-5eec-7144-e350ea4a1e2a-083</v>
       </c>
       <c r="AL83" s="117">
         <f t="shared" si="74"/>
@@ -19505,7 +19505,7 @@
       </c>
       <c r="AZ83" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB6E024C78145F5BC49</v>
+        <v>BDBCE1DF48728D15EEC7</v>
       </c>
     </row>
     <row r="84" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -19556,7 +19556,7 @@
       </c>
       <c r="N84" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>fb3988b9-7501-0f88-381b-02737630081b-084</v>
+        <v>b2abc970-a744-93a5-9ab8-81269a6a9b9f-084</v>
       </c>
       <c r="O84" s="116" t="str">
         <f t="shared" si="123"/>
@@ -19568,7 +19568,7 @@
       </c>
       <c r="Q84" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>fb3988b9-7501-0f88-381b-02737630081b-084</v>
+        <v>b2abc970-a744-93a5-9ab8-81269a6a9b9f-084</v>
       </c>
       <c r="R84" s="117">
         <f t="shared" si="110"/>
@@ -19616,7 +19616,7 @@
       </c>
       <c r="AC84" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBFB3988B975010F883</v>
+        <v>BDBB2ABC970A74493A59</v>
       </c>
       <c r="AD84" s="117" t="str">
         <f t="shared" si="112"/>
@@ -19628,14 +19628,14 @@
       </c>
       <c r="AI84" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>fb3988b9-7501-0f88-381b-02737630081b-084</v>
+        <v>b2abc970-a744-93a5-9ab8-81269a6a9b9f-084</v>
       </c>
       <c r="AJ84" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK84" s="116" t="str">
         <f t="shared" ref="AK84:AK102" ca="1" si="141">Q84</f>
-        <v>fb3988b9-7501-0f88-381b-02737630081b-084</v>
+        <v>b2abc970-a744-93a5-9ab8-81269a6a9b9f-084</v>
       </c>
       <c r="AL84" s="117">
         <f t="shared" si="74"/>
@@ -19689,7 +19689,7 @@
       </c>
       <c r="AZ84" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBFB3988B975010F883</v>
+        <v>BDBB2ABC970A74493A59</v>
       </c>
     </row>
     <row r="85" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -19740,7 +19740,7 @@
       </c>
       <c r="N85" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>fc2c60a8-14b5-1fb8-1ef0-ae8f1aae731f-085</v>
+        <v>4dc255f3-6d80-8a34-8470-98e53b9955ac-085</v>
       </c>
       <c r="O85" s="116" t="str">
         <f t="shared" si="123"/>
@@ -19752,7 +19752,7 @@
       </c>
       <c r="Q85" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>fc2c60a8-14b5-1fb8-1ef0-ae8f1aae731f-085</v>
+        <v>4dc255f3-6d80-8a34-8470-98e53b9955ac-085</v>
       </c>
       <c r="R85" s="117">
         <f t="shared" si="110"/>
@@ -19800,7 +19800,7 @@
       </c>
       <c r="AC85" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBFC2C60A814B51FB81</v>
+        <v>BDB4DC255F36D808A348</v>
       </c>
       <c r="AD85" s="117" t="str">
         <f t="shared" si="112"/>
@@ -19812,14 +19812,14 @@
       </c>
       <c r="AI85" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>fc2c60a8-14b5-1fb8-1ef0-ae8f1aae731f-085</v>
+        <v>4dc255f3-6d80-8a34-8470-98e53b9955ac-085</v>
       </c>
       <c r="AJ85" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK85" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>fc2c60a8-14b5-1fb8-1ef0-ae8f1aae731f-085</v>
+        <v>4dc255f3-6d80-8a34-8470-98e53b9955ac-085</v>
       </c>
       <c r="AL85" s="117">
         <f t="shared" si="74"/>
@@ -19873,7 +19873,7 @@
       </c>
       <c r="AZ85" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBFC2C60A814B51FB81</v>
+        <v>BDB4DC255F36D808A348</v>
       </c>
     </row>
     <row r="86" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="N86" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>19c66279-72c5-0a8d-2447-473ad40d7537-086</v>
+        <v>b667518f-8dfd-5112-617f-1c8b7c5d6069-086</v>
       </c>
       <c r="O86" s="116" t="str">
         <f t="shared" si="123"/>
@@ -19936,7 +19936,7 @@
       </c>
       <c r="Q86" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>19c66279-72c5-0a8d-2447-473ad40d7537-086</v>
+        <v>b667518f-8dfd-5112-617f-1c8b7c5d6069-086</v>
       </c>
       <c r="R86" s="117">
         <f t="shared" si="110"/>
@@ -19984,7 +19984,7 @@
       </c>
       <c r="AC86" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB19C6627972C50A8D2</v>
+        <v>BDBB667518F8DFD51126</v>
       </c>
       <c r="AD86" s="117" t="str">
         <f t="shared" si="112"/>
@@ -19996,14 +19996,14 @@
       </c>
       <c r="AI86" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>19c66279-72c5-0a8d-2447-473ad40d7537-086</v>
+        <v>b667518f-8dfd-5112-617f-1c8b7c5d6069-086</v>
       </c>
       <c r="AJ86" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK86" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>19c66279-72c5-0a8d-2447-473ad40d7537-086</v>
+        <v>b667518f-8dfd-5112-617f-1c8b7c5d6069-086</v>
       </c>
       <c r="AL86" s="117">
         <f t="shared" si="74"/>
@@ -20057,7 +20057,7 @@
       </c>
       <c r="AZ86" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB19C6627972C50A8D2</v>
+        <v>BDBB667518F8DFD51126</v>
       </c>
     </row>
     <row r="87" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -20108,7 +20108,7 @@
       </c>
       <c r="N87" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>f7ebf284-481a-3d62-23f7-29fa80f4202b-087</v>
+        <v>4ec0d89b-3ae5-7385-5b0e-4dd56f2c7365-087</v>
       </c>
       <c r="O87" s="116" t="str">
         <f t="shared" si="123"/>
@@ -20120,7 +20120,7 @@
       </c>
       <c r="Q87" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>f7ebf284-481a-3d62-23f7-29fa80f4202b-087</v>
+        <v>4ec0d89b-3ae5-7385-5b0e-4dd56f2c7365-087</v>
       </c>
       <c r="R87" s="117">
         <f t="shared" si="110"/>
@@ -20168,7 +20168,7 @@
       </c>
       <c r="AC87" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBF7EBF284481A3D622</v>
+        <v>BDB4EC0D89B3AE573855</v>
       </c>
       <c r="AD87" s="117" t="str">
         <f t="shared" si="112"/>
@@ -20180,14 +20180,14 @@
       </c>
       <c r="AI87" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>f7ebf284-481a-3d62-23f7-29fa80f4202b-087</v>
+        <v>4ec0d89b-3ae5-7385-5b0e-4dd56f2c7365-087</v>
       </c>
       <c r="AJ87" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK87" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>f7ebf284-481a-3d62-23f7-29fa80f4202b-087</v>
+        <v>4ec0d89b-3ae5-7385-5b0e-4dd56f2c7365-087</v>
       </c>
       <c r="AL87" s="117">
         <f t="shared" si="74"/>
@@ -20241,7 +20241,7 @@
       </c>
       <c r="AZ87" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBF7EBF284481A3D622</v>
+        <v>BDB4EC0D89B3AE573855</v>
       </c>
     </row>
     <row r="88" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -20292,7 +20292,7 @@
       </c>
       <c r="N88" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>07eeb355-38a0-7c0c-881a-7f3e11c9268a-088</v>
+        <v>301f1625-6a05-157f-23e5-8de5103349c4-088</v>
       </c>
       <c r="O88" s="116" t="str">
         <f t="shared" si="123"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="Q88" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>07eeb355-38a0-7c0c-881a-7f3e11c9268a-088</v>
+        <v>301f1625-6a05-157f-23e5-8de5103349c4-088</v>
       </c>
       <c r="R88" s="117">
         <f t="shared" si="110"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="AC88" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB07EEB35538A07C0C8</v>
+        <v>BDB301F16256A05157F2</v>
       </c>
       <c r="AD88" s="117" t="str">
         <f t="shared" si="112"/>
@@ -20364,14 +20364,14 @@
       </c>
       <c r="AI88" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>07eeb355-38a0-7c0c-881a-7f3e11c9268a-088</v>
+        <v>301f1625-6a05-157f-23e5-8de5103349c4-088</v>
       </c>
       <c r="AJ88" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK88" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>07eeb355-38a0-7c0c-881a-7f3e11c9268a-088</v>
+        <v>301f1625-6a05-157f-23e5-8de5103349c4-088</v>
       </c>
       <c r="AL88" s="117">
         <f t="shared" si="74"/>
@@ -20425,7 +20425,7 @@
       </c>
       <c r="AZ88" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB07EEB35538A07C0C8</v>
+        <v>BDB301F16256A05157F2</v>
       </c>
     </row>
     <row r="89" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="N89" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>00a0df8d-7e66-6a52-83be-ea8672b16f4c-089</v>
+        <v>85a06bfe-8f37-6fe5-9480-fee2a00b2937-089</v>
       </c>
       <c r="O89" s="116" t="str">
         <f t="shared" si="123"/>
@@ -20488,7 +20488,7 @@
       </c>
       <c r="Q89" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>00a0df8d-7e66-6a52-83be-ea8672b16f4c-089</v>
+        <v>85a06bfe-8f37-6fe5-9480-fee2a00b2937-089</v>
       </c>
       <c r="R89" s="117">
         <f t="shared" si="110"/>
@@ -20536,7 +20536,7 @@
       </c>
       <c r="AC89" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB00A0DF8D7E666A528</v>
+        <v>BDB85A06BFE8F376FE59</v>
       </c>
       <c r="AD89" s="117" t="str">
         <f t="shared" si="112"/>
@@ -20548,14 +20548,14 @@
       </c>
       <c r="AI89" s="116" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>00a0df8d-7e66-6a52-83be-ea8672b16f4c-089</v>
+        <v>85a06bfe-8f37-6fe5-9480-fee2a00b2937-089</v>
       </c>
       <c r="AJ89" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK89" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>00a0df8d-7e66-6a52-83be-ea8672b16f4c-089</v>
+        <v>85a06bfe-8f37-6fe5-9480-fee2a00b2937-089</v>
       </c>
       <c r="AL89" s="117">
         <f t="shared" si="74"/>
@@ -20609,7 +20609,7 @@
       </c>
       <c r="AZ89" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB00A0DF8D7E666A528</v>
+        <v>BDB85A06BFE8F376FE59</v>
       </c>
     </row>
     <row r="90" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -20660,7 +20660,7 @@
       </c>
       <c r="N90" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>3b803f85-2291-a526-a5ba-477cae81a05d-090</v>
+        <v>4b3c9589-1b0f-8e05-685e-e40cc7907f41-090</v>
       </c>
       <c r="O90" s="116" t="str">
         <f t="shared" si="123"/>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="Q90" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>3b803f85-2291-a526-a5ba-477cae81a05d-090</v>
+        <v>4b3c9589-1b0f-8e05-685e-e40cc7907f41-090</v>
       </c>
       <c r="R90" s="117">
         <f t="shared" si="110"/>
@@ -20720,7 +20720,7 @@
       </c>
       <c r="AC90" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB3B803F852291A526A</v>
+        <v>BDB4B3C95891B0F8E056</v>
       </c>
       <c r="AD90" s="117" t="str">
         <f t="shared" si="112"/>
@@ -20732,14 +20732,14 @@
       </c>
       <c r="AI90" s="116" t="str">
         <f t="shared" ref="AI90:AI102" ca="1" si="153">N90</f>
-        <v>3b803f85-2291-a526-a5ba-477cae81a05d-090</v>
+        <v>4b3c9589-1b0f-8e05-685e-e40cc7907f41-090</v>
       </c>
       <c r="AJ90" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK90" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>3b803f85-2291-a526-a5ba-477cae81a05d-090</v>
+        <v>4b3c9589-1b0f-8e05-685e-e40cc7907f41-090</v>
       </c>
       <c r="AL90" s="117">
         <f t="shared" si="74"/>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="AZ90" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB3B803F852291A526A</v>
+        <v>BDB4B3C95891B0F8E056</v>
       </c>
     </row>
     <row r="91" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -20844,7 +20844,7 @@
       </c>
       <c r="N91" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>c6f597cf-4979-3dc1-3bdb-2137b70e773d-091</v>
+        <v>66bfb324-0c1c-50e8-4a54-fd09b3589d67-091</v>
       </c>
       <c r="O91" s="116" t="str">
         <f t="shared" si="123"/>
@@ -20856,7 +20856,7 @@
       </c>
       <c r="Q91" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>c6f597cf-4979-3dc1-3bdb-2137b70e773d-091</v>
+        <v>66bfb324-0c1c-50e8-4a54-fd09b3589d67-091</v>
       </c>
       <c r="R91" s="117">
         <f t="shared" si="110"/>
@@ -20904,7 +20904,7 @@
       </c>
       <c r="AC91" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBC6F597CF49793DC13</v>
+        <v>BDB66BFB3240C1C50E84</v>
       </c>
       <c r="AD91" s="117" t="str">
         <f t="shared" si="112"/>
@@ -20916,14 +20916,14 @@
       </c>
       <c r="AI91" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>c6f597cf-4979-3dc1-3bdb-2137b70e773d-091</v>
+        <v>66bfb324-0c1c-50e8-4a54-fd09b3589d67-091</v>
       </c>
       <c r="AJ91" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK91" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>c6f597cf-4979-3dc1-3bdb-2137b70e773d-091</v>
+        <v>66bfb324-0c1c-50e8-4a54-fd09b3589d67-091</v>
       </c>
       <c r="AL91" s="117">
         <f t="shared" si="74"/>
@@ -20977,7 +20977,7 @@
       </c>
       <c r="AZ91" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBC6F597CF49793DC13</v>
+        <v>BDB66BFB3240C1C50E84</v>
       </c>
     </row>
     <row r="92" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -21028,7 +21028,7 @@
       </c>
       <c r="N92" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>e8486b61-9499-07a2-2a05-84718313a464-092</v>
+        <v>95e55023-5c4e-79f3-3791-6963bdd6090a-092</v>
       </c>
       <c r="O92" s="116" t="str">
         <f t="shared" si="123"/>
@@ -21040,7 +21040,7 @@
       </c>
       <c r="Q92" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>e8486b61-9499-07a2-2a05-84718313a464-092</v>
+        <v>95e55023-5c4e-79f3-3791-6963bdd6090a-092</v>
       </c>
       <c r="R92" s="117">
         <f t="shared" si="110"/>
@@ -21088,7 +21088,7 @@
       </c>
       <c r="AC92" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBE8486B61949907A22</v>
+        <v>BDB95E550235C4E79F33</v>
       </c>
       <c r="AD92" s="117" t="str">
         <f t="shared" si="112"/>
@@ -21100,14 +21100,14 @@
       </c>
       <c r="AI92" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>e8486b61-9499-07a2-2a05-84718313a464-092</v>
+        <v>95e55023-5c4e-79f3-3791-6963bdd6090a-092</v>
       </c>
       <c r="AJ92" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK92" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>e8486b61-9499-07a2-2a05-84718313a464-092</v>
+        <v>95e55023-5c4e-79f3-3791-6963bdd6090a-092</v>
       </c>
       <c r="AL92" s="117">
         <f t="shared" si="74"/>
@@ -21161,7 +21161,7 @@
       </c>
       <c r="AZ92" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBE8486B61949907A22</v>
+        <v>BDB95E550235C4E79F33</v>
       </c>
     </row>
     <row r="93" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -21212,7 +21212,7 @@
       </c>
       <c r="N93" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>23598e88-9c45-6549-8523-6a748d785589-093</v>
+        <v>2d477b79-0eeb-136e-0607-b6c36e387c8a-093</v>
       </c>
       <c r="O93" s="116" t="str">
         <f t="shared" si="123"/>
@@ -21224,7 +21224,7 @@
       </c>
       <c r="Q93" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>23598e88-9c45-6549-8523-6a748d785589-093</v>
+        <v>2d477b79-0eeb-136e-0607-b6c36e387c8a-093</v>
       </c>
       <c r="R93" s="117">
         <f t="shared" si="110"/>
@@ -21272,7 +21272,7 @@
       </c>
       <c r="AC93" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB23598E889C4565498</v>
+        <v>BDB2D477B790EEB136E0</v>
       </c>
       <c r="AD93" s="117" t="str">
         <f t="shared" si="112"/>
@@ -21284,14 +21284,14 @@
       </c>
       <c r="AI93" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>23598e88-9c45-6549-8523-6a748d785589-093</v>
+        <v>2d477b79-0eeb-136e-0607-b6c36e387c8a-093</v>
       </c>
       <c r="AJ93" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK93" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>23598e88-9c45-6549-8523-6a748d785589-093</v>
+        <v>2d477b79-0eeb-136e-0607-b6c36e387c8a-093</v>
       </c>
       <c r="AL93" s="117">
         <f t="shared" si="74"/>
@@ -21345,7 +21345,7 @@
       </c>
       <c r="AZ93" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB23598E889C4565498</v>
+        <v>BDB2D477B790EEB136E0</v>
       </c>
     </row>
     <row r="94" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -21396,7 +21396,7 @@
       </c>
       <c r="N94" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>44aa659b-332d-9a01-6e14-34aab4905e06-094</v>
+        <v>1aac57c7-5f5f-5776-74e9-bc27fd4a7270-094</v>
       </c>
       <c r="O94" s="116" t="str">
         <f t="shared" si="123"/>
@@ -21408,7 +21408,7 @@
       </c>
       <c r="Q94" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>44aa659b-332d-9a01-6e14-34aab4905e06-094</v>
+        <v>1aac57c7-5f5f-5776-74e9-bc27fd4a7270-094</v>
       </c>
       <c r="R94" s="117">
         <f t="shared" si="110"/>
@@ -21456,7 +21456,7 @@
       </c>
       <c r="AC94" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB44AA659B332D9A016</v>
+        <v>BDB1AAC57C75F5F57767</v>
       </c>
       <c r="AD94" s="117" t="str">
         <f t="shared" si="112"/>
@@ -21468,14 +21468,14 @@
       </c>
       <c r="AI94" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>44aa659b-332d-9a01-6e14-34aab4905e06-094</v>
+        <v>1aac57c7-5f5f-5776-74e9-bc27fd4a7270-094</v>
       </c>
       <c r="AJ94" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK94" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>44aa659b-332d-9a01-6e14-34aab4905e06-094</v>
+        <v>1aac57c7-5f5f-5776-74e9-bc27fd4a7270-094</v>
       </c>
       <c r="AL94" s="117">
         <f t="shared" si="74"/>
@@ -21529,7 +21529,7 @@
       </c>
       <c r="AZ94" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB44AA659B332D9A016</v>
+        <v>BDB1AAC57C75F5F57767</v>
       </c>
     </row>
     <row r="95" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -21580,7 +21580,7 @@
       </c>
       <c r="N95" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>add9c9df-187a-2925-7210-f49663378d47-095</v>
+        <v>5abc3032-1278-0778-a231-ff7ce696424c-095</v>
       </c>
       <c r="O95" s="116" t="str">
         <f t="shared" si="123"/>
@@ -21592,7 +21592,7 @@
       </c>
       <c r="Q95" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>add9c9df-187a-2925-7210-f49663378d47-095</v>
+        <v>5abc3032-1278-0778-a231-ff7ce696424c-095</v>
       </c>
       <c r="R95" s="117">
         <f t="shared" si="110"/>
@@ -21640,7 +21640,7 @@
       </c>
       <c r="AC95" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBADD9C9DF187A29257</v>
+        <v>BDB5ABC303212780778A</v>
       </c>
       <c r="AD95" s="117" t="str">
         <f t="shared" si="112"/>
@@ -21652,14 +21652,14 @@
       </c>
       <c r="AI95" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>add9c9df-187a-2925-7210-f49663378d47-095</v>
+        <v>5abc3032-1278-0778-a231-ff7ce696424c-095</v>
       </c>
       <c r="AJ95" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK95" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>add9c9df-187a-2925-7210-f49663378d47-095</v>
+        <v>5abc3032-1278-0778-a231-ff7ce696424c-095</v>
       </c>
       <c r="AL95" s="117">
         <f t="shared" si="74"/>
@@ -21713,7 +21713,7 @@
       </c>
       <c r="AZ95" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBADD9C9DF187A29257</v>
+        <v>BDB5ABC303212780778A</v>
       </c>
     </row>
     <row r="96" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -21764,7 +21764,7 @@
       </c>
       <c r="N96" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>8047975e-02e2-0e36-11b1-f83eb0065473-096</v>
+        <v>c086e764-7e13-71c5-3bef-b1e253841a2b-096</v>
       </c>
       <c r="O96" s="116" t="str">
         <f t="shared" si="123"/>
@@ -21776,7 +21776,7 @@
       </c>
       <c r="Q96" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>8047975e-02e2-0e36-11b1-f83eb0065473-096</v>
+        <v>c086e764-7e13-71c5-3bef-b1e253841a2b-096</v>
       </c>
       <c r="R96" s="117">
         <f t="shared" si="110"/>
@@ -21824,7 +21824,7 @@
       </c>
       <c r="AC96" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB8047975E02E20E361</v>
+        <v>BDBC086E7647E1371C53</v>
       </c>
       <c r="AD96" s="117" t="str">
         <f t="shared" si="112"/>
@@ -21836,14 +21836,14 @@
       </c>
       <c r="AI96" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>8047975e-02e2-0e36-11b1-f83eb0065473-096</v>
+        <v>c086e764-7e13-71c5-3bef-b1e253841a2b-096</v>
       </c>
       <c r="AJ96" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK96" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>8047975e-02e2-0e36-11b1-f83eb0065473-096</v>
+        <v>c086e764-7e13-71c5-3bef-b1e253841a2b-096</v>
       </c>
       <c r="AL96" s="117">
         <f t="shared" si="74"/>
@@ -21897,7 +21897,7 @@
       </c>
       <c r="AZ96" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB8047975E02E20E361</v>
+        <v>BDBC086E7647E1371C53</v>
       </c>
     </row>
     <row r="97" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -21948,7 +21948,7 @@
       </c>
       <c r="N97" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>07b9c2cf-1be6-4dfa-1f3d-cb427e0d7adc-097</v>
+        <v>245ef070-6fa4-468b-11a4-ce35ed03993c-097</v>
       </c>
       <c r="O97" s="116" t="str">
         <f t="shared" si="123"/>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="Q97" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>07b9c2cf-1be6-4dfa-1f3d-cb427e0d7adc-097</v>
+        <v>245ef070-6fa4-468b-11a4-ce35ed03993c-097</v>
       </c>
       <c r="R97" s="117">
         <f t="shared" si="110"/>
@@ -22008,7 +22008,7 @@
       </c>
       <c r="AC97" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB07B9C2CF1BE64DFA1</v>
+        <v>BDB245EF0706FA4468B1</v>
       </c>
       <c r="AD97" s="117" t="str">
         <f t="shared" si="112"/>
@@ -22020,14 +22020,14 @@
       </c>
       <c r="AI97" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>07b9c2cf-1be6-4dfa-1f3d-cb427e0d7adc-097</v>
+        <v>245ef070-6fa4-468b-11a4-ce35ed03993c-097</v>
       </c>
       <c r="AJ97" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK97" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>07b9c2cf-1be6-4dfa-1f3d-cb427e0d7adc-097</v>
+        <v>245ef070-6fa4-468b-11a4-ce35ed03993c-097</v>
       </c>
       <c r="AL97" s="117">
         <f t="shared" si="74"/>
@@ -22081,7 +22081,7 @@
       </c>
       <c r="AZ97" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB07B9C2CF1BE64DFA1</v>
+        <v>BDB245EF0706FA4468B1</v>
       </c>
     </row>
     <row r="98" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -22132,7 +22132,7 @@
       </c>
       <c r="N98" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>bcb8b01d-53a1-8dd6-9a58-31c0465d1a4e-098</v>
+        <v>0d29a318-533d-45ea-1bef-a68741ef836d-098</v>
       </c>
       <c r="O98" s="116" t="str">
         <f t="shared" si="123"/>
@@ -22144,7 +22144,7 @@
       </c>
       <c r="Q98" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>bcb8b01d-53a1-8dd6-9a58-31c0465d1a4e-098</v>
+        <v>0d29a318-533d-45ea-1bef-a68741ef836d-098</v>
       </c>
       <c r="R98" s="117">
         <f t="shared" si="110"/>
@@ -22192,7 +22192,7 @@
       </c>
       <c r="AC98" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBBCB8B01D53A18DD69</v>
+        <v>BDB0D29A318533D45EA1</v>
       </c>
       <c r="AD98" s="117" t="str">
         <f t="shared" si="112"/>
@@ -22204,14 +22204,14 @@
       </c>
       <c r="AI98" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>bcb8b01d-53a1-8dd6-9a58-31c0465d1a4e-098</v>
+        <v>0d29a318-533d-45ea-1bef-a68741ef836d-098</v>
       </c>
       <c r="AJ98" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK98" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>bcb8b01d-53a1-8dd6-9a58-31c0465d1a4e-098</v>
+        <v>0d29a318-533d-45ea-1bef-a68741ef836d-098</v>
       </c>
       <c r="AL98" s="117">
         <f t="shared" si="74"/>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="AZ98" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBBCB8B01D53A18DD69</v>
+        <v>BDB0D29A318533D45EA1</v>
       </c>
     </row>
     <row r="99" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="N99" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>2d2f8500-08b4-4045-385f-e6edf0211b17-099</v>
+        <v>61c4e598-5d5b-589d-133f-eaa72e306f5f-099</v>
       </c>
       <c r="O99" s="116" t="str">
         <f t="shared" si="123"/>
@@ -22328,7 +22328,7 @@
       </c>
       <c r="Q99" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>2d2f8500-08b4-4045-385f-e6edf0211b17-099</v>
+        <v>61c4e598-5d5b-589d-133f-eaa72e306f5f-099</v>
       </c>
       <c r="R99" s="117">
         <f t="shared" si="110"/>
@@ -22376,7 +22376,7 @@
       </c>
       <c r="AC99" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB2D2F850008B440453</v>
+        <v>BDB61C4E5985D5B589D1</v>
       </c>
       <c r="AD99" s="117" t="str">
         <f t="shared" si="112"/>
@@ -22388,14 +22388,14 @@
       </c>
       <c r="AI99" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>2d2f8500-08b4-4045-385f-e6edf0211b17-099</v>
+        <v>61c4e598-5d5b-589d-133f-eaa72e306f5f-099</v>
       </c>
       <c r="AJ99" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK99" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>2d2f8500-08b4-4045-385f-e6edf0211b17-099</v>
+        <v>61c4e598-5d5b-589d-133f-eaa72e306f5f-099</v>
       </c>
       <c r="AL99" s="117">
         <f t="shared" si="74"/>
@@ -22449,7 +22449,7 @@
       </c>
       <c r="AZ99" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB2D2F850008B440453</v>
+        <v>BDB61C4E5985D5B589D1</v>
       </c>
     </row>
     <row r="100" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -22500,7 +22500,7 @@
       </c>
       <c r="N100" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>ffa6ea1e-453c-a202-621c-ef9ae8746c43-100</v>
+        <v>b71a3895-5cb1-3c5b-4645-671d7ee13a19-100</v>
       </c>
       <c r="O100" s="116" t="str">
         <f t="shared" si="123"/>
@@ -22512,7 +22512,7 @@
       </c>
       <c r="Q100" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>ffa6ea1e-453c-a202-621c-ef9ae8746c43-100</v>
+        <v>b71a3895-5cb1-3c5b-4645-671d7ee13a19-100</v>
       </c>
       <c r="R100" s="117">
         <f t="shared" si="110"/>
@@ -22560,7 +22560,7 @@
       </c>
       <c r="AC100" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDBFFA6EA1E453CA2026</v>
+        <v>BDBB71A38955CB13C5B4</v>
       </c>
       <c r="AD100" s="117" t="str">
         <f t="shared" si="112"/>
@@ -22572,14 +22572,14 @@
       </c>
       <c r="AI100" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>ffa6ea1e-453c-a202-621c-ef9ae8746c43-100</v>
+        <v>b71a3895-5cb1-3c5b-4645-671d7ee13a19-100</v>
       </c>
       <c r="AJ100" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK100" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>ffa6ea1e-453c-a202-621c-ef9ae8746c43-100</v>
+        <v>b71a3895-5cb1-3c5b-4645-671d7ee13a19-100</v>
       </c>
       <c r="AL100" s="117">
         <f t="shared" si="74"/>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="AZ100" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDBFFA6EA1E453CA2026</v>
+        <v>BDBB71A38955CB13C5B4</v>
       </c>
     </row>
     <row r="101" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="N101" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>128b0e8d-13b2-09ad-1676-0e71d53f6ba2-101</v>
+        <v>a6198213-615e-65b0-6bb7-223231dc6c9d-101</v>
       </c>
       <c r="O101" s="116" t="str">
         <f t="shared" si="123"/>
@@ -22696,7 +22696,7 @@
       </c>
       <c r="Q101" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>128b0e8d-13b2-09ad-1676-0e71d53f6ba2-101</v>
+        <v>a6198213-615e-65b0-6bb7-223231dc6c9d-101</v>
       </c>
       <c r="R101" s="117">
         <f t="shared" si="110"/>
@@ -22744,7 +22744,7 @@
       </c>
       <c r="AC101" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB128B0E8D13B209AD1</v>
+        <v>BDBA6198213615E65B06</v>
       </c>
       <c r="AD101" s="117" t="str">
         <f t="shared" si="112"/>
@@ -22756,14 +22756,14 @@
       </c>
       <c r="AI101" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>128b0e8d-13b2-09ad-1676-0e71d53f6ba2-101</v>
+        <v>a6198213-615e-65b0-6bb7-223231dc6c9d-101</v>
       </c>
       <c r="AJ101" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK101" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>128b0e8d-13b2-09ad-1676-0e71d53f6ba2-101</v>
+        <v>a6198213-615e-65b0-6bb7-223231dc6c9d-101</v>
       </c>
       <c r="AL101" s="117">
         <f t="shared" si="74"/>
@@ -22817,7 +22817,7 @@
       </c>
       <c r="AZ101" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB128B0E8D13B209AD1</v>
+        <v>BDBA6198213615E65B06</v>
       </c>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.25">
@@ -22866,7 +22866,7 @@
       </c>
       <c r="N102" s="116" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>2659442b-14bb-6d46-9d41-ccab45f04ec0-102</v>
+        <v>0a5d23a7-14d2-8980-6871-7d3d09378aca-102</v>
       </c>
       <c r="O102" s="116"/>
       <c r="P102" s="117" t="str">
@@ -22875,7 +22875,7 @@
       </c>
       <c r="Q102" s="116" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>2659442b-14bb-6d46-9d41-ccab45f04ec0-102</v>
+        <v>0a5d23a7-14d2-8980-6871-7d3d09378aca-102</v>
       </c>
       <c r="R102" s="117">
         <f t="shared" si="110"/>
@@ -22923,7 +22923,7 @@
       </c>
       <c r="AC102" s="116" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>BDB2659442B14BB6D469</v>
+        <v>BDB0A5D23A714D289806</v>
       </c>
       <c r="AD102" s="117" t="str">
         <f t="shared" si="112"/>
@@ -22935,14 +22935,14 @@
       </c>
       <c r="AI102" s="116" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>2659442b-14bb-6d46-9d41-ccab45f04ec0-102</v>
+        <v>0a5d23a7-14d2-8980-6871-7d3d09378aca-102</v>
       </c>
       <c r="AJ102" s="117" t="s">
         <v>76</v>
       </c>
       <c r="AK102" s="116" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>2659442b-14bb-6d46-9d41-ccab45f04ec0-102</v>
+        <v>0a5d23a7-14d2-8980-6871-7d3d09378aca-102</v>
       </c>
       <c r="AL102" s="117">
         <f t="shared" si="74"/>
@@ -22990,7 +22990,7 @@
       </c>
       <c r="AZ102" s="116" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>BDB2659442B14BB6D469</v>
+        <v>BDB0A5D23A714D289806</v>
       </c>
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.25">
